--- a/docs/Spreadsheets/Prototipo - 52 Semanas.xlsx
+++ b/docs/Spreadsheets/Prototipo - 52 Semanas.xlsx
@@ -13,11 +13,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
-    <author>tc={11e71ae3-26b5-4bff-aa10-88fe9c594959}</author>
-    <author>tc={d39a8dd3-abec-4c08-ae92-0865594ff71d}</author>
+    <author>tc={b201f9ef-0c59-4d61-8a72-74626f01815d}</author>
+    <author>tc={f9e81b59-d7d2-4c1d-b45f-bb4a6f65a8fa}</author>
   </authors>
   <commentList>
-    <comment authorId="0" xr:uid="{11e71ae3-26b5-4bff-aa10-88fe9c594959}" ref="H24">
+    <comment authorId="0" xr:uid="{b201f9ef-0c59-4d61-8a72-74626f01815d}" ref="I24">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -31,7 +31,7 @@
 </t>
       </text>
     </comment>
-    <comment authorId="1" xr:uid="{d39a8dd3-abec-4c08-ae92-0865594ff71d}" ref="C5">
+    <comment authorId="1" xr:uid="{f9e81b59-d7d2-4c1d-b45f-bb4a6f65a8fa}" ref="C5">
       <text>
         <t xml:space="preserve">[Threaded comment]
  Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Prototipo - 52 Semanas</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Rendimento Semanal</t>
   </si>
   <si>
     <t>Realizado?</t>
@@ -191,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -340,11 +343,30 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -407,8 +429,14 @@
     <xf borderId="11" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="8" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -420,6 +448,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -469,7 +500,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments">
-  <x18tc:person displayName="Arthur Paes Leme Stiegler" id="{f5af2723-c3f9-4cf6-865d-6f16396a6e8e}" providerId="google-sheets"/>
+  <x18tc:person displayName="Arthur Paes Leme Stiegler" id="{655ab894-33cf-4687-aac0-0f365e232ab1}" providerId="google-sheets"/>
 </x18tc:personList>
 </file>
 
@@ -669,11 +700,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <x18tc:ThreadedComments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <x18tc:threadedComment ref="C5" dT="2026-01-26T02:17:19.00" personId="{f5af2723-c3f9-4cf6-865d-6f16396a6e8e}" id="{d39a8dd3-abec-4c08-ae92-0865594ff71d}" done="0">
+  <x18tc:threadedComment ref="C5" dT="2026-01-26T02:17:19.00" personId="{655ab894-33cf-4687-aac0-0f365e232ab1}" id="{f9e81b59-d7d2-4c1d-b45f-bb4a6f65a8fa}" done="0">
     <x18tc:text xml:space="preserve">Valor base semanal: define o ritmo do desafio das 52 semanas.
 Exemplo: se o valor base for R$ 5, na semana 1 você investe R$ 5, na semana 2 R$ 10, na semana 3 R$ 15… até o final do ciclo.</x18tc:text>
   </x18tc:threadedComment>
-  <x18tc:threadedComment ref="H24" dT="2026-01-26T02:10:25.00" personId="{f5af2723-c3f9-4cf6-865d-6f16396a6e8e}" id="{11e71ae3-26b5-4bff-aa10-88fe9c594959}" done="0">
+  <x18tc:threadedComment ref="I24" dT="2026-01-26T02:10:25.00" personId="{655ab894-33cf-4687-aac0-0f365e232ab1}" id="{b201f9ef-0c59-4d61-8a72-74626f01815d}" done="0">
     <x18tc:text xml:space="preserve">ℹ️ Por que aparece um 13º mês?
 Este planejamento considera que cada mês tem 4 semanas.
 Como o ano possui 52 semanas, ao dividir por 4 temos:
@@ -698,9 +729,10 @@
     <col customWidth="1" min="3" max="3" width="14.38"/>
     <col customWidth="1" min="4" max="4" width="26.75"/>
     <col customWidth="1" min="5" max="5" width="14.75"/>
-    <col customWidth="1" min="6" max="6" width="16.75"/>
-    <col customWidth="1" min="9" max="9" width="16.0"/>
-    <col customWidth="1" min="11" max="11" width="45.63"/>
+    <col customWidth="1" min="6" max="6" width="16.63"/>
+    <col customWidth="1" min="7" max="7" width="16.75"/>
+    <col customWidth="1" min="10" max="10" width="16.0"/>
+    <col customWidth="1" min="12" max="12" width="45.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -708,7 +740,6 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -727,6 +758,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
@@ -757,6 +789,7 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="5"/>
@@ -766,16 +799,16 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="9" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -792,6 +825,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4" ht="29.25" customHeight="1">
       <c r="A4" s="5"/>
@@ -805,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13">
-        <f>SUMIF(F12:F63, TRUE, C12:D63)
- + SUMIF(F12:F63, TRUE, E12:E63)
-</f>
+      <c r="H4" s="13">
+        <f>SUMIF(G12:G63, TRUE, C12:D63)
+ + SUMIF(G12:G63, TRUE, E12:E63)
+ + SUMIF(G12:G63, TRUE, F12:F63)</f>
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -835,6 +869,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
     </row>
     <row r="5" ht="40.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -848,15 +883,15 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18">
-        <f>SUMIF(F12:F63, TRUE, C12:C63) / SUM(C12:C63)
+      <c r="H5" s="18">
+        <f>SUMIF(G12:G63, TRUE, C12:C63) / SUM(C12:C63)
 </f>
         <v>0.0007256894049</v>
       </c>
-      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -877,6 +912,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
     </row>
     <row r="6" ht="24.0" customHeight="1">
       <c r="A6" s="5"/>
@@ -914,6 +950,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3"/>
@@ -944,6 +981,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3"/>
@@ -974,6 +1012,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
@@ -1004,6 +1043,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="5"/>
@@ -1013,13 +1053,13 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1038,8 +1078,9 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-    </row>
-    <row r="11">
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" ht="40.5" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>15</v>
@@ -1053,17 +1094,19 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1082,36 +1125,39 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="14">
         <v>1.0</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="23">
         <f t="shared" ref="C12:C63" si="1"> ($C$5 * B12)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <f> ($C$5 * B12)</f>
         <v>5</v>
       </c>
       <c r="E12" s="15">
         <v>0.0</v>
       </c>
-      <c r="F12" s="16" t="b">
+      <c r="F12" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="14">
+      <c r="H12" s="3"/>
+      <c r="I12" s="14">
         <v>1.0</v>
       </c>
-      <c r="I12" s="23">
-        <f t="shared" ref="I12:I24" si="2">SUMIFS($C$12:$C$63, $B$12:$B$63, "&gt;="&amp;((H12-1)*4+1), $B$12:$B$63, "&lt;="&amp;(H12*4))
+      <c r="J12" s="25">
+        <f t="shared" ref="J12:J24" si="2">SUMIFS($C$12:$C$63, $B$12:$B$63, "&gt;="&amp;((I12-1)*4+1), $B$12:$B$63, "&lt;="&amp;(I12*4))
 </f>
         <v>50</v>
       </c>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1130,35 +1176,38 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="5"/>
-      <c r="B13" s="24">
+      <c r="B13" s="26">
         <v>2.0</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="27">
         <f t="shared" ref="D13:D63" si="3"> D12 + C13</f>
         <v>15</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="28">
         <v>0.0</v>
       </c>
-      <c r="F13" s="27" t="b">
+      <c r="F13" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="24">
+      <c r="H13" s="3"/>
+      <c r="I13" s="26">
         <v>2.0</v>
       </c>
-      <c r="I13" s="28">
+      <c r="J13" s="31">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1177,35 +1226,38 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="14">
         <v>3.0</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E14" s="15">
         <v>0.0</v>
       </c>
-      <c r="F14" s="16" t="b">
+      <c r="F14" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="14">
+      <c r="H14" s="3"/>
+      <c r="I14" s="14">
         <v>3.0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1224,35 +1276,38 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="5"/>
-      <c r="B15" s="24">
+      <c r="B15" s="26">
         <v>4.0</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="27">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="28">
         <v>0.0</v>
       </c>
-      <c r="F15" s="27" t="b">
+      <c r="F15" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="24">
+      <c r="H15" s="3"/>
+      <c r="I15" s="26">
         <v>4.0</v>
       </c>
-      <c r="I15" s="28">
+      <c r="J15" s="31">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1271,35 +1326,38 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="14">
         <v>5.0</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="23">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E16" s="15">
         <v>0.0</v>
       </c>
-      <c r="F16" s="16" t="b">
+      <c r="F16" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="14">
+      <c r="H16" s="3"/>
+      <c r="I16" s="14">
         <v>5.0</v>
       </c>
-      <c r="I16" s="23">
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1318,35 +1376,38 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="5"/>
-      <c r="B17" s="24">
+      <c r="B17" s="26">
         <v>6.0</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="27">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="28">
         <v>0.0</v>
       </c>
-      <c r="F17" s="28" t="b">
+      <c r="F17" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="24">
+      <c r="H17" s="3"/>
+      <c r="I17" s="26">
         <v>6.0</v>
       </c>
-      <c r="I17" s="28">
+      <c r="J17" s="31">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1365,35 +1426,38 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="14">
         <v>7.0</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="23">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="23">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="E18" s="15">
         <v>0.0</v>
       </c>
-      <c r="F18" s="23" t="b">
+      <c r="F18" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="14">
+      <c r="H18" s="3"/>
+      <c r="I18" s="14">
         <v>7.0</v>
       </c>
-      <c r="I18" s="23">
+      <c r="J18" s="25">
         <f t="shared" si="2"/>
         <v>530</v>
       </c>
-      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1412,35 +1476,38 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="5"/>
-      <c r="B19" s="24">
+      <c r="B19" s="26">
         <v>8.0</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="27">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="27">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="28">
         <v>0.0</v>
       </c>
-      <c r="F19" s="28" t="b">
+      <c r="F19" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="24">
+      <c r="H19" s="3"/>
+      <c r="I19" s="26">
         <v>8.0</v>
       </c>
-      <c r="I19" s="28">
+      <c r="J19" s="31">
         <f t="shared" si="2"/>
         <v>610</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1459,35 +1526,38 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="5"/>
       <c r="B20" s="14">
         <v>9.0</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="23">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="23">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="E20" s="15">
         <v>0.0</v>
       </c>
-      <c r="F20" s="23" t="b">
+      <c r="F20" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="14">
+      <c r="H20" s="3"/>
+      <c r="I20" s="14">
         <v>9.0</v>
       </c>
-      <c r="I20" s="23">
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1506,35 +1576,38 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="5"/>
-      <c r="B21" s="24">
+      <c r="B21" s="26">
         <v>10.0</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="27">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="27">
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="28">
         <v>0.0</v>
       </c>
-      <c r="F21" s="28" t="b">
+      <c r="F21" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="24">
+      <c r="H21" s="3"/>
+      <c r="I21" s="26">
         <v>10.0</v>
       </c>
-      <c r="I21" s="28">
+      <c r="J21" s="31">
         <f t="shared" si="2"/>
         <v>770</v>
       </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1553,35 +1626,38 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="14">
         <v>11.0</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="23">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="23">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="E22" s="15">
         <v>0.0</v>
       </c>
-      <c r="F22" s="23" t="b">
+      <c r="F22" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="14">
+      <c r="H22" s="3"/>
+      <c r="I22" s="14">
         <v>11.0</v>
       </c>
-      <c r="I22" s="23">
+      <c r="J22" s="25">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1600,35 +1676,38 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="5"/>
-      <c r="B23" s="24">
+      <c r="B23" s="26">
         <v>12.0</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="27">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="27">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="28">
         <v>0.0</v>
       </c>
-      <c r="F23" s="28" t="b">
+      <c r="F23" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="24">
+      <c r="H23" s="3"/>
+      <c r="I23" s="26">
         <v>12.0</v>
       </c>
-      <c r="I23" s="28">
+      <c r="J23" s="31">
         <f t="shared" si="2"/>
         <v>930</v>
       </c>
-      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1647,35 +1726,38 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="14">
         <v>13.0</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="23">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="23">
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
       <c r="E24" s="15">
         <v>0.0</v>
       </c>
-      <c r="F24" s="23" t="b">
+      <c r="F24" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="17">
+      <c r="H24" s="3"/>
+      <c r="I24" s="17">
         <v>13.0</v>
       </c>
-      <c r="I24" s="29">
+      <c r="J24" s="32">
         <f t="shared" si="2"/>
         <v>1010</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1694,27 +1776,30 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="5"/>
-      <c r="B25" s="24">
+      <c r="B25" s="26">
         <v>14.0</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="27">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="27">
         <f t="shared" si="3"/>
         <v>525</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="28">
         <v>0.0</v>
       </c>
-      <c r="F25" s="28" t="b">
+      <c r="F25" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1736,27 +1821,30 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="14">
         <v>15.0</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="23">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="E26" s="15">
         <v>0.0</v>
       </c>
-      <c r="F26" s="23" t="b">
+      <c r="F26" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1778,27 +1866,30 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="5"/>
-      <c r="B27" s="24">
+      <c r="B27" s="26">
         <v>16.0</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="27">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="27">
         <f t="shared" si="3"/>
         <v>680</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="28">
         <v>0.0</v>
       </c>
-      <c r="F27" s="28" t="b">
+      <c r="F27" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1820,27 +1911,30 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="14">
         <v>17.0</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="23">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="23">
         <f t="shared" si="3"/>
         <v>765</v>
       </c>
       <c r="E28" s="15">
         <v>0.0</v>
       </c>
-      <c r="F28" s="23" t="b">
+      <c r="F28" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1862,27 +1956,30 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="5"/>
-      <c r="B29" s="24">
+      <c r="B29" s="26">
         <v>18.0</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="27">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="27">
         <f t="shared" si="3"/>
         <v>855</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="28">
         <v>0.0</v>
       </c>
-      <c r="F29" s="28" t="b">
+      <c r="F29" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1904,27 +2001,30 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="14">
         <v>19.0</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="23">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
       <c r="E30" s="15">
         <v>0.0</v>
       </c>
-      <c r="F30" s="23" t="b">
+      <c r="F30" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1946,27 +2046,30 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="5"/>
-      <c r="B31" s="24">
+      <c r="B31" s="26">
         <v>20.0</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="27">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="27">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="28">
         <v>0.0</v>
       </c>
-      <c r="F31" s="28" t="b">
+      <c r="F31" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1988,27 +2091,30 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="14">
         <v>21.0</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="23">
         <f t="shared" si="3"/>
         <v>1155</v>
       </c>
       <c r="E32" s="15">
         <v>0.0</v>
       </c>
-      <c r="F32" s="23" t="b">
+      <c r="F32" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -2030,27 +2136,30 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="5"/>
-      <c r="B33" s="24">
+      <c r="B33" s="26">
         <v>22.0</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="27">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="27">
         <f t="shared" si="3"/>
         <v>1265</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="28">
         <v>0.0</v>
       </c>
-      <c r="F33" s="28" t="b">
+      <c r="F33" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2072,27 +2181,30 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="14">
         <v>23.0</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="23">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="23">
         <f t="shared" si="3"/>
         <v>1380</v>
       </c>
       <c r="E34" s="15">
         <v>0.0</v>
       </c>
-      <c r="F34" s="23" t="b">
+      <c r="F34" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2114,27 +2226,30 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="5"/>
-      <c r="B35" s="24">
+      <c r="B35" s="26">
         <v>24.0</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="27">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="27">
         <f t="shared" si="3"/>
         <v>1500</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="28">
         <v>0.0</v>
       </c>
-      <c r="F35" s="28" t="b">
+      <c r="F35" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2156,27 +2271,30 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="14">
         <v>25.0</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="23">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="23">
         <f t="shared" si="3"/>
         <v>1625</v>
       </c>
       <c r="E36" s="15">
         <v>0.0</v>
       </c>
-      <c r="F36" s="23" t="b">
+      <c r="F36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -2198,27 +2316,30 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="5"/>
-      <c r="B37" s="24">
+      <c r="B37" s="26">
         <v>26.0</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="27">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="27">
         <f t="shared" si="3"/>
         <v>1755</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="28">
         <v>0.0</v>
       </c>
-      <c r="F37" s="28" t="b">
+      <c r="F37" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2240,27 +2361,30 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="14">
         <v>27.0</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="23">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="23">
         <f t="shared" si="3"/>
         <v>1890</v>
       </c>
       <c r="E38" s="15">
         <v>0.0</v>
       </c>
-      <c r="F38" s="23" t="b">
+      <c r="F38" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2282,27 +2406,30 @@
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="5"/>
-      <c r="B39" s="24">
+      <c r="B39" s="26">
         <v>28.0</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="27">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="27">
         <f t="shared" si="3"/>
         <v>2030</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="28">
         <v>0.0</v>
       </c>
-      <c r="F39" s="28" t="b">
+      <c r="F39" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2324,27 +2451,30 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="14">
         <v>29.0</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="23">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="23">
         <f t="shared" si="3"/>
         <v>2175</v>
       </c>
       <c r="E40" s="15">
         <v>0.0</v>
       </c>
-      <c r="F40" s="23" t="b">
+      <c r="F40" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2366,27 +2496,30 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="5"/>
-      <c r="B41" s="24">
+      <c r="B41" s="26">
         <v>30.0</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="27">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="27">
         <f t="shared" si="3"/>
         <v>2325</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="28">
         <v>0.0</v>
       </c>
-      <c r="F41" s="28" t="b">
+      <c r="F41" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G41" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2408,27 +2541,30 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="14">
         <v>31.0</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="23">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="23">
         <f t="shared" si="3"/>
         <v>2480</v>
       </c>
       <c r="E42" s="15">
         <v>0.0</v>
       </c>
-      <c r="F42" s="23" t="b">
+      <c r="F42" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2450,27 +2586,30 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="5"/>
-      <c r="B43" s="24">
+      <c r="B43" s="26">
         <v>32.0</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="27">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="27">
         <f t="shared" si="3"/>
         <v>2640</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="28">
         <v>0.0</v>
       </c>
-      <c r="F43" s="28" t="b">
+      <c r="F43" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2492,27 +2631,30 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="14">
         <v>33.0</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="23">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="23">
         <f t="shared" si="3"/>
         <v>2805</v>
       </c>
       <c r="E44" s="15">
         <v>0.0</v>
       </c>
-      <c r="F44" s="23" t="b">
+      <c r="F44" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G44" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -2534,27 +2676,30 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="5"/>
-      <c r="B45" s="24">
+      <c r="B45" s="26">
         <v>34.0</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C45" s="27">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="27">
         <f t="shared" si="3"/>
         <v>2975</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="28">
         <v>0.0</v>
       </c>
-      <c r="F45" s="28" t="b">
+      <c r="F45" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G45" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -2576,27 +2721,30 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="14">
         <v>35.0</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="23">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="23">
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
       <c r="E46" s="15">
         <v>0.0</v>
       </c>
-      <c r="F46" s="23" t="b">
+      <c r="F46" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G46" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -2618,27 +2766,30 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
-      <c r="B47" s="24">
+      <c r="B47" s="26">
         <v>36.0</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C47" s="27">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="27">
         <f t="shared" si="3"/>
         <v>3330</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="28">
         <v>0.0</v>
       </c>
-      <c r="F47" s="28" t="b">
+      <c r="F47" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2660,27 +2811,30 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="5"/>
       <c r="B48" s="14">
         <v>37.0</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="23">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="23">
         <f t="shared" si="3"/>
         <v>3515</v>
       </c>
       <c r="E48" s="15">
         <v>0.0</v>
       </c>
-      <c r="F48" s="23" t="b">
+      <c r="F48" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G48" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2702,27 +2856,30 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="5"/>
-      <c r="B49" s="24">
+      <c r="B49" s="26">
         <v>38.0</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="27">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="D49" s="25">
+      <c r="D49" s="27">
         <f t="shared" si="3"/>
         <v>3705</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="28">
         <v>0.0</v>
       </c>
-      <c r="F49" s="28" t="b">
+      <c r="F49" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -2744,27 +2901,30 @@
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="5"/>
       <c r="B50" s="14">
         <v>39.0</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="23">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="23">
         <f t="shared" si="3"/>
         <v>3900</v>
       </c>
       <c r="E50" s="15">
         <v>0.0</v>
       </c>
-      <c r="F50" s="23" t="b">
+      <c r="F50" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G50" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2786,27 +2946,30 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="5"/>
-      <c r="B51" s="24">
+      <c r="B51" s="26">
         <v>40.0</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="27">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="27">
         <f t="shared" si="3"/>
         <v>4100</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="28">
         <v>0.0</v>
       </c>
-      <c r="F51" s="28" t="b">
+      <c r="F51" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2828,27 +2991,30 @@
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="5"/>
       <c r="B52" s="14">
         <v>41.0</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="23">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="23">
         <f t="shared" si="3"/>
         <v>4305</v>
       </c>
       <c r="E52" s="15">
         <v>0.0</v>
       </c>
-      <c r="F52" s="23" t="b">
+      <c r="F52" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G52" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2870,27 +3036,30 @@
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="5"/>
-      <c r="B53" s="24">
+      <c r="B53" s="26">
         <v>42.0</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="27">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="27">
         <f t="shared" si="3"/>
         <v>4515</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="28">
         <v>0.0</v>
       </c>
-      <c r="F53" s="28" t="b">
+      <c r="F53" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G53" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2912,27 +3081,30 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="14">
         <v>43.0</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="23">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="23">
         <f t="shared" si="3"/>
         <v>4730</v>
       </c>
       <c r="E54" s="15">
         <v>0.0</v>
       </c>
-      <c r="F54" s="23" t="b">
+      <c r="F54" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G54" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -2954,27 +3126,30 @@
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="5"/>
-      <c r="B55" s="24">
+      <c r="B55" s="26">
         <v>44.0</v>
       </c>
-      <c r="C55" s="25">
+      <c r="C55" s="27">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="27">
         <f t="shared" si="3"/>
         <v>4950</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="28">
         <v>0.0</v>
       </c>
-      <c r="F55" s="28" t="b">
+      <c r="F55" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G55" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2996,27 +3171,30 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="14">
         <v>45.0</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="23">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="23">
         <f t="shared" si="3"/>
         <v>5175</v>
       </c>
       <c r="E56" s="15">
         <v>0.0</v>
       </c>
-      <c r="F56" s="23" t="b">
+      <c r="F56" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G56" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -3038,27 +3216,30 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="5"/>
-      <c r="B57" s="24">
+      <c r="B57" s="26">
         <v>46.0</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="27">
         <f t="shared" si="1"/>
         <v>230</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="27">
         <f t="shared" si="3"/>
         <v>5405</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="28">
         <v>0.0</v>
       </c>
-      <c r="F57" s="28" t="b">
+      <c r="F57" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G57" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -3080,27 +3261,30 @@
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="5"/>
       <c r="B58" s="14">
         <v>47.0</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="23">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="23">
         <f t="shared" si="3"/>
         <v>5640</v>
       </c>
       <c r="E58" s="15">
         <v>0.0</v>
       </c>
-      <c r="F58" s="23" t="b">
+      <c r="F58" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G58" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -3122,27 +3306,30 @@
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="5"/>
-      <c r="B59" s="24">
+      <c r="B59" s="26">
         <v>48.0</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="27">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="D59" s="25">
+      <c r="D59" s="27">
         <f t="shared" si="3"/>
         <v>5880</v>
       </c>
-      <c r="E59" s="26">
+      <c r="E59" s="28">
         <v>0.0</v>
       </c>
-      <c r="F59" s="28" t="b">
+      <c r="F59" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G59" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -3164,27 +3351,30 @@
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="14">
         <v>49.0</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="23">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60" s="23">
         <f t="shared" si="3"/>
         <v>6125</v>
       </c>
       <c r="E60" s="15">
         <v>0.0</v>
       </c>
-      <c r="F60" s="23" t="b">
+      <c r="F60" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G60" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -3206,27 +3396,30 @@
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="5"/>
-      <c r="B61" s="24">
+      <c r="B61" s="26">
         <v>50.0</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="27">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D61" s="25">
+      <c r="D61" s="27">
         <f t="shared" si="3"/>
         <v>6375</v>
       </c>
-      <c r="E61" s="26">
+      <c r="E61" s="28">
         <v>0.0</v>
       </c>
-      <c r="F61" s="28" t="b">
+      <c r="F61" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G61" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -3248,27 +3441,30 @@
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="5"/>
       <c r="B62" s="14">
         <v>51.0</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="23">
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D62" s="23">
         <f t="shared" si="3"/>
         <v>6630</v>
       </c>
       <c r="E62" s="15">
         <v>0.0</v>
       </c>
-      <c r="F62" s="23" t="b">
+      <c r="F62" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="25" t="b">
         <v>0</v>
       </c>
-      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -3290,27 +3486,30 @@
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="5"/>
-      <c r="B63" s="30">
+      <c r="B63" s="33">
         <v>52.0</v>
       </c>
-      <c r="C63" s="31">
+      <c r="C63" s="34">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="34">
         <f t="shared" si="3"/>
         <v>6890</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="35">
         <v>0.0</v>
       </c>
-      <c r="F63" s="33" t="b">
+      <c r="F63" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -3332,6 +3531,7 @@
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3"/>
@@ -3362,6 +3562,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3"/>
@@ -3392,6 +3593,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3"/>
@@ -3422,6 +3624,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
@@ -3452,6 +3655,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
@@ -3482,6 +3686,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
@@ -3512,6 +3717,7 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
@@ -3542,6 +3748,7 @@
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
@@ -3572,6 +3779,7 @@
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3"/>
@@ -3602,6 +3810,7 @@
       <c r="Z72" s="3"/>
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
@@ -3632,6 +3841,7 @@
       <c r="Z73" s="3"/>
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="3"/>
@@ -3662,6 +3872,7 @@
       <c r="Z74" s="3"/>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="3"/>
@@ -3692,6 +3903,7 @@
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="3"/>
@@ -3722,6 +3934,7 @@
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="3"/>
@@ -3752,6 +3965,7 @@
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
@@ -3782,6 +3996,7 @@
       <c r="Z78" s="3"/>
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
@@ -3812,6 +4027,7 @@
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="3"/>
@@ -3842,6 +4058,7 @@
       <c r="Z80" s="3"/>
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="3"/>
@@ -3872,6 +4089,7 @@
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="3"/>
@@ -3902,6 +4120,7 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
@@ -3932,6 +4151,7 @@
       <c r="Z83" s="3"/>
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
@@ -3962,6 +4182,7 @@
       <c r="Z84" s="3"/>
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="3"/>
@@ -3992,6 +4213,7 @@
       <c r="Z85" s="3"/>
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="3"/>
@@ -4022,6 +4244,7 @@
       <c r="Z86" s="3"/>
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="3"/>
@@ -4052,6 +4275,7 @@
       <c r="Z87" s="3"/>
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="3"/>
@@ -4082,6 +4306,7 @@
       <c r="Z88" s="3"/>
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="3"/>
@@ -4112,6 +4337,7 @@
       <c r="Z89" s="3"/>
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="3"/>
@@ -4142,6 +4368,7 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="3"/>
@@ -4172,6 +4399,7 @@
       <c r="Z91" s="3"/>
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="3"/>
@@ -4202,6 +4430,7 @@
       <c r="Z92" s="3"/>
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
@@ -4232,6 +4461,7 @@
       <c r="Z93" s="3"/>
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
+      <c r="AC93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="3"/>
@@ -4262,6 +4492,7 @@
       <c r="Z94" s="3"/>
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
@@ -4292,6 +4523,7 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="3"/>
@@ -4322,6 +4554,7 @@
       <c r="Z96" s="3"/>
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="3"/>
@@ -4352,6 +4585,7 @@
       <c r="Z97" s="3"/>
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
@@ -4382,6 +4616,7 @@
       <c r="Z98" s="3"/>
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
@@ -4412,6 +4647,7 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
@@ -4442,6 +4678,7 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
@@ -4472,6 +4709,7 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
+      <c r="AC101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
@@ -4502,6 +4740,7 @@
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
+      <c r="AC102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
@@ -4532,6 +4771,7 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
@@ -4562,6 +4802,7 @@
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
@@ -4592,6 +4833,7 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
@@ -4622,6 +4864,7 @@
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
@@ -4652,6 +4895,7 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
+      <c r="AC107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
@@ -4682,6 +4926,7 @@
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
@@ -4712,6 +4957,7 @@
       <c r="Z109" s="3"/>
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
@@ -4742,6 +4988,7 @@
       <c r="Z110" s="3"/>
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
@@ -4772,6 +5019,7 @@
       <c r="Z111" s="3"/>
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
@@ -4802,6 +5050,7 @@
       <c r="Z112" s="3"/>
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
@@ -4832,6 +5081,7 @@
       <c r="Z113" s="3"/>
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="3"/>
@@ -4862,6 +5112,7 @@
       <c r="Z114" s="3"/>
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
@@ -4892,6 +5143,7 @@
       <c r="Z115" s="3"/>
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
+      <c r="AC115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
@@ -4922,6 +5174,7 @@
       <c r="Z116" s="3"/>
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
+      <c r="AC116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
@@ -4952,6 +5205,7 @@
       <c r="Z117" s="3"/>
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
@@ -4982,6 +5236,7 @@
       <c r="Z118" s="3"/>
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
@@ -5012,6 +5267,7 @@
       <c r="Z119" s="3"/>
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
@@ -5042,6 +5298,7 @@
       <c r="Z120" s="3"/>
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
@@ -5072,6 +5329,7 @@
       <c r="Z121" s="3"/>
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
@@ -5102,6 +5360,7 @@
       <c r="Z122" s="3"/>
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
@@ -5132,6 +5391,7 @@
       <c r="Z123" s="3"/>
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
+      <c r="AC123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
@@ -5162,6 +5422,7 @@
       <c r="Z124" s="3"/>
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
@@ -5192,6 +5453,7 @@
       <c r="Z125" s="3"/>
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
@@ -5222,6 +5484,7 @@
       <c r="Z126" s="3"/>
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
@@ -5252,6 +5515,7 @@
       <c r="Z127" s="3"/>
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
+      <c r="AC127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
@@ -5282,6 +5546,7 @@
       <c r="Z128" s="3"/>
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
+      <c r="AC128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="3"/>
@@ -5312,6 +5577,7 @@
       <c r="Z129" s="3"/>
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
+      <c r="AC129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
@@ -5342,6 +5608,7 @@
       <c r="Z130" s="3"/>
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
+      <c r="AC130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
@@ -5372,6 +5639,7 @@
       <c r="Z131" s="3"/>
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
@@ -5402,6 +5670,7 @@
       <c r="Z132" s="3"/>
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
+      <c r="AC132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
@@ -5432,6 +5701,7 @@
       <c r="Z133" s="3"/>
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
@@ -5462,6 +5732,7 @@
       <c r="Z134" s="3"/>
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
@@ -5492,6 +5763,7 @@
       <c r="Z135" s="3"/>
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
+      <c r="AC135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
@@ -5522,6 +5794,7 @@
       <c r="Z136" s="3"/>
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
+      <c r="AC136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="3"/>
@@ -5552,6 +5825,7 @@
       <c r="Z137" s="3"/>
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
+      <c r="AC137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
@@ -5582,6 +5856,7 @@
       <c r="Z138" s="3"/>
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
@@ -5612,6 +5887,7 @@
       <c r="Z139" s="3"/>
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
@@ -5642,6 +5918,7 @@
       <c r="Z140" s="3"/>
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
+      <c r="AC140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
@@ -5672,6 +5949,7 @@
       <c r="Z141" s="3"/>
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
+      <c r="AC141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
@@ -5702,6 +5980,7 @@
       <c r="Z142" s="3"/>
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
+      <c r="AC142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
@@ -5732,6 +6011,7 @@
       <c r="Z143" s="3"/>
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
+      <c r="AC143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
@@ -5762,6 +6042,7 @@
       <c r="Z144" s="3"/>
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
+      <c r="AC144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
@@ -5792,6 +6073,7 @@
       <c r="Z145" s="3"/>
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
@@ -5822,6 +6104,7 @@
       <c r="Z146" s="3"/>
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
+      <c r="AC146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
@@ -5852,6 +6135,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
+      <c r="AC147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
@@ -5882,6 +6166,7 @@
       <c r="Z148" s="3"/>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
@@ -5912,6 +6197,7 @@
       <c r="Z149" s="3"/>
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
+      <c r="AC149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
@@ -5942,6 +6228,7 @@
       <c r="Z150" s="3"/>
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
+      <c r="AC150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
@@ -5972,6 +6259,7 @@
       <c r="Z151" s="3"/>
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
+      <c r="AC151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
@@ -6002,6 +6290,7 @@
       <c r="Z152" s="3"/>
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
+      <c r="AC152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
@@ -6032,6 +6321,7 @@
       <c r="Z153" s="3"/>
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
+      <c r="AC153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
@@ -6062,6 +6352,7 @@
       <c r="Z154" s="3"/>
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
+      <c r="AC154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
@@ -6092,6 +6383,7 @@
       <c r="Z155" s="3"/>
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
+      <c r="AC155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
@@ -6122,6 +6414,7 @@
       <c r="Z156" s="3"/>
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
+      <c r="AC156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
@@ -6152,6 +6445,7 @@
       <c r="Z157" s="3"/>
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
+      <c r="AC157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
@@ -6182,6 +6476,7 @@
       <c r="Z158" s="3"/>
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
+      <c r="AC158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
@@ -6212,6 +6507,7 @@
       <c r="Z159" s="3"/>
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
+      <c r="AC159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
@@ -6242,6 +6538,7 @@
       <c r="Z160" s="3"/>
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
@@ -6272,6 +6569,7 @@
       <c r="Z161" s="3"/>
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
@@ -6302,6 +6600,7 @@
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
@@ -6332,6 +6631,7 @@
       <c r="Z163" s="3"/>
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
+      <c r="AC163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
@@ -6362,6 +6662,7 @@
       <c r="Z164" s="3"/>
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
+      <c r="AC164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
@@ -6392,6 +6693,7 @@
       <c r="Z165" s="3"/>
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
+      <c r="AC165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
@@ -6422,6 +6724,7 @@
       <c r="Z166" s="3"/>
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
@@ -6452,6 +6755,7 @@
       <c r="Z167" s="3"/>
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
@@ -6482,6 +6786,7 @@
       <c r="Z168" s="3"/>
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
@@ -6512,6 +6817,7 @@
       <c r="Z169" s="3"/>
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
@@ -6542,6 +6848,7 @@
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
+      <c r="AC170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
@@ -6572,6 +6879,7 @@
       <c r="Z171" s="3"/>
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
+      <c r="AC171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
@@ -6602,6 +6910,7 @@
       <c r="Z172" s="3"/>
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
+      <c r="AC172" s="3"/>
     </row>
     <row r="173">
       <c r="A173" s="3"/>
@@ -6632,6 +6941,7 @@
       <c r="Z173" s="3"/>
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
     </row>
     <row r="174">
       <c r="A174" s="3"/>
@@ -6662,6 +6972,7 @@
       <c r="Z174" s="3"/>
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
     </row>
     <row r="175">
       <c r="A175" s="3"/>
@@ -6692,6 +7003,7 @@
       <c r="Z175" s="3"/>
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
+      <c r="AC175" s="3"/>
     </row>
     <row r="176">
       <c r="A176" s="3"/>
@@ -6722,6 +7034,7 @@
       <c r="Z176" s="3"/>
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
     </row>
     <row r="177">
       <c r="A177" s="3"/>
@@ -6752,6 +7065,7 @@
       <c r="Z177" s="3"/>
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
+      <c r="AC177" s="3"/>
     </row>
     <row r="178">
       <c r="A178" s="3"/>
@@ -6782,6 +7096,7 @@
       <c r="Z178" s="3"/>
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
+      <c r="AC178" s="3"/>
     </row>
     <row r="179">
       <c r="A179" s="3"/>
@@ -6812,6 +7127,7 @@
       <c r="Z179" s="3"/>
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
+      <c r="AC179" s="3"/>
     </row>
     <row r="180">
       <c r="A180" s="3"/>
@@ -6842,6 +7158,7 @@
       <c r="Z180" s="3"/>
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
+      <c r="AC180" s="3"/>
     </row>
     <row r="181">
       <c r="A181" s="3"/>
@@ -6872,6 +7189,7 @@
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
+      <c r="AC181" s="3"/>
     </row>
     <row r="182">
       <c r="A182" s="3"/>
@@ -6902,6 +7220,7 @@
       <c r="Z182" s="3"/>
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
+      <c r="AC182" s="3"/>
     </row>
     <row r="183">
       <c r="A183" s="3"/>
@@ -6932,6 +7251,7 @@
       <c r="Z183" s="3"/>
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
+      <c r="AC183" s="3"/>
     </row>
     <row r="184">
       <c r="A184" s="3"/>
@@ -6962,6 +7282,7 @@
       <c r="Z184" s="3"/>
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
+      <c r="AC184" s="3"/>
     </row>
     <row r="185">
       <c r="A185" s="3"/>
@@ -6992,6 +7313,7 @@
       <c r="Z185" s="3"/>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
+      <c r="AC185" s="3"/>
     </row>
     <row r="186">
       <c r="A186" s="3"/>
@@ -7022,6 +7344,7 @@
       <c r="Z186" s="3"/>
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
+      <c r="AC186" s="3"/>
     </row>
     <row r="187">
       <c r="A187" s="3"/>
@@ -7052,6 +7375,7 @@
       <c r="Z187" s="3"/>
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
+      <c r="AC187" s="3"/>
     </row>
     <row r="188">
       <c r="A188" s="3"/>
@@ -7082,6 +7406,7 @@
       <c r="Z188" s="3"/>
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
+      <c r="AC188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
@@ -7112,6 +7437,7 @@
       <c r="Z189" s="3"/>
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
+      <c r="AC189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
@@ -7142,6 +7468,7 @@
       <c r="Z190" s="3"/>
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
+      <c r="AC190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
@@ -7172,6 +7499,7 @@
       <c r="Z191" s="3"/>
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
+      <c r="AC191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
@@ -7202,6 +7530,7 @@
       <c r="Z192" s="3"/>
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
+      <c r="AC192" s="3"/>
     </row>
     <row r="193">
       <c r="A193" s="3"/>
@@ -7232,6 +7561,7 @@
       <c r="Z193" s="3"/>
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
+      <c r="AC193" s="3"/>
     </row>
     <row r="194">
       <c r="A194" s="3"/>
@@ -7262,6 +7592,7 @@
       <c r="Z194" s="3"/>
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
+      <c r="AC194" s="3"/>
     </row>
     <row r="195">
       <c r="A195" s="3"/>
@@ -7292,6 +7623,7 @@
       <c r="Z195" s="3"/>
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
+      <c r="AC195" s="3"/>
     </row>
     <row r="196">
       <c r="A196" s="3"/>
@@ -7322,6 +7654,7 @@
       <c r="Z196" s="3"/>
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
+      <c r="AC196" s="3"/>
     </row>
     <row r="197">
       <c r="A197" s="3"/>
@@ -7352,6 +7685,7 @@
       <c r="Z197" s="3"/>
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
+      <c r="AC197" s="3"/>
     </row>
     <row r="198">
       <c r="A198" s="3"/>
@@ -7382,6 +7716,7 @@
       <c r="Z198" s="3"/>
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
+      <c r="AC198" s="3"/>
     </row>
     <row r="199">
       <c r="A199" s="3"/>
@@ -7412,6 +7747,7 @@
       <c r="Z199" s="3"/>
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
+      <c r="AC199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
@@ -7442,6 +7778,7 @@
       <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
+      <c r="AC200" s="3"/>
     </row>
     <row r="201">
       <c r="A201" s="3"/>
@@ -7472,6 +7809,7 @@
       <c r="Z201" s="3"/>
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
+      <c r="AC201" s="3"/>
     </row>
     <row r="202">
       <c r="A202" s="3"/>
@@ -7502,6 +7840,7 @@
       <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
+      <c r="AC202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
@@ -7532,6 +7871,7 @@
       <c r="Z203" s="3"/>
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
+      <c r="AC203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3"/>
@@ -7562,6 +7902,7 @@
       <c r="Z204" s="3"/>
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
+      <c r="AC204" s="3"/>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
@@ -7592,6 +7933,7 @@
       <c r="Z205" s="3"/>
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
+      <c r="AC205" s="3"/>
     </row>
     <row r="206">
       <c r="A206" s="3"/>
@@ -7622,6 +7964,7 @@
       <c r="Z206" s="3"/>
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
+      <c r="AC206" s="3"/>
     </row>
     <row r="207">
       <c r="A207" s="3"/>
@@ -7652,6 +7995,7 @@
       <c r="Z207" s="3"/>
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
+      <c r="AC207" s="3"/>
     </row>
     <row r="208">
       <c r="A208" s="3"/>
@@ -7682,6 +8026,7 @@
       <c r="Z208" s="3"/>
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
+      <c r="AC208" s="3"/>
     </row>
     <row r="209">
       <c r="A209" s="3"/>
@@ -7712,6 +8057,7 @@
       <c r="Z209" s="3"/>
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
+      <c r="AC209" s="3"/>
     </row>
     <row r="210">
       <c r="A210" s="3"/>
@@ -7742,6 +8088,7 @@
       <c r="Z210" s="3"/>
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
+      <c r="AC210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
@@ -7772,6 +8119,7 @@
       <c r="Z211" s="3"/>
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
@@ -7802,6 +8150,7 @@
       <c r="Z212" s="3"/>
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
+      <c r="AC212" s="3"/>
     </row>
     <row r="213">
       <c r="A213" s="3"/>
@@ -7832,6 +8181,7 @@
       <c r="Z213" s="3"/>
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
+      <c r="AC213" s="3"/>
     </row>
     <row r="214">
       <c r="A214" s="3"/>
@@ -7862,6 +8212,7 @@
       <c r="Z214" s="3"/>
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
+      <c r="AC214" s="3"/>
     </row>
     <row r="215">
       <c r="A215" s="3"/>
@@ -7892,6 +8243,7 @@
       <c r="Z215" s="3"/>
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
     </row>
     <row r="216">
       <c r="A216" s="3"/>
@@ -7922,6 +8274,7 @@
       <c r="Z216" s="3"/>
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
@@ -7952,6 +8305,7 @@
       <c r="Z217" s="3"/>
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
     </row>
     <row r="218">
       <c r="A218" s="3"/>
@@ -7982,6 +8336,7 @@
       <c r="Z218" s="3"/>
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
+      <c r="AC218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
@@ -8012,6 +8367,7 @@
       <c r="Z219" s="3"/>
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
+      <c r="AC219" s="3"/>
     </row>
     <row r="220">
       <c r="A220" s="3"/>
@@ -8042,6 +8398,7 @@
       <c r="Z220" s="3"/>
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
+      <c r="AC220" s="3"/>
     </row>
     <row r="221">
       <c r="A221" s="3"/>
@@ -8072,6 +8429,7 @@
       <c r="Z221" s="3"/>
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
+      <c r="AC221" s="3"/>
     </row>
     <row r="222">
       <c r="A222" s="3"/>
@@ -8102,6 +8460,7 @@
       <c r="Z222" s="3"/>
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
+      <c r="AC222" s="3"/>
     </row>
     <row r="223">
       <c r="A223" s="3"/>
@@ -8132,6 +8491,7 @@
       <c r="Z223" s="3"/>
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
+      <c r="AC223" s="3"/>
     </row>
     <row r="224">
       <c r="A224" s="3"/>
@@ -8162,6 +8522,7 @@
       <c r="Z224" s="3"/>
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
+      <c r="AC224" s="3"/>
     </row>
     <row r="225">
       <c r="A225" s="3"/>
@@ -8192,6 +8553,7 @@
       <c r="Z225" s="3"/>
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
     </row>
     <row r="226">
       <c r="A226" s="3"/>
@@ -8222,6 +8584,7 @@
       <c r="Z226" s="3"/>
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
+      <c r="AC226" s="3"/>
     </row>
     <row r="227">
       <c r="A227" s="3"/>
@@ -8252,6 +8615,7 @@
       <c r="Z227" s="3"/>
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
+      <c r="AC227" s="3"/>
     </row>
     <row r="228">
       <c r="A228" s="3"/>
@@ -8282,6 +8646,7 @@
       <c r="Z228" s="3"/>
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
+      <c r="AC228" s="3"/>
     </row>
     <row r="229">
       <c r="A229" s="3"/>
@@ -8312,6 +8677,7 @@
       <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
+      <c r="AC229" s="3"/>
     </row>
     <row r="230">
       <c r="A230" s="3"/>
@@ -8342,6 +8708,7 @@
       <c r="Z230" s="3"/>
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
+      <c r="AC230" s="3"/>
     </row>
     <row r="231">
       <c r="A231" s="3"/>
@@ -8372,6 +8739,7 @@
       <c r="Z231" s="3"/>
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
     </row>
     <row r="232">
       <c r="A232" s="3"/>
@@ -8402,6 +8770,7 @@
       <c r="Z232" s="3"/>
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
+      <c r="AC232" s="3"/>
     </row>
     <row r="233">
       <c r="A233" s="3"/>
@@ -8432,6 +8801,7 @@
       <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
+      <c r="AC233" s="3"/>
     </row>
     <row r="234">
       <c r="A234" s="3"/>
@@ -8462,6 +8832,7 @@
       <c r="Z234" s="3"/>
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
+      <c r="AC234" s="3"/>
     </row>
     <row r="235">
       <c r="A235" s="3"/>
@@ -8492,6 +8863,7 @@
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
+      <c r="AC235" s="3"/>
     </row>
     <row r="236">
       <c r="A236" s="3"/>
@@ -8522,6 +8894,7 @@
       <c r="Z236" s="3"/>
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
+      <c r="AC236" s="3"/>
     </row>
     <row r="237">
       <c r="A237" s="3"/>
@@ -8552,6 +8925,7 @@
       <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
     </row>
     <row r="238">
       <c r="A238" s="3"/>
@@ -8582,6 +8956,7 @@
       <c r="Z238" s="3"/>
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
     </row>
     <row r="239">
       <c r="A239" s="3"/>
@@ -8612,6 +8987,7 @@
       <c r="Z239" s="3"/>
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
     </row>
     <row r="240">
       <c r="A240" s="3"/>
@@ -8642,6 +9018,7 @@
       <c r="Z240" s="3"/>
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
+      <c r="AC240" s="3"/>
     </row>
     <row r="241">
       <c r="A241" s="3"/>
@@ -8672,6 +9049,7 @@
       <c r="Z241" s="3"/>
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
+      <c r="AC241" s="3"/>
     </row>
     <row r="242">
       <c r="A242" s="3"/>
@@ -8702,6 +9080,7 @@
       <c r="Z242" s="3"/>
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
+      <c r="AC242" s="3"/>
     </row>
     <row r="243">
       <c r="A243" s="3"/>
@@ -8732,6 +9111,7 @@
       <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
     </row>
     <row r="244">
       <c r="A244" s="3"/>
@@ -8762,6 +9142,7 @@
       <c r="Z244" s="3"/>
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
     </row>
     <row r="245">
       <c r="A245" s="3"/>
@@ -8792,6 +9173,7 @@
       <c r="Z245" s="3"/>
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
     </row>
     <row r="246">
       <c r="A246" s="3"/>
@@ -8822,6 +9204,7 @@
       <c r="Z246" s="3"/>
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
     </row>
     <row r="247">
       <c r="A247" s="3"/>
@@ -8852,6 +9235,7 @@
       <c r="Z247" s="3"/>
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
+      <c r="AC247" s="3"/>
     </row>
     <row r="248">
       <c r="A248" s="3"/>
@@ -8882,6 +9266,7 @@
       <c r="Z248" s="3"/>
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
+      <c r="AC248" s="3"/>
     </row>
     <row r="249">
       <c r="A249" s="3"/>
@@ -8912,6 +9297,7 @@
       <c r="Z249" s="3"/>
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
+      <c r="AC249" s="3"/>
     </row>
     <row r="250">
       <c r="A250" s="3"/>
@@ -8942,6 +9328,7 @@
       <c r="Z250" s="3"/>
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
     </row>
     <row r="251">
       <c r="A251" s="3"/>
@@ -8972,6 +9359,7 @@
       <c r="Z251" s="3"/>
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
     </row>
     <row r="252">
       <c r="A252" s="3"/>
@@ -9002,6 +9390,7 @@
       <c r="Z252" s="3"/>
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
     </row>
     <row r="253">
       <c r="A253" s="3"/>
@@ -9032,6 +9421,7 @@
       <c r="Z253" s="3"/>
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
     </row>
     <row r="254">
       <c r="A254" s="3"/>
@@ -9062,6 +9452,7 @@
       <c r="Z254" s="3"/>
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
     </row>
     <row r="255">
       <c r="A255" s="3"/>
@@ -9092,6 +9483,7 @@
       <c r="Z255" s="3"/>
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
+      <c r="AC255" s="3"/>
     </row>
     <row r="256">
       <c r="A256" s="3"/>
@@ -9122,6 +9514,7 @@
       <c r="Z256" s="3"/>
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
+      <c r="AC256" s="3"/>
     </row>
     <row r="257">
       <c r="A257" s="3"/>
@@ -9152,6 +9545,7 @@
       <c r="Z257" s="3"/>
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
     </row>
     <row r="258">
       <c r="A258" s="3"/>
@@ -9182,6 +9576,7 @@
       <c r="Z258" s="3"/>
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
     </row>
     <row r="259">
       <c r="A259" s="3"/>
@@ -9212,6 +9607,7 @@
       <c r="Z259" s="3"/>
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
     </row>
     <row r="260">
       <c r="A260" s="3"/>
@@ -9242,6 +9638,7 @@
       <c r="Z260" s="3"/>
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
     </row>
     <row r="261">
       <c r="A261" s="3"/>
@@ -9272,6 +9669,7 @@
       <c r="Z261" s="3"/>
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
+      <c r="AC261" s="3"/>
     </row>
     <row r="262">
       <c r="A262" s="3"/>
@@ -9302,6 +9700,7 @@
       <c r="Z262" s="3"/>
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
+      <c r="AC262" s="3"/>
     </row>
     <row r="263">
       <c r="A263" s="3"/>
@@ -9332,6 +9731,7 @@
       <c r="Z263" s="3"/>
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
+      <c r="AC263" s="3"/>
     </row>
     <row r="264">
       <c r="A264" s="3"/>
@@ -9362,6 +9762,7 @@
       <c r="Z264" s="3"/>
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
+      <c r="AC264" s="3"/>
     </row>
     <row r="265">
       <c r="A265" s="3"/>
@@ -9392,6 +9793,7 @@
       <c r="Z265" s="3"/>
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
+      <c r="AC265" s="3"/>
     </row>
     <row r="266">
       <c r="A266" s="3"/>
@@ -9422,6 +9824,7 @@
       <c r="Z266" s="3"/>
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
+      <c r="AC266" s="3"/>
     </row>
     <row r="267">
       <c r="A267" s="3"/>
@@ -9452,6 +9855,7 @@
       <c r="Z267" s="3"/>
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
+      <c r="AC267" s="3"/>
     </row>
     <row r="268">
       <c r="A268" s="3"/>
@@ -9482,6 +9886,7 @@
       <c r="Z268" s="3"/>
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
+      <c r="AC268" s="3"/>
     </row>
     <row r="269">
       <c r="A269" s="3"/>
@@ -9512,6 +9917,7 @@
       <c r="Z269" s="3"/>
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
+      <c r="AC269" s="3"/>
     </row>
     <row r="270">
       <c r="A270" s="3"/>
@@ -9542,6 +9948,7 @@
       <c r="Z270" s="3"/>
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
+      <c r="AC270" s="3"/>
     </row>
     <row r="271">
       <c r="A271" s="3"/>
@@ -9572,6 +9979,7 @@
       <c r="Z271" s="3"/>
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
+      <c r="AC271" s="3"/>
     </row>
     <row r="272">
       <c r="A272" s="3"/>
@@ -9602,6 +10010,7 @@
       <c r="Z272" s="3"/>
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
+      <c r="AC272" s="3"/>
     </row>
     <row r="273">
       <c r="A273" s="3"/>
@@ -9632,6 +10041,7 @@
       <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
+      <c r="AC273" s="3"/>
     </row>
     <row r="274">
       <c r="A274" s="3"/>
@@ -9662,6 +10072,7 @@
       <c r="Z274" s="3"/>
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
+      <c r="AC274" s="3"/>
     </row>
     <row r="275">
       <c r="A275" s="3"/>
@@ -9692,6 +10103,7 @@
       <c r="Z275" s="3"/>
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
+      <c r="AC275" s="3"/>
     </row>
     <row r="276">
       <c r="A276" s="3"/>
@@ -9722,6 +10134,7 @@
       <c r="Z276" s="3"/>
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
+      <c r="AC276" s="3"/>
     </row>
     <row r="277">
       <c r="A277" s="3"/>
@@ -9752,6 +10165,7 @@
       <c r="Z277" s="3"/>
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
+      <c r="AC277" s="3"/>
     </row>
     <row r="278">
       <c r="A278" s="3"/>
@@ -9782,6 +10196,7 @@
       <c r="Z278" s="3"/>
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
+      <c r="AC278" s="3"/>
     </row>
     <row r="279">
       <c r="A279" s="3"/>
@@ -9812,6 +10227,7 @@
       <c r="Z279" s="3"/>
       <c r="AA279" s="3"/>
       <c r="AB279" s="3"/>
+      <c r="AC279" s="3"/>
     </row>
     <row r="280">
       <c r="A280" s="3"/>
@@ -9842,6 +10258,7 @@
       <c r="Z280" s="3"/>
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
+      <c r="AC280" s="3"/>
     </row>
     <row r="281">
       <c r="A281" s="3"/>
@@ -9872,6 +10289,7 @@
       <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
+      <c r="AC281" s="3"/>
     </row>
     <row r="282">
       <c r="A282" s="3"/>
@@ -9902,6 +10320,7 @@
       <c r="Z282" s="3"/>
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
+      <c r="AC282" s="3"/>
     </row>
     <row r="283">
       <c r="A283" s="3"/>
@@ -9932,6 +10351,7 @@
       <c r="Z283" s="3"/>
       <c r="AA283" s="3"/>
       <c r="AB283" s="3"/>
+      <c r="AC283" s="3"/>
     </row>
     <row r="284">
       <c r="A284" s="3"/>
@@ -9962,6 +10382,7 @@
       <c r="Z284" s="3"/>
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
+      <c r="AC284" s="3"/>
     </row>
     <row r="285">
       <c r="A285" s="3"/>
@@ -9992,6 +10413,7 @@
       <c r="Z285" s="3"/>
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
+      <c r="AC285" s="3"/>
     </row>
     <row r="286">
       <c r="A286" s="3"/>
@@ -10022,6 +10444,7 @@
       <c r="Z286" s="3"/>
       <c r="AA286" s="3"/>
       <c r="AB286" s="3"/>
+      <c r="AC286" s="3"/>
     </row>
     <row r="287">
       <c r="A287" s="3"/>
@@ -10052,6 +10475,7 @@
       <c r="Z287" s="3"/>
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
+      <c r="AC287" s="3"/>
     </row>
     <row r="288">
       <c r="A288" s="3"/>
@@ -10082,6 +10506,7 @@
       <c r="Z288" s="3"/>
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
+      <c r="AC288" s="3"/>
     </row>
     <row r="289">
       <c r="A289" s="3"/>
@@ -10112,6 +10537,7 @@
       <c r="Z289" s="3"/>
       <c r="AA289" s="3"/>
       <c r="AB289" s="3"/>
+      <c r="AC289" s="3"/>
     </row>
     <row r="290">
       <c r="A290" s="3"/>
@@ -10142,6 +10568,7 @@
       <c r="Z290" s="3"/>
       <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
+      <c r="AC290" s="3"/>
     </row>
     <row r="291">
       <c r="A291" s="3"/>
@@ -10172,6 +10599,7 @@
       <c r="Z291" s="3"/>
       <c r="AA291" s="3"/>
       <c r="AB291" s="3"/>
+      <c r="AC291" s="3"/>
     </row>
     <row r="292">
       <c r="A292" s="3"/>
@@ -10202,6 +10630,7 @@
       <c r="Z292" s="3"/>
       <c r="AA292" s="3"/>
       <c r="AB292" s="3"/>
+      <c r="AC292" s="3"/>
     </row>
     <row r="293">
       <c r="A293" s="3"/>
@@ -10232,6 +10661,7 @@
       <c r="Z293" s="3"/>
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
+      <c r="AC293" s="3"/>
     </row>
     <row r="294">
       <c r="A294" s="3"/>
@@ -10262,6 +10692,7 @@
       <c r="Z294" s="3"/>
       <c r="AA294" s="3"/>
       <c r="AB294" s="3"/>
+      <c r="AC294" s="3"/>
     </row>
     <row r="295">
       <c r="A295" s="3"/>
@@ -10292,6 +10723,7 @@
       <c r="Z295" s="3"/>
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
+      <c r="AC295" s="3"/>
     </row>
     <row r="296">
       <c r="A296" s="3"/>
@@ -10322,6 +10754,7 @@
       <c r="Z296" s="3"/>
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
+      <c r="AC296" s="3"/>
     </row>
     <row r="297">
       <c r="A297" s="3"/>
@@ -10352,6 +10785,7 @@
       <c r="Z297" s="3"/>
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
+      <c r="AC297" s="3"/>
     </row>
     <row r="298">
       <c r="A298" s="3"/>
@@ -10382,6 +10816,7 @@
       <c r="Z298" s="3"/>
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
+      <c r="AC298" s="3"/>
     </row>
     <row r="299">
       <c r="A299" s="3"/>
@@ -10412,6 +10847,7 @@
       <c r="Z299" s="3"/>
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
+      <c r="AC299" s="3"/>
     </row>
     <row r="300">
       <c r="A300" s="3"/>
@@ -10442,6 +10878,7 @@
       <c r="Z300" s="3"/>
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
+      <c r="AC300" s="3"/>
     </row>
     <row r="301">
       <c r="A301" s="3"/>
@@ -10472,6 +10909,7 @@
       <c r="Z301" s="3"/>
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
+      <c r="AC301" s="3"/>
     </row>
     <row r="302">
       <c r="A302" s="3"/>
@@ -10502,6 +10940,7 @@
       <c r="Z302" s="3"/>
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
+      <c r="AC302" s="3"/>
     </row>
     <row r="303">
       <c r="A303" s="3"/>
@@ -10532,6 +10971,7 @@
       <c r="Z303" s="3"/>
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
+      <c r="AC303" s="3"/>
     </row>
     <row r="304">
       <c r="A304" s="3"/>
@@ -10562,6 +11002,7 @@
       <c r="Z304" s="3"/>
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
+      <c r="AC304" s="3"/>
     </row>
     <row r="305">
       <c r="A305" s="3"/>
@@ -10592,6 +11033,7 @@
       <c r="Z305" s="3"/>
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
+      <c r="AC305" s="3"/>
     </row>
     <row r="306">
       <c r="A306" s="3"/>
@@ -10622,6 +11064,7 @@
       <c r="Z306" s="3"/>
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
+      <c r="AC306" s="3"/>
     </row>
     <row r="307">
       <c r="A307" s="3"/>
@@ -10652,6 +11095,7 @@
       <c r="Z307" s="3"/>
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
+      <c r="AC307" s="3"/>
     </row>
     <row r="308">
       <c r="A308" s="3"/>
@@ -10682,6 +11126,7 @@
       <c r="Z308" s="3"/>
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
+      <c r="AC308" s="3"/>
     </row>
     <row r="309">
       <c r="A309" s="3"/>
@@ -10712,6 +11157,7 @@
       <c r="Z309" s="3"/>
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
+      <c r="AC309" s="3"/>
     </row>
     <row r="310">
       <c r="A310" s="3"/>
@@ -10742,6 +11188,7 @@
       <c r="Z310" s="3"/>
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
+      <c r="AC310" s="3"/>
     </row>
     <row r="311">
       <c r="A311" s="3"/>
@@ -10772,6 +11219,7 @@
       <c r="Z311" s="3"/>
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
+      <c r="AC311" s="3"/>
     </row>
     <row r="312">
       <c r="A312" s="3"/>
@@ -10802,6 +11250,7 @@
       <c r="Z312" s="3"/>
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
+      <c r="AC312" s="3"/>
     </row>
     <row r="313">
       <c r="A313" s="3"/>
@@ -10832,6 +11281,7 @@
       <c r="Z313" s="3"/>
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
+      <c r="AC313" s="3"/>
     </row>
     <row r="314">
       <c r="A314" s="3"/>
@@ -10862,6 +11312,7 @@
       <c r="Z314" s="3"/>
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
+      <c r="AC314" s="3"/>
     </row>
     <row r="315">
       <c r="A315" s="3"/>
@@ -10892,6 +11343,7 @@
       <c r="Z315" s="3"/>
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
+      <c r="AC315" s="3"/>
     </row>
     <row r="316">
       <c r="A316" s="3"/>
@@ -10922,6 +11374,7 @@
       <c r="Z316" s="3"/>
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
+      <c r="AC316" s="3"/>
     </row>
     <row r="317">
       <c r="A317" s="3"/>
@@ -10952,6 +11405,7 @@
       <c r="Z317" s="3"/>
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
+      <c r="AC317" s="3"/>
     </row>
     <row r="318">
       <c r="A318" s="3"/>
@@ -10982,6 +11436,7 @@
       <c r="Z318" s="3"/>
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
+      <c r="AC318" s="3"/>
     </row>
     <row r="319">
       <c r="A319" s="3"/>
@@ -11012,6 +11467,7 @@
       <c r="Z319" s="3"/>
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
+      <c r="AC319" s="3"/>
     </row>
     <row r="320">
       <c r="A320" s="3"/>
@@ -11042,6 +11498,7 @@
       <c r="Z320" s="3"/>
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
+      <c r="AC320" s="3"/>
     </row>
     <row r="321">
       <c r="A321" s="3"/>
@@ -11072,6 +11529,7 @@
       <c r="Z321" s="3"/>
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
+      <c r="AC321" s="3"/>
     </row>
     <row r="322">
       <c r="A322" s="3"/>
@@ -11102,6 +11560,7 @@
       <c r="Z322" s="3"/>
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
+      <c r="AC322" s="3"/>
     </row>
     <row r="323">
       <c r="A323" s="3"/>
@@ -11132,6 +11591,7 @@
       <c r="Z323" s="3"/>
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
+      <c r="AC323" s="3"/>
     </row>
     <row r="324">
       <c r="A324" s="3"/>
@@ -11162,6 +11622,7 @@
       <c r="Z324" s="3"/>
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
+      <c r="AC324" s="3"/>
     </row>
     <row r="325">
       <c r="A325" s="3"/>
@@ -11192,6 +11653,7 @@
       <c r="Z325" s="3"/>
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
+      <c r="AC325" s="3"/>
     </row>
     <row r="326">
       <c r="A326" s="3"/>
@@ -11222,6 +11684,7 @@
       <c r="Z326" s="3"/>
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
+      <c r="AC326" s="3"/>
     </row>
     <row r="327">
       <c r="A327" s="3"/>
@@ -11252,6 +11715,7 @@
       <c r="Z327" s="3"/>
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
+      <c r="AC327" s="3"/>
     </row>
     <row r="328">
       <c r="A328" s="3"/>
@@ -11282,6 +11746,7 @@
       <c r="Z328" s="3"/>
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
+      <c r="AC328" s="3"/>
     </row>
     <row r="329">
       <c r="A329" s="3"/>
@@ -11312,6 +11777,7 @@
       <c r="Z329" s="3"/>
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
+      <c r="AC329" s="3"/>
     </row>
     <row r="330">
       <c r="A330" s="3"/>
@@ -11342,6 +11808,7 @@
       <c r="Z330" s="3"/>
       <c r="AA330" s="3"/>
       <c r="AB330" s="3"/>
+      <c r="AC330" s="3"/>
     </row>
     <row r="331">
       <c r="A331" s="3"/>
@@ -11372,6 +11839,7 @@
       <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
       <c r="AB331" s="3"/>
+      <c r="AC331" s="3"/>
     </row>
     <row r="332">
       <c r="A332" s="3"/>
@@ -11402,6 +11870,7 @@
       <c r="Z332" s="3"/>
       <c r="AA332" s="3"/>
       <c r="AB332" s="3"/>
+      <c r="AC332" s="3"/>
     </row>
     <row r="333">
       <c r="A333" s="3"/>
@@ -11432,6 +11901,7 @@
       <c r="Z333" s="3"/>
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
+      <c r="AC333" s="3"/>
     </row>
     <row r="334">
       <c r="A334" s="3"/>
@@ -11462,6 +11932,7 @@
       <c r="Z334" s="3"/>
       <c r="AA334" s="3"/>
       <c r="AB334" s="3"/>
+      <c r="AC334" s="3"/>
     </row>
     <row r="335">
       <c r="A335" s="3"/>
@@ -11492,6 +11963,7 @@
       <c r="Z335" s="3"/>
       <c r="AA335" s="3"/>
       <c r="AB335" s="3"/>
+      <c r="AC335" s="3"/>
     </row>
     <row r="336">
       <c r="A336" s="3"/>
@@ -11522,6 +11994,7 @@
       <c r="Z336" s="3"/>
       <c r="AA336" s="3"/>
       <c r="AB336" s="3"/>
+      <c r="AC336" s="3"/>
     </row>
     <row r="337">
       <c r="A337" s="3"/>
@@ -11552,6 +12025,7 @@
       <c r="Z337" s="3"/>
       <c r="AA337" s="3"/>
       <c r="AB337" s="3"/>
+      <c r="AC337" s="3"/>
     </row>
     <row r="338">
       <c r="A338" s="3"/>
@@ -11582,6 +12056,7 @@
       <c r="Z338" s="3"/>
       <c r="AA338" s="3"/>
       <c r="AB338" s="3"/>
+      <c r="AC338" s="3"/>
     </row>
     <row r="339">
       <c r="A339" s="3"/>
@@ -11612,6 +12087,7 @@
       <c r="Z339" s="3"/>
       <c r="AA339" s="3"/>
       <c r="AB339" s="3"/>
+      <c r="AC339" s="3"/>
     </row>
     <row r="340">
       <c r="A340" s="3"/>
@@ -11642,6 +12118,7 @@
       <c r="Z340" s="3"/>
       <c r="AA340" s="3"/>
       <c r="AB340" s="3"/>
+      <c r="AC340" s="3"/>
     </row>
     <row r="341">
       <c r="A341" s="3"/>
@@ -11672,6 +12149,7 @@
       <c r="Z341" s="3"/>
       <c r="AA341" s="3"/>
       <c r="AB341" s="3"/>
+      <c r="AC341" s="3"/>
     </row>
     <row r="342">
       <c r="A342" s="3"/>
@@ -11702,6 +12180,7 @@
       <c r="Z342" s="3"/>
       <c r="AA342" s="3"/>
       <c r="AB342" s="3"/>
+      <c r="AC342" s="3"/>
     </row>
     <row r="343">
       <c r="A343" s="3"/>
@@ -11732,6 +12211,7 @@
       <c r="Z343" s="3"/>
       <c r="AA343" s="3"/>
       <c r="AB343" s="3"/>
+      <c r="AC343" s="3"/>
     </row>
     <row r="344">
       <c r="A344" s="3"/>
@@ -11762,6 +12242,7 @@
       <c r="Z344" s="3"/>
       <c r="AA344" s="3"/>
       <c r="AB344" s="3"/>
+      <c r="AC344" s="3"/>
     </row>
     <row r="345">
       <c r="A345" s="3"/>
@@ -11792,6 +12273,7 @@
       <c r="Z345" s="3"/>
       <c r="AA345" s="3"/>
       <c r="AB345" s="3"/>
+      <c r="AC345" s="3"/>
     </row>
     <row r="346">
       <c r="A346" s="3"/>
@@ -11822,6 +12304,7 @@
       <c r="Z346" s="3"/>
       <c r="AA346" s="3"/>
       <c r="AB346" s="3"/>
+      <c r="AC346" s="3"/>
     </row>
     <row r="347">
       <c r="A347" s="3"/>
@@ -11852,6 +12335,7 @@
       <c r="Z347" s="3"/>
       <c r="AA347" s="3"/>
       <c r="AB347" s="3"/>
+      <c r="AC347" s="3"/>
     </row>
     <row r="348">
       <c r="A348" s="3"/>
@@ -11882,6 +12366,7 @@
       <c r="Z348" s="3"/>
       <c r="AA348" s="3"/>
       <c r="AB348" s="3"/>
+      <c r="AC348" s="3"/>
     </row>
     <row r="349">
       <c r="A349" s="3"/>
@@ -11912,6 +12397,7 @@
       <c r="Z349" s="3"/>
       <c r="AA349" s="3"/>
       <c r="AB349" s="3"/>
+      <c r="AC349" s="3"/>
     </row>
     <row r="350">
       <c r="A350" s="3"/>
@@ -11942,6 +12428,7 @@
       <c r="Z350" s="3"/>
       <c r="AA350" s="3"/>
       <c r="AB350" s="3"/>
+      <c r="AC350" s="3"/>
     </row>
     <row r="351">
       <c r="A351" s="3"/>
@@ -11972,6 +12459,7 @@
       <c r="Z351" s="3"/>
       <c r="AA351" s="3"/>
       <c r="AB351" s="3"/>
+      <c r="AC351" s="3"/>
     </row>
     <row r="352">
       <c r="A352" s="3"/>
@@ -12002,6 +12490,7 @@
       <c r="Z352" s="3"/>
       <c r="AA352" s="3"/>
       <c r="AB352" s="3"/>
+      <c r="AC352" s="3"/>
     </row>
     <row r="353">
       <c r="A353" s="3"/>
@@ -12032,6 +12521,7 @@
       <c r="Z353" s="3"/>
       <c r="AA353" s="3"/>
       <c r="AB353" s="3"/>
+      <c r="AC353" s="3"/>
     </row>
     <row r="354">
       <c r="A354" s="3"/>
@@ -12062,6 +12552,7 @@
       <c r="Z354" s="3"/>
       <c r="AA354" s="3"/>
       <c r="AB354" s="3"/>
+      <c r="AC354" s="3"/>
     </row>
     <row r="355">
       <c r="A355" s="3"/>
@@ -12092,6 +12583,7 @@
       <c r="Z355" s="3"/>
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
+      <c r="AC355" s="3"/>
     </row>
     <row r="356">
       <c r="A356" s="3"/>
@@ -12122,6 +12614,7 @@
       <c r="Z356" s="3"/>
       <c r="AA356" s="3"/>
       <c r="AB356" s="3"/>
+      <c r="AC356" s="3"/>
     </row>
     <row r="357">
       <c r="A357" s="3"/>
@@ -12152,6 +12645,7 @@
       <c r="Z357" s="3"/>
       <c r="AA357" s="3"/>
       <c r="AB357" s="3"/>
+      <c r="AC357" s="3"/>
     </row>
     <row r="358">
       <c r="A358" s="3"/>
@@ -12182,6 +12676,7 @@
       <c r="Z358" s="3"/>
       <c r="AA358" s="3"/>
       <c r="AB358" s="3"/>
+      <c r="AC358" s="3"/>
     </row>
     <row r="359">
       <c r="A359" s="3"/>
@@ -12212,6 +12707,7 @@
       <c r="Z359" s="3"/>
       <c r="AA359" s="3"/>
       <c r="AB359" s="3"/>
+      <c r="AC359" s="3"/>
     </row>
     <row r="360">
       <c r="A360" s="3"/>
@@ -12242,6 +12738,7 @@
       <c r="Z360" s="3"/>
       <c r="AA360" s="3"/>
       <c r="AB360" s="3"/>
+      <c r="AC360" s="3"/>
     </row>
     <row r="361">
       <c r="A361" s="3"/>
@@ -12272,6 +12769,7 @@
       <c r="Z361" s="3"/>
       <c r="AA361" s="3"/>
       <c r="AB361" s="3"/>
+      <c r="AC361" s="3"/>
     </row>
     <row r="362">
       <c r="A362" s="3"/>
@@ -12302,6 +12800,7 @@
       <c r="Z362" s="3"/>
       <c r="AA362" s="3"/>
       <c r="AB362" s="3"/>
+      <c r="AC362" s="3"/>
     </row>
     <row r="363">
       <c r="A363" s="3"/>
@@ -12332,6 +12831,7 @@
       <c r="Z363" s="3"/>
       <c r="AA363" s="3"/>
       <c r="AB363" s="3"/>
+      <c r="AC363" s="3"/>
     </row>
     <row r="364">
       <c r="A364" s="3"/>
@@ -12362,6 +12862,7 @@
       <c r="Z364" s="3"/>
       <c r="AA364" s="3"/>
       <c r="AB364" s="3"/>
+      <c r="AC364" s="3"/>
     </row>
     <row r="365">
       <c r="A365" s="3"/>
@@ -12392,6 +12893,7 @@
       <c r="Z365" s="3"/>
       <c r="AA365" s="3"/>
       <c r="AB365" s="3"/>
+      <c r="AC365" s="3"/>
     </row>
     <row r="366">
       <c r="A366" s="3"/>
@@ -12422,6 +12924,7 @@
       <c r="Z366" s="3"/>
       <c r="AA366" s="3"/>
       <c r="AB366" s="3"/>
+      <c r="AC366" s="3"/>
     </row>
     <row r="367">
       <c r="A367" s="3"/>
@@ -12452,6 +12955,7 @@
       <c r="Z367" s="3"/>
       <c r="AA367" s="3"/>
       <c r="AB367" s="3"/>
+      <c r="AC367" s="3"/>
     </row>
     <row r="368">
       <c r="A368" s="3"/>
@@ -12482,6 +12986,7 @@
       <c r="Z368" s="3"/>
       <c r="AA368" s="3"/>
       <c r="AB368" s="3"/>
+      <c r="AC368" s="3"/>
     </row>
     <row r="369">
       <c r="A369" s="3"/>
@@ -12512,6 +13017,7 @@
       <c r="Z369" s="3"/>
       <c r="AA369" s="3"/>
       <c r="AB369" s="3"/>
+      <c r="AC369" s="3"/>
     </row>
     <row r="370">
       <c r="A370" s="3"/>
@@ -12542,6 +13048,7 @@
       <c r="Z370" s="3"/>
       <c r="AA370" s="3"/>
       <c r="AB370" s="3"/>
+      <c r="AC370" s="3"/>
     </row>
     <row r="371">
       <c r="A371" s="3"/>
@@ -12572,6 +13079,7 @@
       <c r="Z371" s="3"/>
       <c r="AA371" s="3"/>
       <c r="AB371" s="3"/>
+      <c r="AC371" s="3"/>
     </row>
     <row r="372">
       <c r="A372" s="3"/>
@@ -12602,6 +13110,7 @@
       <c r="Z372" s="3"/>
       <c r="AA372" s="3"/>
       <c r="AB372" s="3"/>
+      <c r="AC372" s="3"/>
     </row>
     <row r="373">
       <c r="A373" s="3"/>
@@ -12632,6 +13141,7 @@
       <c r="Z373" s="3"/>
       <c r="AA373" s="3"/>
       <c r="AB373" s="3"/>
+      <c r="AC373" s="3"/>
     </row>
     <row r="374">
       <c r="A374" s="3"/>
@@ -12662,6 +13172,7 @@
       <c r="Z374" s="3"/>
       <c r="AA374" s="3"/>
       <c r="AB374" s="3"/>
+      <c r="AC374" s="3"/>
     </row>
     <row r="375">
       <c r="A375" s="3"/>
@@ -12692,6 +13203,7 @@
       <c r="Z375" s="3"/>
       <c r="AA375" s="3"/>
       <c r="AB375" s="3"/>
+      <c r="AC375" s="3"/>
     </row>
     <row r="376">
       <c r="A376" s="3"/>
@@ -12722,6 +13234,7 @@
       <c r="Z376" s="3"/>
       <c r="AA376" s="3"/>
       <c r="AB376" s="3"/>
+      <c r="AC376" s="3"/>
     </row>
     <row r="377">
       <c r="A377" s="3"/>
@@ -12752,6 +13265,7 @@
       <c r="Z377" s="3"/>
       <c r="AA377" s="3"/>
       <c r="AB377" s="3"/>
+      <c r="AC377" s="3"/>
     </row>
     <row r="378">
       <c r="A378" s="3"/>
@@ -12782,6 +13296,7 @@
       <c r="Z378" s="3"/>
       <c r="AA378" s="3"/>
       <c r="AB378" s="3"/>
+      <c r="AC378" s="3"/>
     </row>
     <row r="379">
       <c r="A379" s="3"/>
@@ -12812,6 +13327,7 @@
       <c r="Z379" s="3"/>
       <c r="AA379" s="3"/>
       <c r="AB379" s="3"/>
+      <c r="AC379" s="3"/>
     </row>
     <row r="380">
       <c r="A380" s="3"/>
@@ -12842,6 +13358,7 @@
       <c r="Z380" s="3"/>
       <c r="AA380" s="3"/>
       <c r="AB380" s="3"/>
+      <c r="AC380" s="3"/>
     </row>
     <row r="381">
       <c r="A381" s="3"/>
@@ -12872,6 +13389,7 @@
       <c r="Z381" s="3"/>
       <c r="AA381" s="3"/>
       <c r="AB381" s="3"/>
+      <c r="AC381" s="3"/>
     </row>
     <row r="382">
       <c r="A382" s="3"/>
@@ -12902,6 +13420,7 @@
       <c r="Z382" s="3"/>
       <c r="AA382" s="3"/>
       <c r="AB382" s="3"/>
+      <c r="AC382" s="3"/>
     </row>
     <row r="383">
       <c r="A383" s="3"/>
@@ -12932,6 +13451,7 @@
       <c r="Z383" s="3"/>
       <c r="AA383" s="3"/>
       <c r="AB383" s="3"/>
+      <c r="AC383" s="3"/>
     </row>
     <row r="384">
       <c r="A384" s="3"/>
@@ -12962,6 +13482,7 @@
       <c r="Z384" s="3"/>
       <c r="AA384" s="3"/>
       <c r="AB384" s="3"/>
+      <c r="AC384" s="3"/>
     </row>
     <row r="385">
       <c r="A385" s="3"/>
@@ -12992,6 +13513,7 @@
       <c r="Z385" s="3"/>
       <c r="AA385" s="3"/>
       <c r="AB385" s="3"/>
+      <c r="AC385" s="3"/>
     </row>
     <row r="386">
       <c r="A386" s="3"/>
@@ -13022,6 +13544,7 @@
       <c r="Z386" s="3"/>
       <c r="AA386" s="3"/>
       <c r="AB386" s="3"/>
+      <c r="AC386" s="3"/>
     </row>
     <row r="387">
       <c r="A387" s="3"/>
@@ -13052,6 +13575,7 @@
       <c r="Z387" s="3"/>
       <c r="AA387" s="3"/>
       <c r="AB387" s="3"/>
+      <c r="AC387" s="3"/>
     </row>
     <row r="388">
       <c r="A388" s="3"/>
@@ -13082,6 +13606,7 @@
       <c r="Z388" s="3"/>
       <c r="AA388" s="3"/>
       <c r="AB388" s="3"/>
+      <c r="AC388" s="3"/>
     </row>
     <row r="389">
       <c r="A389" s="3"/>
@@ -13112,6 +13637,7 @@
       <c r="Z389" s="3"/>
       <c r="AA389" s="3"/>
       <c r="AB389" s="3"/>
+      <c r="AC389" s="3"/>
     </row>
     <row r="390">
       <c r="A390" s="3"/>
@@ -13142,6 +13668,7 @@
       <c r="Z390" s="3"/>
       <c r="AA390" s="3"/>
       <c r="AB390" s="3"/>
+      <c r="AC390" s="3"/>
     </row>
     <row r="391">
       <c r="A391" s="3"/>
@@ -13172,6 +13699,7 @@
       <c r="Z391" s="3"/>
       <c r="AA391" s="3"/>
       <c r="AB391" s="3"/>
+      <c r="AC391" s="3"/>
     </row>
     <row r="392">
       <c r="A392" s="3"/>
@@ -13202,6 +13730,7 @@
       <c r="Z392" s="3"/>
       <c r="AA392" s="3"/>
       <c r="AB392" s="3"/>
+      <c r="AC392" s="3"/>
     </row>
     <row r="393">
       <c r="A393" s="3"/>
@@ -13232,6 +13761,7 @@
       <c r="Z393" s="3"/>
       <c r="AA393" s="3"/>
       <c r="AB393" s="3"/>
+      <c r="AC393" s="3"/>
     </row>
     <row r="394">
       <c r="A394" s="3"/>
@@ -13262,6 +13792,7 @@
       <c r="Z394" s="3"/>
       <c r="AA394" s="3"/>
       <c r="AB394" s="3"/>
+      <c r="AC394" s="3"/>
     </row>
     <row r="395">
       <c r="A395" s="3"/>
@@ -13292,6 +13823,7 @@
       <c r="Z395" s="3"/>
       <c r="AA395" s="3"/>
       <c r="AB395" s="3"/>
+      <c r="AC395" s="3"/>
     </row>
     <row r="396">
       <c r="A396" s="3"/>
@@ -13322,6 +13854,7 @@
       <c r="Z396" s="3"/>
       <c r="AA396" s="3"/>
       <c r="AB396" s="3"/>
+      <c r="AC396" s="3"/>
     </row>
     <row r="397">
       <c r="A397" s="3"/>
@@ -13352,6 +13885,7 @@
       <c r="Z397" s="3"/>
       <c r="AA397" s="3"/>
       <c r="AB397" s="3"/>
+      <c r="AC397" s="3"/>
     </row>
     <row r="398">
       <c r="A398" s="3"/>
@@ -13382,6 +13916,7 @@
       <c r="Z398" s="3"/>
       <c r="AA398" s="3"/>
       <c r="AB398" s="3"/>
+      <c r="AC398" s="3"/>
     </row>
     <row r="399">
       <c r="A399" s="3"/>
@@ -13412,6 +13947,7 @@
       <c r="Z399" s="3"/>
       <c r="AA399" s="3"/>
       <c r="AB399" s="3"/>
+      <c r="AC399" s="3"/>
     </row>
     <row r="400">
       <c r="A400" s="3"/>
@@ -13442,6 +13978,7 @@
       <c r="Z400" s="3"/>
       <c r="AA400" s="3"/>
       <c r="AB400" s="3"/>
+      <c r="AC400" s="3"/>
     </row>
     <row r="401">
       <c r="A401" s="3"/>
@@ -13472,6 +14009,7 @@
       <c r="Z401" s="3"/>
       <c r="AA401" s="3"/>
       <c r="AB401" s="3"/>
+      <c r="AC401" s="3"/>
     </row>
     <row r="402">
       <c r="A402" s="3"/>
@@ -13502,6 +14040,7 @@
       <c r="Z402" s="3"/>
       <c r="AA402" s="3"/>
       <c r="AB402" s="3"/>
+      <c r="AC402" s="3"/>
     </row>
     <row r="403">
       <c r="A403" s="3"/>
@@ -13532,6 +14071,7 @@
       <c r="Z403" s="3"/>
       <c r="AA403" s="3"/>
       <c r="AB403" s="3"/>
+      <c r="AC403" s="3"/>
     </row>
     <row r="404">
       <c r="A404" s="3"/>
@@ -13562,6 +14102,7 @@
       <c r="Z404" s="3"/>
       <c r="AA404" s="3"/>
       <c r="AB404" s="3"/>
+      <c r="AC404" s="3"/>
     </row>
     <row r="405">
       <c r="A405" s="3"/>
@@ -13592,6 +14133,7 @@
       <c r="Z405" s="3"/>
       <c r="AA405" s="3"/>
       <c r="AB405" s="3"/>
+      <c r="AC405" s="3"/>
     </row>
     <row r="406">
       <c r="A406" s="3"/>
@@ -13622,6 +14164,7 @@
       <c r="Z406" s="3"/>
       <c r="AA406" s="3"/>
       <c r="AB406" s="3"/>
+      <c r="AC406" s="3"/>
     </row>
     <row r="407">
       <c r="A407" s="3"/>
@@ -13652,6 +14195,7 @@
       <c r="Z407" s="3"/>
       <c r="AA407" s="3"/>
       <c r="AB407" s="3"/>
+      <c r="AC407" s="3"/>
     </row>
     <row r="408">
       <c r="A408" s="3"/>
@@ -13682,6 +14226,7 @@
       <c r="Z408" s="3"/>
       <c r="AA408" s="3"/>
       <c r="AB408" s="3"/>
+      <c r="AC408" s="3"/>
     </row>
     <row r="409">
       <c r="A409" s="3"/>
@@ -13712,6 +14257,7 @@
       <c r="Z409" s="3"/>
       <c r="AA409" s="3"/>
       <c r="AB409" s="3"/>
+      <c r="AC409" s="3"/>
     </row>
     <row r="410">
       <c r="A410" s="3"/>
@@ -13742,6 +14288,7 @@
       <c r="Z410" s="3"/>
       <c r="AA410" s="3"/>
       <c r="AB410" s="3"/>
+      <c r="AC410" s="3"/>
     </row>
     <row r="411">
       <c r="A411" s="3"/>
@@ -13772,6 +14319,7 @@
       <c r="Z411" s="3"/>
       <c r="AA411" s="3"/>
       <c r="AB411" s="3"/>
+      <c r="AC411" s="3"/>
     </row>
     <row r="412">
       <c r="A412" s="3"/>
@@ -13802,6 +14350,7 @@
       <c r="Z412" s="3"/>
       <c r="AA412" s="3"/>
       <c r="AB412" s="3"/>
+      <c r="AC412" s="3"/>
     </row>
     <row r="413">
       <c r="A413" s="3"/>
@@ -13832,6 +14381,7 @@
       <c r="Z413" s="3"/>
       <c r="AA413" s="3"/>
       <c r="AB413" s="3"/>
+      <c r="AC413" s="3"/>
     </row>
     <row r="414">
       <c r="A414" s="3"/>
@@ -13862,6 +14412,7 @@
       <c r="Z414" s="3"/>
       <c r="AA414" s="3"/>
       <c r="AB414" s="3"/>
+      <c r="AC414" s="3"/>
     </row>
     <row r="415">
       <c r="A415" s="3"/>
@@ -13892,6 +14443,7 @@
       <c r="Z415" s="3"/>
       <c r="AA415" s="3"/>
       <c r="AB415" s="3"/>
+      <c r="AC415" s="3"/>
     </row>
     <row r="416">
       <c r="A416" s="3"/>
@@ -13922,6 +14474,7 @@
       <c r="Z416" s="3"/>
       <c r="AA416" s="3"/>
       <c r="AB416" s="3"/>
+      <c r="AC416" s="3"/>
     </row>
     <row r="417">
       <c r="A417" s="3"/>
@@ -13952,6 +14505,7 @@
       <c r="Z417" s="3"/>
       <c r="AA417" s="3"/>
       <c r="AB417" s="3"/>
+      <c r="AC417" s="3"/>
     </row>
     <row r="418">
       <c r="A418" s="3"/>
@@ -13982,6 +14536,7 @@
       <c r="Z418" s="3"/>
       <c r="AA418" s="3"/>
       <c r="AB418" s="3"/>
+      <c r="AC418" s="3"/>
     </row>
     <row r="419">
       <c r="A419" s="3"/>
@@ -14012,6 +14567,7 @@
       <c r="Z419" s="3"/>
       <c r="AA419" s="3"/>
       <c r="AB419" s="3"/>
+      <c r="AC419" s="3"/>
     </row>
     <row r="420">
       <c r="A420" s="3"/>
@@ -14042,6 +14598,7 @@
       <c r="Z420" s="3"/>
       <c r="AA420" s="3"/>
       <c r="AB420" s="3"/>
+      <c r="AC420" s="3"/>
     </row>
     <row r="421">
       <c r="A421" s="3"/>
@@ -14072,6 +14629,7 @@
       <c r="Z421" s="3"/>
       <c r="AA421" s="3"/>
       <c r="AB421" s="3"/>
+      <c r="AC421" s="3"/>
     </row>
     <row r="422">
       <c r="A422" s="3"/>
@@ -14102,6 +14660,7 @@
       <c r="Z422" s="3"/>
       <c r="AA422" s="3"/>
       <c r="AB422" s="3"/>
+      <c r="AC422" s="3"/>
     </row>
     <row r="423">
       <c r="A423" s="3"/>
@@ -14132,6 +14691,7 @@
       <c r="Z423" s="3"/>
       <c r="AA423" s="3"/>
       <c r="AB423" s="3"/>
+      <c r="AC423" s="3"/>
     </row>
     <row r="424">
       <c r="A424" s="3"/>
@@ -14162,6 +14722,7 @@
       <c r="Z424" s="3"/>
       <c r="AA424" s="3"/>
       <c r="AB424" s="3"/>
+      <c r="AC424" s="3"/>
     </row>
     <row r="425">
       <c r="A425" s="3"/>
@@ -14192,6 +14753,7 @@
       <c r="Z425" s="3"/>
       <c r="AA425" s="3"/>
       <c r="AB425" s="3"/>
+      <c r="AC425" s="3"/>
     </row>
     <row r="426">
       <c r="A426" s="3"/>
@@ -14222,6 +14784,7 @@
       <c r="Z426" s="3"/>
       <c r="AA426" s="3"/>
       <c r="AB426" s="3"/>
+      <c r="AC426" s="3"/>
     </row>
     <row r="427">
       <c r="A427" s="3"/>
@@ -14252,6 +14815,7 @@
       <c r="Z427" s="3"/>
       <c r="AA427" s="3"/>
       <c r="AB427" s="3"/>
+      <c r="AC427" s="3"/>
     </row>
     <row r="428">
       <c r="A428" s="3"/>
@@ -14282,6 +14846,7 @@
       <c r="Z428" s="3"/>
       <c r="AA428" s="3"/>
       <c r="AB428" s="3"/>
+      <c r="AC428" s="3"/>
     </row>
     <row r="429">
       <c r="A429" s="3"/>
@@ -14312,6 +14877,7 @@
       <c r="Z429" s="3"/>
       <c r="AA429" s="3"/>
       <c r="AB429" s="3"/>
+      <c r="AC429" s="3"/>
     </row>
     <row r="430">
       <c r="A430" s="3"/>
@@ -14342,6 +14908,7 @@
       <c r="Z430" s="3"/>
       <c r="AA430" s="3"/>
       <c r="AB430" s="3"/>
+      <c r="AC430" s="3"/>
     </row>
     <row r="431">
       <c r="A431" s="3"/>
@@ -14372,6 +14939,7 @@
       <c r="Z431" s="3"/>
       <c r="AA431" s="3"/>
       <c r="AB431" s="3"/>
+      <c r="AC431" s="3"/>
     </row>
     <row r="432">
       <c r="A432" s="3"/>
@@ -14402,6 +14970,7 @@
       <c r="Z432" s="3"/>
       <c r="AA432" s="3"/>
       <c r="AB432" s="3"/>
+      <c r="AC432" s="3"/>
     </row>
     <row r="433">
       <c r="A433" s="3"/>
@@ -14432,6 +15001,7 @@
       <c r="Z433" s="3"/>
       <c r="AA433" s="3"/>
       <c r="AB433" s="3"/>
+      <c r="AC433" s="3"/>
     </row>
     <row r="434">
       <c r="A434" s="3"/>
@@ -14462,6 +15032,7 @@
       <c r="Z434" s="3"/>
       <c r="AA434" s="3"/>
       <c r="AB434" s="3"/>
+      <c r="AC434" s="3"/>
     </row>
     <row r="435">
       <c r="A435" s="3"/>
@@ -14492,6 +15063,7 @@
       <c r="Z435" s="3"/>
       <c r="AA435" s="3"/>
       <c r="AB435" s="3"/>
+      <c r="AC435" s="3"/>
     </row>
     <row r="436">
       <c r="A436" s="3"/>
@@ -14522,6 +15094,7 @@
       <c r="Z436" s="3"/>
       <c r="AA436" s="3"/>
       <c r="AB436" s="3"/>
+      <c r="AC436" s="3"/>
     </row>
     <row r="437">
       <c r="A437" s="3"/>
@@ -14552,6 +15125,7 @@
       <c r="Z437" s="3"/>
       <c r="AA437" s="3"/>
       <c r="AB437" s="3"/>
+      <c r="AC437" s="3"/>
     </row>
     <row r="438">
       <c r="A438" s="3"/>
@@ -14582,6 +15156,7 @@
       <c r="Z438" s="3"/>
       <c r="AA438" s="3"/>
       <c r="AB438" s="3"/>
+      <c r="AC438" s="3"/>
     </row>
     <row r="439">
       <c r="A439" s="3"/>
@@ -14612,6 +15187,7 @@
       <c r="Z439" s="3"/>
       <c r="AA439" s="3"/>
       <c r="AB439" s="3"/>
+      <c r="AC439" s="3"/>
     </row>
     <row r="440">
       <c r="A440" s="3"/>
@@ -14642,6 +15218,7 @@
       <c r="Z440" s="3"/>
       <c r="AA440" s="3"/>
       <c r="AB440" s="3"/>
+      <c r="AC440" s="3"/>
     </row>
     <row r="441">
       <c r="A441" s="3"/>
@@ -14672,6 +15249,7 @@
       <c r="Z441" s="3"/>
       <c r="AA441" s="3"/>
       <c r="AB441" s="3"/>
+      <c r="AC441" s="3"/>
     </row>
     <row r="442">
       <c r="A442" s="3"/>
@@ -14702,6 +15280,7 @@
       <c r="Z442" s="3"/>
       <c r="AA442" s="3"/>
       <c r="AB442" s="3"/>
+      <c r="AC442" s="3"/>
     </row>
     <row r="443">
       <c r="A443" s="3"/>
@@ -14732,6 +15311,7 @@
       <c r="Z443" s="3"/>
       <c r="AA443" s="3"/>
       <c r="AB443" s="3"/>
+      <c r="AC443" s="3"/>
     </row>
     <row r="444">
       <c r="A444" s="3"/>
@@ -14762,6 +15342,7 @@
       <c r="Z444" s="3"/>
       <c r="AA444" s="3"/>
       <c r="AB444" s="3"/>
+      <c r="AC444" s="3"/>
     </row>
     <row r="445">
       <c r="A445" s="3"/>
@@ -14792,6 +15373,7 @@
       <c r="Z445" s="3"/>
       <c r="AA445" s="3"/>
       <c r="AB445" s="3"/>
+      <c r="AC445" s="3"/>
     </row>
     <row r="446">
       <c r="A446" s="3"/>
@@ -14822,6 +15404,7 @@
       <c r="Z446" s="3"/>
       <c r="AA446" s="3"/>
       <c r="AB446" s="3"/>
+      <c r="AC446" s="3"/>
     </row>
     <row r="447">
       <c r="A447" s="3"/>
@@ -14852,6 +15435,7 @@
       <c r="Z447" s="3"/>
       <c r="AA447" s="3"/>
       <c r="AB447" s="3"/>
+      <c r="AC447" s="3"/>
     </row>
     <row r="448">
       <c r="A448" s="3"/>
@@ -14882,6 +15466,7 @@
       <c r="Z448" s="3"/>
       <c r="AA448" s="3"/>
       <c r="AB448" s="3"/>
+      <c r="AC448" s="3"/>
     </row>
     <row r="449">
       <c r="A449" s="3"/>
@@ -14912,6 +15497,7 @@
       <c r="Z449" s="3"/>
       <c r="AA449" s="3"/>
       <c r="AB449" s="3"/>
+      <c r="AC449" s="3"/>
     </row>
     <row r="450">
       <c r="A450" s="3"/>
@@ -14942,6 +15528,7 @@
       <c r="Z450" s="3"/>
       <c r="AA450" s="3"/>
       <c r="AB450" s="3"/>
+      <c r="AC450" s="3"/>
     </row>
     <row r="451">
       <c r="A451" s="3"/>
@@ -14972,6 +15559,7 @@
       <c r="Z451" s="3"/>
       <c r="AA451" s="3"/>
       <c r="AB451" s="3"/>
+      <c r="AC451" s="3"/>
     </row>
     <row r="452">
       <c r="A452" s="3"/>
@@ -15002,6 +15590,7 @@
       <c r="Z452" s="3"/>
       <c r="AA452" s="3"/>
       <c r="AB452" s="3"/>
+      <c r="AC452" s="3"/>
     </row>
     <row r="453">
       <c r="A453" s="3"/>
@@ -15032,6 +15621,7 @@
       <c r="Z453" s="3"/>
       <c r="AA453" s="3"/>
       <c r="AB453" s="3"/>
+      <c r="AC453" s="3"/>
     </row>
     <row r="454">
       <c r="A454" s="3"/>
@@ -15062,6 +15652,7 @@
       <c r="Z454" s="3"/>
       <c r="AA454" s="3"/>
       <c r="AB454" s="3"/>
+      <c r="AC454" s="3"/>
     </row>
     <row r="455">
       <c r="A455" s="3"/>
@@ -15092,6 +15683,7 @@
       <c r="Z455" s="3"/>
       <c r="AA455" s="3"/>
       <c r="AB455" s="3"/>
+      <c r="AC455" s="3"/>
     </row>
     <row r="456">
       <c r="A456" s="3"/>
@@ -15122,6 +15714,7 @@
       <c r="Z456" s="3"/>
       <c r="AA456" s="3"/>
       <c r="AB456" s="3"/>
+      <c r="AC456" s="3"/>
     </row>
     <row r="457">
       <c r="A457" s="3"/>
@@ -15152,6 +15745,7 @@
       <c r="Z457" s="3"/>
       <c r="AA457" s="3"/>
       <c r="AB457" s="3"/>
+      <c r="AC457" s="3"/>
     </row>
     <row r="458">
       <c r="A458" s="3"/>
@@ -15182,6 +15776,7 @@
       <c r="Z458" s="3"/>
       <c r="AA458" s="3"/>
       <c r="AB458" s="3"/>
+      <c r="AC458" s="3"/>
     </row>
     <row r="459">
       <c r="A459" s="3"/>
@@ -15212,6 +15807,7 @@
       <c r="Z459" s="3"/>
       <c r="AA459" s="3"/>
       <c r="AB459" s="3"/>
+      <c r="AC459" s="3"/>
     </row>
     <row r="460">
       <c r="A460" s="3"/>
@@ -15242,6 +15838,7 @@
       <c r="Z460" s="3"/>
       <c r="AA460" s="3"/>
       <c r="AB460" s="3"/>
+      <c r="AC460" s="3"/>
     </row>
     <row r="461">
       <c r="A461" s="3"/>
@@ -15272,6 +15869,7 @@
       <c r="Z461" s="3"/>
       <c r="AA461" s="3"/>
       <c r="AB461" s="3"/>
+      <c r="AC461" s="3"/>
     </row>
     <row r="462">
       <c r="A462" s="3"/>
@@ -15302,6 +15900,7 @@
       <c r="Z462" s="3"/>
       <c r="AA462" s="3"/>
       <c r="AB462" s="3"/>
+      <c r="AC462" s="3"/>
     </row>
     <row r="463">
       <c r="A463" s="3"/>
@@ -15332,6 +15931,7 @@
       <c r="Z463" s="3"/>
       <c r="AA463" s="3"/>
       <c r="AB463" s="3"/>
+      <c r="AC463" s="3"/>
     </row>
     <row r="464">
       <c r="A464" s="3"/>
@@ -15362,6 +15962,7 @@
       <c r="Z464" s="3"/>
       <c r="AA464" s="3"/>
       <c r="AB464" s="3"/>
+      <c r="AC464" s="3"/>
     </row>
     <row r="465">
       <c r="A465" s="3"/>
@@ -15392,6 +15993,7 @@
       <c r="Z465" s="3"/>
       <c r="AA465" s="3"/>
       <c r="AB465" s="3"/>
+      <c r="AC465" s="3"/>
     </row>
     <row r="466">
       <c r="A466" s="3"/>
@@ -15422,6 +16024,7 @@
       <c r="Z466" s="3"/>
       <c r="AA466" s="3"/>
       <c r="AB466" s="3"/>
+      <c r="AC466" s="3"/>
     </row>
     <row r="467">
       <c r="A467" s="3"/>
@@ -15452,6 +16055,7 @@
       <c r="Z467" s="3"/>
       <c r="AA467" s="3"/>
       <c r="AB467" s="3"/>
+      <c r="AC467" s="3"/>
     </row>
     <row r="468">
       <c r="A468" s="3"/>
@@ -15482,6 +16086,7 @@
       <c r="Z468" s="3"/>
       <c r="AA468" s="3"/>
       <c r="AB468" s="3"/>
+      <c r="AC468" s="3"/>
     </row>
     <row r="469">
       <c r="A469" s="3"/>
@@ -15512,6 +16117,7 @@
       <c r="Z469" s="3"/>
       <c r="AA469" s="3"/>
       <c r="AB469" s="3"/>
+      <c r="AC469" s="3"/>
     </row>
     <row r="470">
       <c r="A470" s="3"/>
@@ -15542,6 +16148,7 @@
       <c r="Z470" s="3"/>
       <c r="AA470" s="3"/>
       <c r="AB470" s="3"/>
+      <c r="AC470" s="3"/>
     </row>
     <row r="471">
       <c r="A471" s="3"/>
@@ -15572,6 +16179,7 @@
       <c r="Z471" s="3"/>
       <c r="AA471" s="3"/>
       <c r="AB471" s="3"/>
+      <c r="AC471" s="3"/>
     </row>
     <row r="472">
       <c r="A472" s="3"/>
@@ -15602,6 +16210,7 @@
       <c r="Z472" s="3"/>
       <c r="AA472" s="3"/>
       <c r="AB472" s="3"/>
+      <c r="AC472" s="3"/>
     </row>
     <row r="473">
       <c r="A473" s="3"/>
@@ -15632,6 +16241,7 @@
       <c r="Z473" s="3"/>
       <c r="AA473" s="3"/>
       <c r="AB473" s="3"/>
+      <c r="AC473" s="3"/>
     </row>
     <row r="474">
       <c r="A474" s="3"/>
@@ -15662,6 +16272,7 @@
       <c r="Z474" s="3"/>
       <c r="AA474" s="3"/>
       <c r="AB474" s="3"/>
+      <c r="AC474" s="3"/>
     </row>
     <row r="475">
       <c r="A475" s="3"/>
@@ -15692,6 +16303,7 @@
       <c r="Z475" s="3"/>
       <c r="AA475" s="3"/>
       <c r="AB475" s="3"/>
+      <c r="AC475" s="3"/>
     </row>
     <row r="476">
       <c r="A476" s="3"/>
@@ -15722,6 +16334,7 @@
       <c r="Z476" s="3"/>
       <c r="AA476" s="3"/>
       <c r="AB476" s="3"/>
+      <c r="AC476" s="3"/>
     </row>
     <row r="477">
       <c r="A477" s="3"/>
@@ -15752,6 +16365,7 @@
       <c r="Z477" s="3"/>
       <c r="AA477" s="3"/>
       <c r="AB477" s="3"/>
+      <c r="AC477" s="3"/>
     </row>
     <row r="478">
       <c r="A478" s="3"/>
@@ -15782,6 +16396,7 @@
       <c r="Z478" s="3"/>
       <c r="AA478" s="3"/>
       <c r="AB478" s="3"/>
+      <c r="AC478" s="3"/>
     </row>
     <row r="479">
       <c r="A479" s="3"/>
@@ -15812,6 +16427,7 @@
       <c r="Z479" s="3"/>
       <c r="AA479" s="3"/>
       <c r="AB479" s="3"/>
+      <c r="AC479" s="3"/>
     </row>
     <row r="480">
       <c r="A480" s="3"/>
@@ -15842,6 +16458,7 @@
       <c r="Z480" s="3"/>
       <c r="AA480" s="3"/>
       <c r="AB480" s="3"/>
+      <c r="AC480" s="3"/>
     </row>
     <row r="481">
       <c r="A481" s="3"/>
@@ -15872,6 +16489,7 @@
       <c r="Z481" s="3"/>
       <c r="AA481" s="3"/>
       <c r="AB481" s="3"/>
+      <c r="AC481" s="3"/>
     </row>
     <row r="482">
       <c r="A482" s="3"/>
@@ -15902,6 +16520,7 @@
       <c r="Z482" s="3"/>
       <c r="AA482" s="3"/>
       <c r="AB482" s="3"/>
+      <c r="AC482" s="3"/>
     </row>
     <row r="483">
       <c r="A483" s="3"/>
@@ -15932,6 +16551,7 @@
       <c r="Z483" s="3"/>
       <c r="AA483" s="3"/>
       <c r="AB483" s="3"/>
+      <c r="AC483" s="3"/>
     </row>
     <row r="484">
       <c r="A484" s="3"/>
@@ -15962,6 +16582,7 @@
       <c r="Z484" s="3"/>
       <c r="AA484" s="3"/>
       <c r="AB484" s="3"/>
+      <c r="AC484" s="3"/>
     </row>
     <row r="485">
       <c r="A485" s="3"/>
@@ -15992,6 +16613,7 @@
       <c r="Z485" s="3"/>
       <c r="AA485" s="3"/>
       <c r="AB485" s="3"/>
+      <c r="AC485" s="3"/>
     </row>
     <row r="486">
       <c r="A486" s="3"/>
@@ -16022,6 +16644,7 @@
       <c r="Z486" s="3"/>
       <c r="AA486" s="3"/>
       <c r="AB486" s="3"/>
+      <c r="AC486" s="3"/>
     </row>
     <row r="487">
       <c r="A487" s="3"/>
@@ -16052,6 +16675,7 @@
       <c r="Z487" s="3"/>
       <c r="AA487" s="3"/>
       <c r="AB487" s="3"/>
+      <c r="AC487" s="3"/>
     </row>
     <row r="488">
       <c r="A488" s="3"/>
@@ -16082,6 +16706,7 @@
       <c r="Z488" s="3"/>
       <c r="AA488" s="3"/>
       <c r="AB488" s="3"/>
+      <c r="AC488" s="3"/>
     </row>
     <row r="489">
       <c r="A489" s="3"/>
@@ -16112,6 +16737,7 @@
       <c r="Z489" s="3"/>
       <c r="AA489" s="3"/>
       <c r="AB489" s="3"/>
+      <c r="AC489" s="3"/>
     </row>
     <row r="490">
       <c r="A490" s="3"/>
@@ -16142,6 +16768,7 @@
       <c r="Z490" s="3"/>
       <c r="AA490" s="3"/>
       <c r="AB490" s="3"/>
+      <c r="AC490" s="3"/>
     </row>
     <row r="491">
       <c r="A491" s="3"/>
@@ -16172,6 +16799,7 @@
       <c r="Z491" s="3"/>
       <c r="AA491" s="3"/>
       <c r="AB491" s="3"/>
+      <c r="AC491" s="3"/>
     </row>
     <row r="492">
       <c r="A492" s="3"/>
@@ -16202,6 +16830,7 @@
       <c r="Z492" s="3"/>
       <c r="AA492" s="3"/>
       <c r="AB492" s="3"/>
+      <c r="AC492" s="3"/>
     </row>
     <row r="493">
       <c r="A493" s="3"/>
@@ -16232,6 +16861,7 @@
       <c r="Z493" s="3"/>
       <c r="AA493" s="3"/>
       <c r="AB493" s="3"/>
+      <c r="AC493" s="3"/>
     </row>
     <row r="494">
       <c r="A494" s="3"/>
@@ -16262,6 +16892,7 @@
       <c r="Z494" s="3"/>
       <c r="AA494" s="3"/>
       <c r="AB494" s="3"/>
+      <c r="AC494" s="3"/>
     </row>
     <row r="495">
       <c r="A495" s="3"/>
@@ -16292,6 +16923,7 @@
       <c r="Z495" s="3"/>
       <c r="AA495" s="3"/>
       <c r="AB495" s="3"/>
+      <c r="AC495" s="3"/>
     </row>
     <row r="496">
       <c r="A496" s="3"/>
@@ -16322,6 +16954,7 @@
       <c r="Z496" s="3"/>
       <c r="AA496" s="3"/>
       <c r="AB496" s="3"/>
+      <c r="AC496" s="3"/>
     </row>
     <row r="497">
       <c r="A497" s="3"/>
@@ -16352,6 +16985,7 @@
       <c r="Z497" s="3"/>
       <c r="AA497" s="3"/>
       <c r="AB497" s="3"/>
+      <c r="AC497" s="3"/>
     </row>
     <row r="498">
       <c r="A498" s="3"/>
@@ -16382,6 +17016,7 @@
       <c r="Z498" s="3"/>
       <c r="AA498" s="3"/>
       <c r="AB498" s="3"/>
+      <c r="AC498" s="3"/>
     </row>
     <row r="499">
       <c r="A499" s="3"/>
@@ -16412,6 +17047,7 @@
       <c r="Z499" s="3"/>
       <c r="AA499" s="3"/>
       <c r="AB499" s="3"/>
+      <c r="AC499" s="3"/>
     </row>
     <row r="500">
       <c r="A500" s="3"/>
@@ -16442,6 +17078,7 @@
       <c r="Z500" s="3"/>
       <c r="AA500" s="3"/>
       <c r="AB500" s="3"/>
+      <c r="AC500" s="3"/>
     </row>
     <row r="501">
       <c r="A501" s="3"/>
@@ -16472,6 +17109,7 @@
       <c r="Z501" s="3"/>
       <c r="AA501" s="3"/>
       <c r="AB501" s="3"/>
+      <c r="AC501" s="3"/>
     </row>
     <row r="502">
       <c r="A502" s="3"/>
@@ -16502,6 +17140,7 @@
       <c r="Z502" s="3"/>
       <c r="AA502" s="3"/>
       <c r="AB502" s="3"/>
+      <c r="AC502" s="3"/>
     </row>
     <row r="503">
       <c r="A503" s="3"/>
@@ -16532,6 +17171,7 @@
       <c r="Z503" s="3"/>
       <c r="AA503" s="3"/>
       <c r="AB503" s="3"/>
+      <c r="AC503" s="3"/>
     </row>
     <row r="504">
       <c r="A504" s="3"/>
@@ -16562,6 +17202,7 @@
       <c r="Z504" s="3"/>
       <c r="AA504" s="3"/>
       <c r="AB504" s="3"/>
+      <c r="AC504" s="3"/>
     </row>
     <row r="505">
       <c r="A505" s="3"/>
@@ -16592,6 +17233,7 @@
       <c r="Z505" s="3"/>
       <c r="AA505" s="3"/>
       <c r="AB505" s="3"/>
+      <c r="AC505" s="3"/>
     </row>
     <row r="506">
       <c r="A506" s="3"/>
@@ -16622,6 +17264,7 @@
       <c r="Z506" s="3"/>
       <c r="AA506" s="3"/>
       <c r="AB506" s="3"/>
+      <c r="AC506" s="3"/>
     </row>
     <row r="507">
       <c r="A507" s="3"/>
@@ -16652,6 +17295,7 @@
       <c r="Z507" s="3"/>
       <c r="AA507" s="3"/>
       <c r="AB507" s="3"/>
+      <c r="AC507" s="3"/>
     </row>
     <row r="508">
       <c r="A508" s="3"/>
@@ -16682,6 +17326,7 @@
       <c r="Z508" s="3"/>
       <c r="AA508" s="3"/>
       <c r="AB508" s="3"/>
+      <c r="AC508" s="3"/>
     </row>
     <row r="509">
       <c r="A509" s="3"/>
@@ -16712,6 +17357,7 @@
       <c r="Z509" s="3"/>
       <c r="AA509" s="3"/>
       <c r="AB509" s="3"/>
+      <c r="AC509" s="3"/>
     </row>
     <row r="510">
       <c r="A510" s="3"/>
@@ -16742,6 +17388,7 @@
       <c r="Z510" s="3"/>
       <c r="AA510" s="3"/>
       <c r="AB510" s="3"/>
+      <c r="AC510" s="3"/>
     </row>
     <row r="511">
       <c r="A511" s="3"/>
@@ -16772,6 +17419,7 @@
       <c r="Z511" s="3"/>
       <c r="AA511" s="3"/>
       <c r="AB511" s="3"/>
+      <c r="AC511" s="3"/>
     </row>
     <row r="512">
       <c r="A512" s="3"/>
@@ -16802,6 +17450,7 @@
       <c r="Z512" s="3"/>
       <c r="AA512" s="3"/>
       <c r="AB512" s="3"/>
+      <c r="AC512" s="3"/>
     </row>
     <row r="513">
       <c r="A513" s="3"/>
@@ -16832,6 +17481,7 @@
       <c r="Z513" s="3"/>
       <c r="AA513" s="3"/>
       <c r="AB513" s="3"/>
+      <c r="AC513" s="3"/>
     </row>
     <row r="514">
       <c r="A514" s="3"/>
@@ -16862,6 +17512,7 @@
       <c r="Z514" s="3"/>
       <c r="AA514" s="3"/>
       <c r="AB514" s="3"/>
+      <c r="AC514" s="3"/>
     </row>
     <row r="515">
       <c r="A515" s="3"/>
@@ -16892,6 +17543,7 @@
       <c r="Z515" s="3"/>
       <c r="AA515" s="3"/>
       <c r="AB515" s="3"/>
+      <c r="AC515" s="3"/>
     </row>
     <row r="516">
       <c r="A516" s="3"/>
@@ -16922,6 +17574,7 @@
       <c r="Z516" s="3"/>
       <c r="AA516" s="3"/>
       <c r="AB516" s="3"/>
+      <c r="AC516" s="3"/>
     </row>
     <row r="517">
       <c r="A517" s="3"/>
@@ -16952,6 +17605,7 @@
       <c r="Z517" s="3"/>
       <c r="AA517" s="3"/>
       <c r="AB517" s="3"/>
+      <c r="AC517" s="3"/>
     </row>
     <row r="518">
       <c r="A518" s="3"/>
@@ -16982,6 +17636,7 @@
       <c r="Z518" s="3"/>
       <c r="AA518" s="3"/>
       <c r="AB518" s="3"/>
+      <c r="AC518" s="3"/>
     </row>
     <row r="519">
       <c r="A519" s="3"/>
@@ -17012,6 +17667,7 @@
       <c r="Z519" s="3"/>
       <c r="AA519" s="3"/>
       <c r="AB519" s="3"/>
+      <c r="AC519" s="3"/>
     </row>
     <row r="520">
       <c r="A520" s="3"/>
@@ -17042,6 +17698,7 @@
       <c r="Z520" s="3"/>
       <c r="AA520" s="3"/>
       <c r="AB520" s="3"/>
+      <c r="AC520" s="3"/>
     </row>
     <row r="521">
       <c r="A521" s="3"/>
@@ -17072,6 +17729,7 @@
       <c r="Z521" s="3"/>
       <c r="AA521" s="3"/>
       <c r="AB521" s="3"/>
+      <c r="AC521" s="3"/>
     </row>
     <row r="522">
       <c r="A522" s="3"/>
@@ -17102,6 +17760,7 @@
       <c r="Z522" s="3"/>
       <c r="AA522" s="3"/>
       <c r="AB522" s="3"/>
+      <c r="AC522" s="3"/>
     </row>
     <row r="523">
       <c r="A523" s="3"/>
@@ -17132,6 +17791,7 @@
       <c r="Z523" s="3"/>
       <c r="AA523" s="3"/>
       <c r="AB523" s="3"/>
+      <c r="AC523" s="3"/>
     </row>
     <row r="524">
       <c r="A524" s="3"/>
@@ -17162,6 +17822,7 @@
       <c r="Z524" s="3"/>
       <c r="AA524" s="3"/>
       <c r="AB524" s="3"/>
+      <c r="AC524" s="3"/>
     </row>
     <row r="525">
       <c r="A525" s="3"/>
@@ -17192,6 +17853,7 @@
       <c r="Z525" s="3"/>
       <c r="AA525" s="3"/>
       <c r="AB525" s="3"/>
+      <c r="AC525" s="3"/>
     </row>
     <row r="526">
       <c r="A526" s="3"/>
@@ -17222,6 +17884,7 @@
       <c r="Z526" s="3"/>
       <c r="AA526" s="3"/>
       <c r="AB526" s="3"/>
+      <c r="AC526" s="3"/>
     </row>
     <row r="527">
       <c r="A527" s="3"/>
@@ -17252,6 +17915,7 @@
       <c r="Z527" s="3"/>
       <c r="AA527" s="3"/>
       <c r="AB527" s="3"/>
+      <c r="AC527" s="3"/>
     </row>
     <row r="528">
       <c r="A528" s="3"/>
@@ -17282,6 +17946,7 @@
       <c r="Z528" s="3"/>
       <c r="AA528" s="3"/>
       <c r="AB528" s="3"/>
+      <c r="AC528" s="3"/>
     </row>
     <row r="529">
       <c r="A529" s="3"/>
@@ -17312,6 +17977,7 @@
       <c r="Z529" s="3"/>
       <c r="AA529" s="3"/>
       <c r="AB529" s="3"/>
+      <c r="AC529" s="3"/>
     </row>
     <row r="530">
       <c r="A530" s="3"/>
@@ -17342,6 +18008,7 @@
       <c r="Z530" s="3"/>
       <c r="AA530" s="3"/>
       <c r="AB530" s="3"/>
+      <c r="AC530" s="3"/>
     </row>
     <row r="531">
       <c r="A531" s="3"/>
@@ -17372,6 +18039,7 @@
       <c r="Z531" s="3"/>
       <c r="AA531" s="3"/>
       <c r="AB531" s="3"/>
+      <c r="AC531" s="3"/>
     </row>
     <row r="532">
       <c r="A532" s="3"/>
@@ -17402,6 +18070,7 @@
       <c r="Z532" s="3"/>
       <c r="AA532" s="3"/>
       <c r="AB532" s="3"/>
+      <c r="AC532" s="3"/>
     </row>
     <row r="533">
       <c r="A533" s="3"/>
@@ -17432,6 +18101,7 @@
       <c r="Z533" s="3"/>
       <c r="AA533" s="3"/>
       <c r="AB533" s="3"/>
+      <c r="AC533" s="3"/>
     </row>
     <row r="534">
       <c r="A534" s="3"/>
@@ -17462,6 +18132,7 @@
       <c r="Z534" s="3"/>
       <c r="AA534" s="3"/>
       <c r="AB534" s="3"/>
+      <c r="AC534" s="3"/>
     </row>
     <row r="535">
       <c r="A535" s="3"/>
@@ -17492,6 +18163,7 @@
       <c r="Z535" s="3"/>
       <c r="AA535" s="3"/>
       <c r="AB535" s="3"/>
+      <c r="AC535" s="3"/>
     </row>
     <row r="536">
       <c r="A536" s="3"/>
@@ -17522,6 +18194,7 @@
       <c r="Z536" s="3"/>
       <c r="AA536" s="3"/>
       <c r="AB536" s="3"/>
+      <c r="AC536" s="3"/>
     </row>
     <row r="537">
       <c r="A537" s="3"/>
@@ -17552,6 +18225,7 @@
       <c r="Z537" s="3"/>
       <c r="AA537" s="3"/>
       <c r="AB537" s="3"/>
+      <c r="AC537" s="3"/>
     </row>
     <row r="538">
       <c r="A538" s="3"/>
@@ -17582,6 +18256,7 @@
       <c r="Z538" s="3"/>
       <c r="AA538" s="3"/>
       <c r="AB538" s="3"/>
+      <c r="AC538" s="3"/>
     </row>
     <row r="539">
       <c r="A539" s="3"/>
@@ -17612,6 +18287,7 @@
       <c r="Z539" s="3"/>
       <c r="AA539" s="3"/>
       <c r="AB539" s="3"/>
+      <c r="AC539" s="3"/>
     </row>
     <row r="540">
       <c r="A540" s="3"/>
@@ -17642,6 +18318,7 @@
       <c r="Z540" s="3"/>
       <c r="AA540" s="3"/>
       <c r="AB540" s="3"/>
+      <c r="AC540" s="3"/>
     </row>
     <row r="541">
       <c r="A541" s="3"/>
@@ -17672,6 +18349,7 @@
       <c r="Z541" s="3"/>
       <c r="AA541" s="3"/>
       <c r="AB541" s="3"/>
+      <c r="AC541" s="3"/>
     </row>
     <row r="542">
       <c r="A542" s="3"/>
@@ -17702,6 +18380,7 @@
       <c r="Z542" s="3"/>
       <c r="AA542" s="3"/>
       <c r="AB542" s="3"/>
+      <c r="AC542" s="3"/>
     </row>
     <row r="543">
       <c r="A543" s="3"/>
@@ -17732,6 +18411,7 @@
       <c r="Z543" s="3"/>
       <c r="AA543" s="3"/>
       <c r="AB543" s="3"/>
+      <c r="AC543" s="3"/>
     </row>
     <row r="544">
       <c r="A544" s="3"/>
@@ -17762,6 +18442,7 @@
       <c r="Z544" s="3"/>
       <c r="AA544" s="3"/>
       <c r="AB544" s="3"/>
+      <c r="AC544" s="3"/>
     </row>
     <row r="545">
       <c r="A545" s="3"/>
@@ -17792,6 +18473,7 @@
       <c r="Z545" s="3"/>
       <c r="AA545" s="3"/>
       <c r="AB545" s="3"/>
+      <c r="AC545" s="3"/>
     </row>
     <row r="546">
       <c r="A546" s="3"/>
@@ -17822,6 +18504,7 @@
       <c r="Z546" s="3"/>
       <c r="AA546" s="3"/>
       <c r="AB546" s="3"/>
+      <c r="AC546" s="3"/>
     </row>
     <row r="547">
       <c r="A547" s="3"/>
@@ -17852,6 +18535,7 @@
       <c r="Z547" s="3"/>
       <c r="AA547" s="3"/>
       <c r="AB547" s="3"/>
+      <c r="AC547" s="3"/>
     </row>
     <row r="548">
       <c r="A548" s="3"/>
@@ -17882,6 +18566,7 @@
       <c r="Z548" s="3"/>
       <c r="AA548" s="3"/>
       <c r="AB548" s="3"/>
+      <c r="AC548" s="3"/>
     </row>
     <row r="549">
       <c r="A549" s="3"/>
@@ -17912,6 +18597,7 @@
       <c r="Z549" s="3"/>
       <c r="AA549" s="3"/>
       <c r="AB549" s="3"/>
+      <c r="AC549" s="3"/>
     </row>
     <row r="550">
       <c r="A550" s="3"/>
@@ -17942,6 +18628,7 @@
       <c r="Z550" s="3"/>
       <c r="AA550" s="3"/>
       <c r="AB550" s="3"/>
+      <c r="AC550" s="3"/>
     </row>
     <row r="551">
       <c r="A551" s="3"/>
@@ -17972,6 +18659,7 @@
       <c r="Z551" s="3"/>
       <c r="AA551" s="3"/>
       <c r="AB551" s="3"/>
+      <c r="AC551" s="3"/>
     </row>
     <row r="552">
       <c r="A552" s="3"/>
@@ -18002,6 +18690,7 @@
       <c r="Z552" s="3"/>
       <c r="AA552" s="3"/>
       <c r="AB552" s="3"/>
+      <c r="AC552" s="3"/>
     </row>
     <row r="553">
       <c r="A553" s="3"/>
@@ -18032,6 +18721,7 @@
       <c r="Z553" s="3"/>
       <c r="AA553" s="3"/>
       <c r="AB553" s="3"/>
+      <c r="AC553" s="3"/>
     </row>
     <row r="554">
       <c r="A554" s="3"/>
@@ -18062,6 +18752,7 @@
       <c r="Z554" s="3"/>
       <c r="AA554" s="3"/>
       <c r="AB554" s="3"/>
+      <c r="AC554" s="3"/>
     </row>
     <row r="555">
       <c r="A555" s="3"/>
@@ -18092,6 +18783,7 @@
       <c r="Z555" s="3"/>
       <c r="AA555" s="3"/>
       <c r="AB555" s="3"/>
+      <c r="AC555" s="3"/>
     </row>
     <row r="556">
       <c r="A556" s="3"/>
@@ -18122,6 +18814,7 @@
       <c r="Z556" s="3"/>
       <c r="AA556" s="3"/>
       <c r="AB556" s="3"/>
+      <c r="AC556" s="3"/>
     </row>
     <row r="557">
       <c r="A557" s="3"/>
@@ -18152,6 +18845,7 @@
       <c r="Z557" s="3"/>
       <c r="AA557" s="3"/>
       <c r="AB557" s="3"/>
+      <c r="AC557" s="3"/>
     </row>
     <row r="558">
       <c r="A558" s="3"/>
@@ -18182,6 +18876,7 @@
       <c r="Z558" s="3"/>
       <c r="AA558" s="3"/>
       <c r="AB558" s="3"/>
+      <c r="AC558" s="3"/>
     </row>
     <row r="559">
       <c r="A559" s="3"/>
@@ -18212,6 +18907,7 @@
       <c r="Z559" s="3"/>
       <c r="AA559" s="3"/>
       <c r="AB559" s="3"/>
+      <c r="AC559" s="3"/>
     </row>
     <row r="560">
       <c r="A560" s="3"/>
@@ -18242,6 +18938,7 @@
       <c r="Z560" s="3"/>
       <c r="AA560" s="3"/>
       <c r="AB560" s="3"/>
+      <c r="AC560" s="3"/>
     </row>
     <row r="561">
       <c r="A561" s="3"/>
@@ -18272,6 +18969,7 @@
       <c r="Z561" s="3"/>
       <c r="AA561" s="3"/>
       <c r="AB561" s="3"/>
+      <c r="AC561" s="3"/>
     </row>
     <row r="562">
       <c r="A562" s="3"/>
@@ -18302,6 +19000,7 @@
       <c r="Z562" s="3"/>
       <c r="AA562" s="3"/>
       <c r="AB562" s="3"/>
+      <c r="AC562" s="3"/>
     </row>
     <row r="563">
       <c r="A563" s="3"/>
@@ -18332,6 +19031,7 @@
       <c r="Z563" s="3"/>
       <c r="AA563" s="3"/>
       <c r="AB563" s="3"/>
+      <c r="AC563" s="3"/>
     </row>
     <row r="564">
       <c r="A564" s="3"/>
@@ -18362,6 +19062,7 @@
       <c r="Z564" s="3"/>
       <c r="AA564" s="3"/>
       <c r="AB564" s="3"/>
+      <c r="AC564" s="3"/>
     </row>
     <row r="565">
       <c r="A565" s="3"/>
@@ -18392,6 +19093,7 @@
       <c r="Z565" s="3"/>
       <c r="AA565" s="3"/>
       <c r="AB565" s="3"/>
+      <c r="AC565" s="3"/>
     </row>
     <row r="566">
       <c r="A566" s="3"/>
@@ -18422,6 +19124,7 @@
       <c r="Z566" s="3"/>
       <c r="AA566" s="3"/>
       <c r="AB566" s="3"/>
+      <c r="AC566" s="3"/>
     </row>
     <row r="567">
       <c r="A567" s="3"/>
@@ -18452,6 +19155,7 @@
       <c r="Z567" s="3"/>
       <c r="AA567" s="3"/>
       <c r="AB567" s="3"/>
+      <c r="AC567" s="3"/>
     </row>
     <row r="568">
       <c r="A568" s="3"/>
@@ -18482,6 +19186,7 @@
       <c r="Z568" s="3"/>
       <c r="AA568" s="3"/>
       <c r="AB568" s="3"/>
+      <c r="AC568" s="3"/>
     </row>
     <row r="569">
       <c r="A569" s="3"/>
@@ -18512,6 +19217,7 @@
       <c r="Z569" s="3"/>
       <c r="AA569" s="3"/>
       <c r="AB569" s="3"/>
+      <c r="AC569" s="3"/>
     </row>
     <row r="570">
       <c r="A570" s="3"/>
@@ -18542,6 +19248,7 @@
       <c r="Z570" s="3"/>
       <c r="AA570" s="3"/>
       <c r="AB570" s="3"/>
+      <c r="AC570" s="3"/>
     </row>
     <row r="571">
       <c r="A571" s="3"/>
@@ -18572,6 +19279,7 @@
       <c r="Z571" s="3"/>
       <c r="AA571" s="3"/>
       <c r="AB571" s="3"/>
+      <c r="AC571" s="3"/>
     </row>
     <row r="572">
       <c r="A572" s="3"/>
@@ -18602,6 +19310,7 @@
       <c r="Z572" s="3"/>
       <c r="AA572" s="3"/>
       <c r="AB572" s="3"/>
+      <c r="AC572" s="3"/>
     </row>
     <row r="573">
       <c r="A573" s="3"/>
@@ -18632,6 +19341,7 @@
       <c r="Z573" s="3"/>
       <c r="AA573" s="3"/>
       <c r="AB573" s="3"/>
+      <c r="AC573" s="3"/>
     </row>
     <row r="574">
       <c r="A574" s="3"/>
@@ -18662,6 +19372,7 @@
       <c r="Z574" s="3"/>
       <c r="AA574" s="3"/>
       <c r="AB574" s="3"/>
+      <c r="AC574" s="3"/>
     </row>
     <row r="575">
       <c r="A575" s="3"/>
@@ -18692,6 +19403,7 @@
       <c r="Z575" s="3"/>
       <c r="AA575" s="3"/>
       <c r="AB575" s="3"/>
+      <c r="AC575" s="3"/>
     </row>
     <row r="576">
       <c r="A576" s="3"/>
@@ -18722,6 +19434,7 @@
       <c r="Z576" s="3"/>
       <c r="AA576" s="3"/>
       <c r="AB576" s="3"/>
+      <c r="AC576" s="3"/>
     </row>
     <row r="577">
       <c r="A577" s="3"/>
@@ -18752,6 +19465,7 @@
       <c r="Z577" s="3"/>
       <c r="AA577" s="3"/>
       <c r="AB577" s="3"/>
+      <c r="AC577" s="3"/>
     </row>
     <row r="578">
       <c r="A578" s="3"/>
@@ -18782,6 +19496,7 @@
       <c r="Z578" s="3"/>
       <c r="AA578" s="3"/>
       <c r="AB578" s="3"/>
+      <c r="AC578" s="3"/>
     </row>
     <row r="579">
       <c r="A579" s="3"/>
@@ -18812,6 +19527,7 @@
       <c r="Z579" s="3"/>
       <c r="AA579" s="3"/>
       <c r="AB579" s="3"/>
+      <c r="AC579" s="3"/>
     </row>
     <row r="580">
       <c r="A580" s="3"/>
@@ -18842,6 +19558,7 @@
       <c r="Z580" s="3"/>
       <c r="AA580" s="3"/>
       <c r="AB580" s="3"/>
+      <c r="AC580" s="3"/>
     </row>
     <row r="581">
       <c r="A581" s="3"/>
@@ -18872,6 +19589,7 @@
       <c r="Z581" s="3"/>
       <c r="AA581" s="3"/>
       <c r="AB581" s="3"/>
+      <c r="AC581" s="3"/>
     </row>
     <row r="582">
       <c r="A582" s="3"/>
@@ -18902,6 +19620,7 @@
       <c r="Z582" s="3"/>
       <c r="AA582" s="3"/>
       <c r="AB582" s="3"/>
+      <c r="AC582" s="3"/>
     </row>
     <row r="583">
       <c r="A583" s="3"/>
@@ -18932,6 +19651,7 @@
       <c r="Z583" s="3"/>
       <c r="AA583" s="3"/>
       <c r="AB583" s="3"/>
+      <c r="AC583" s="3"/>
     </row>
     <row r="584">
       <c r="A584" s="3"/>
@@ -18962,6 +19682,7 @@
       <c r="Z584" s="3"/>
       <c r="AA584" s="3"/>
       <c r="AB584" s="3"/>
+      <c r="AC584" s="3"/>
     </row>
     <row r="585">
       <c r="A585" s="3"/>
@@ -18992,6 +19713,7 @@
       <c r="Z585" s="3"/>
       <c r="AA585" s="3"/>
       <c r="AB585" s="3"/>
+      <c r="AC585" s="3"/>
     </row>
     <row r="586">
       <c r="A586" s="3"/>
@@ -19022,6 +19744,7 @@
       <c r="Z586" s="3"/>
       <c r="AA586" s="3"/>
       <c r="AB586" s="3"/>
+      <c r="AC586" s="3"/>
     </row>
     <row r="587">
       <c r="A587" s="3"/>
@@ -19052,6 +19775,7 @@
       <c r="Z587" s="3"/>
       <c r="AA587" s="3"/>
       <c r="AB587" s="3"/>
+      <c r="AC587" s="3"/>
     </row>
     <row r="588">
       <c r="A588" s="3"/>
@@ -19082,6 +19806,7 @@
       <c r="Z588" s="3"/>
       <c r="AA588" s="3"/>
       <c r="AB588" s="3"/>
+      <c r="AC588" s="3"/>
     </row>
     <row r="589">
       <c r="A589" s="3"/>
@@ -19112,6 +19837,7 @@
       <c r="Z589" s="3"/>
       <c r="AA589" s="3"/>
       <c r="AB589" s="3"/>
+      <c r="AC589" s="3"/>
     </row>
     <row r="590">
       <c r="A590" s="3"/>
@@ -19142,6 +19868,7 @@
       <c r="Z590" s="3"/>
       <c r="AA590" s="3"/>
       <c r="AB590" s="3"/>
+      <c r="AC590" s="3"/>
     </row>
     <row r="591">
       <c r="A591" s="3"/>
@@ -19172,6 +19899,7 @@
       <c r="Z591" s="3"/>
       <c r="AA591" s="3"/>
       <c r="AB591" s="3"/>
+      <c r="AC591" s="3"/>
     </row>
     <row r="592">
       <c r="A592" s="3"/>
@@ -19202,6 +19930,7 @@
       <c r="Z592" s="3"/>
       <c r="AA592" s="3"/>
       <c r="AB592" s="3"/>
+      <c r="AC592" s="3"/>
     </row>
     <row r="593">
       <c r="A593" s="3"/>
@@ -19232,6 +19961,7 @@
       <c r="Z593" s="3"/>
       <c r="AA593" s="3"/>
       <c r="AB593" s="3"/>
+      <c r="AC593" s="3"/>
     </row>
     <row r="594">
       <c r="A594" s="3"/>
@@ -19262,6 +19992,7 @@
       <c r="Z594" s="3"/>
       <c r="AA594" s="3"/>
       <c r="AB594" s="3"/>
+      <c r="AC594" s="3"/>
     </row>
     <row r="595">
       <c r="A595" s="3"/>
@@ -19292,6 +20023,7 @@
       <c r="Z595" s="3"/>
       <c r="AA595" s="3"/>
       <c r="AB595" s="3"/>
+      <c r="AC595" s="3"/>
     </row>
     <row r="596">
       <c r="A596" s="3"/>
@@ -19322,6 +20054,7 @@
       <c r="Z596" s="3"/>
       <c r="AA596" s="3"/>
       <c r="AB596" s="3"/>
+      <c r="AC596" s="3"/>
     </row>
     <row r="597">
       <c r="A597" s="3"/>
@@ -19352,6 +20085,7 @@
       <c r="Z597" s="3"/>
       <c r="AA597" s="3"/>
       <c r="AB597" s="3"/>
+      <c r="AC597" s="3"/>
     </row>
     <row r="598">
       <c r="A598" s="3"/>
@@ -19382,6 +20116,7 @@
       <c r="Z598" s="3"/>
       <c r="AA598" s="3"/>
       <c r="AB598" s="3"/>
+      <c r="AC598" s="3"/>
     </row>
     <row r="599">
       <c r="A599" s="3"/>
@@ -19412,6 +20147,7 @@
       <c r="Z599" s="3"/>
       <c r="AA599" s="3"/>
       <c r="AB599" s="3"/>
+      <c r="AC599" s="3"/>
     </row>
     <row r="600">
       <c r="A600" s="3"/>
@@ -19442,6 +20178,7 @@
       <c r="Z600" s="3"/>
       <c r="AA600" s="3"/>
       <c r="AB600" s="3"/>
+      <c r="AC600" s="3"/>
     </row>
     <row r="601">
       <c r="A601" s="3"/>
@@ -19472,6 +20209,7 @@
       <c r="Z601" s="3"/>
       <c r="AA601" s="3"/>
       <c r="AB601" s="3"/>
+      <c r="AC601" s="3"/>
     </row>
     <row r="602">
       <c r="A602" s="3"/>
@@ -19502,6 +20240,7 @@
       <c r="Z602" s="3"/>
       <c r="AA602" s="3"/>
       <c r="AB602" s="3"/>
+      <c r="AC602" s="3"/>
     </row>
     <row r="603">
       <c r="A603" s="3"/>
@@ -19532,6 +20271,7 @@
       <c r="Z603" s="3"/>
       <c r="AA603" s="3"/>
       <c r="AB603" s="3"/>
+      <c r="AC603" s="3"/>
     </row>
     <row r="604">
       <c r="A604" s="3"/>
@@ -19562,6 +20302,7 @@
       <c r="Z604" s="3"/>
       <c r="AA604" s="3"/>
       <c r="AB604" s="3"/>
+      <c r="AC604" s="3"/>
     </row>
     <row r="605">
       <c r="A605" s="3"/>
@@ -19592,6 +20333,7 @@
       <c r="Z605" s="3"/>
       <c r="AA605" s="3"/>
       <c r="AB605" s="3"/>
+      <c r="AC605" s="3"/>
     </row>
     <row r="606">
       <c r="A606" s="3"/>
@@ -19622,6 +20364,7 @@
       <c r="Z606" s="3"/>
       <c r="AA606" s="3"/>
       <c r="AB606" s="3"/>
+      <c r="AC606" s="3"/>
     </row>
     <row r="607">
       <c r="A607" s="3"/>
@@ -19652,6 +20395,7 @@
       <c r="Z607" s="3"/>
       <c r="AA607" s="3"/>
       <c r="AB607" s="3"/>
+      <c r="AC607" s="3"/>
     </row>
     <row r="608">
       <c r="A608" s="3"/>
@@ -19682,6 +20426,7 @@
       <c r="Z608" s="3"/>
       <c r="AA608" s="3"/>
       <c r="AB608" s="3"/>
+      <c r="AC608" s="3"/>
     </row>
     <row r="609">
       <c r="A609" s="3"/>
@@ -19712,6 +20457,7 @@
       <c r="Z609" s="3"/>
       <c r="AA609" s="3"/>
       <c r="AB609" s="3"/>
+      <c r="AC609" s="3"/>
     </row>
     <row r="610">
       <c r="A610" s="3"/>
@@ -19742,6 +20488,7 @@
       <c r="Z610" s="3"/>
       <c r="AA610" s="3"/>
       <c r="AB610" s="3"/>
+      <c r="AC610" s="3"/>
     </row>
     <row r="611">
       <c r="A611" s="3"/>
@@ -19772,6 +20519,7 @@
       <c r="Z611" s="3"/>
       <c r="AA611" s="3"/>
       <c r="AB611" s="3"/>
+      <c r="AC611" s="3"/>
     </row>
     <row r="612">
       <c r="A612" s="3"/>
@@ -19802,6 +20550,7 @@
       <c r="Z612" s="3"/>
       <c r="AA612" s="3"/>
       <c r="AB612" s="3"/>
+      <c r="AC612" s="3"/>
     </row>
     <row r="613">
       <c r="A613" s="3"/>
@@ -19832,6 +20581,7 @@
       <c r="Z613" s="3"/>
       <c r="AA613" s="3"/>
       <c r="AB613" s="3"/>
+      <c r="AC613" s="3"/>
     </row>
     <row r="614">
       <c r="A614" s="3"/>
@@ -19862,6 +20612,7 @@
       <c r="Z614" s="3"/>
       <c r="AA614" s="3"/>
       <c r="AB614" s="3"/>
+      <c r="AC614" s="3"/>
     </row>
     <row r="615">
       <c r="A615" s="3"/>
@@ -19892,6 +20643,7 @@
       <c r="Z615" s="3"/>
       <c r="AA615" s="3"/>
       <c r="AB615" s="3"/>
+      <c r="AC615" s="3"/>
     </row>
     <row r="616">
       <c r="A616" s="3"/>
@@ -19922,6 +20674,7 @@
       <c r="Z616" s="3"/>
       <c r="AA616" s="3"/>
       <c r="AB616" s="3"/>
+      <c r="AC616" s="3"/>
     </row>
     <row r="617">
       <c r="A617" s="3"/>
@@ -19952,6 +20705,7 @@
       <c r="Z617" s="3"/>
       <c r="AA617" s="3"/>
       <c r="AB617" s="3"/>
+      <c r="AC617" s="3"/>
     </row>
     <row r="618">
       <c r="A618" s="3"/>
@@ -19982,6 +20736,7 @@
       <c r="Z618" s="3"/>
       <c r="AA618" s="3"/>
       <c r="AB618" s="3"/>
+      <c r="AC618" s="3"/>
     </row>
     <row r="619">
       <c r="A619" s="3"/>
@@ -20012,6 +20767,7 @@
       <c r="Z619" s="3"/>
       <c r="AA619" s="3"/>
       <c r="AB619" s="3"/>
+      <c r="AC619" s="3"/>
     </row>
     <row r="620">
       <c r="A620" s="3"/>
@@ -20042,6 +20798,7 @@
       <c r="Z620" s="3"/>
       <c r="AA620" s="3"/>
       <c r="AB620" s="3"/>
+      <c r="AC620" s="3"/>
     </row>
     <row r="621">
       <c r="A621" s="3"/>
@@ -20072,6 +20829,7 @@
       <c r="Z621" s="3"/>
       <c r="AA621" s="3"/>
       <c r="AB621" s="3"/>
+      <c r="AC621" s="3"/>
     </row>
     <row r="622">
       <c r="A622" s="3"/>
@@ -20102,6 +20860,7 @@
       <c r="Z622" s="3"/>
       <c r="AA622" s="3"/>
       <c r="AB622" s="3"/>
+      <c r="AC622" s="3"/>
     </row>
     <row r="623">
       <c r="A623" s="3"/>
@@ -20132,6 +20891,7 @@
       <c r="Z623" s="3"/>
       <c r="AA623" s="3"/>
       <c r="AB623" s="3"/>
+      <c r="AC623" s="3"/>
     </row>
     <row r="624">
       <c r="A624" s="3"/>
@@ -20162,6 +20922,7 @@
       <c r="Z624" s="3"/>
       <c r="AA624" s="3"/>
       <c r="AB624" s="3"/>
+      <c r="AC624" s="3"/>
     </row>
     <row r="625">
       <c r="A625" s="3"/>
@@ -20192,6 +20953,7 @@
       <c r="Z625" s="3"/>
       <c r="AA625" s="3"/>
       <c r="AB625" s="3"/>
+      <c r="AC625" s="3"/>
     </row>
     <row r="626">
       <c r="A626" s="3"/>
@@ -20222,6 +20984,7 @@
       <c r="Z626" s="3"/>
       <c r="AA626" s="3"/>
       <c r="AB626" s="3"/>
+      <c r="AC626" s="3"/>
     </row>
     <row r="627">
       <c r="A627" s="3"/>
@@ -20252,6 +21015,7 @@
       <c r="Z627" s="3"/>
       <c r="AA627" s="3"/>
       <c r="AB627" s="3"/>
+      <c r="AC627" s="3"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
@@ -20282,6 +21046,7 @@
       <c r="Z628" s="3"/>
       <c r="AA628" s="3"/>
       <c r="AB628" s="3"/>
+      <c r="AC628" s="3"/>
     </row>
     <row r="629">
       <c r="A629" s="3"/>
@@ -20312,6 +21077,7 @@
       <c r="Z629" s="3"/>
       <c r="AA629" s="3"/>
       <c r="AB629" s="3"/>
+      <c r="AC629" s="3"/>
     </row>
     <row r="630">
       <c r="A630" s="3"/>
@@ -20342,6 +21108,7 @@
       <c r="Z630" s="3"/>
       <c r="AA630" s="3"/>
       <c r="AB630" s="3"/>
+      <c r="AC630" s="3"/>
     </row>
     <row r="631">
       <c r="A631" s="3"/>
@@ -20372,6 +21139,7 @@
       <c r="Z631" s="3"/>
       <c r="AA631" s="3"/>
       <c r="AB631" s="3"/>
+      <c r="AC631" s="3"/>
     </row>
     <row r="632">
       <c r="A632" s="3"/>
@@ -20402,6 +21170,7 @@
       <c r="Z632" s="3"/>
       <c r="AA632" s="3"/>
       <c r="AB632" s="3"/>
+      <c r="AC632" s="3"/>
     </row>
     <row r="633">
       <c r="A633" s="3"/>
@@ -20432,6 +21201,7 @@
       <c r="Z633" s="3"/>
       <c r="AA633" s="3"/>
       <c r="AB633" s="3"/>
+      <c r="AC633" s="3"/>
     </row>
     <row r="634">
       <c r="A634" s="3"/>
@@ -20462,6 +21232,7 @@
       <c r="Z634" s="3"/>
       <c r="AA634" s="3"/>
       <c r="AB634" s="3"/>
+      <c r="AC634" s="3"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
@@ -20492,6 +21263,7 @@
       <c r="Z635" s="3"/>
       <c r="AA635" s="3"/>
       <c r="AB635" s="3"/>
+      <c r="AC635" s="3"/>
     </row>
     <row r="636">
       <c r="A636" s="3"/>
@@ -20522,6 +21294,7 @@
       <c r="Z636" s="3"/>
       <c r="AA636" s="3"/>
       <c r="AB636" s="3"/>
+      <c r="AC636" s="3"/>
     </row>
     <row r="637">
       <c r="A637" s="3"/>
@@ -20552,6 +21325,7 @@
       <c r="Z637" s="3"/>
       <c r="AA637" s="3"/>
       <c r="AB637" s="3"/>
+      <c r="AC637" s="3"/>
     </row>
     <row r="638">
       <c r="A638" s="3"/>
@@ -20582,6 +21356,7 @@
       <c r="Z638" s="3"/>
       <c r="AA638" s="3"/>
       <c r="AB638" s="3"/>
+      <c r="AC638" s="3"/>
     </row>
     <row r="639">
       <c r="A639" s="3"/>
@@ -20612,6 +21387,7 @@
       <c r="Z639" s="3"/>
       <c r="AA639" s="3"/>
       <c r="AB639" s="3"/>
+      <c r="AC639" s="3"/>
     </row>
     <row r="640">
       <c r="A640" s="3"/>
@@ -20642,6 +21418,7 @@
       <c r="Z640" s="3"/>
       <c r="AA640" s="3"/>
       <c r="AB640" s="3"/>
+      <c r="AC640" s="3"/>
     </row>
     <row r="641">
       <c r="A641" s="3"/>
@@ -20672,6 +21449,7 @@
       <c r="Z641" s="3"/>
       <c r="AA641" s="3"/>
       <c r="AB641" s="3"/>
+      <c r="AC641" s="3"/>
     </row>
     <row r="642">
       <c r="A642" s="3"/>
@@ -20702,6 +21480,7 @@
       <c r="Z642" s="3"/>
       <c r="AA642" s="3"/>
       <c r="AB642" s="3"/>
+      <c r="AC642" s="3"/>
     </row>
     <row r="643">
       <c r="A643" s="3"/>
@@ -20732,6 +21511,7 @@
       <c r="Z643" s="3"/>
       <c r="AA643" s="3"/>
       <c r="AB643" s="3"/>
+      <c r="AC643" s="3"/>
     </row>
     <row r="644">
       <c r="A644" s="3"/>
@@ -20762,6 +21542,7 @@
       <c r="Z644" s="3"/>
       <c r="AA644" s="3"/>
       <c r="AB644" s="3"/>
+      <c r="AC644" s="3"/>
     </row>
     <row r="645">
       <c r="A645" s="3"/>
@@ -20792,6 +21573,7 @@
       <c r="Z645" s="3"/>
       <c r="AA645" s="3"/>
       <c r="AB645" s="3"/>
+      <c r="AC645" s="3"/>
     </row>
     <row r="646">
       <c r="A646" s="3"/>
@@ -20822,6 +21604,7 @@
       <c r="Z646" s="3"/>
       <c r="AA646" s="3"/>
       <c r="AB646" s="3"/>
+      <c r="AC646" s="3"/>
     </row>
     <row r="647">
       <c r="A647" s="3"/>
@@ -20852,6 +21635,7 @@
       <c r="Z647" s="3"/>
       <c r="AA647" s="3"/>
       <c r="AB647" s="3"/>
+      <c r="AC647" s="3"/>
     </row>
     <row r="648">
       <c r="A648" s="3"/>
@@ -20882,6 +21666,7 @@
       <c r="Z648" s="3"/>
       <c r="AA648" s="3"/>
       <c r="AB648" s="3"/>
+      <c r="AC648" s="3"/>
     </row>
     <row r="649">
       <c r="A649" s="3"/>
@@ -20912,6 +21697,7 @@
       <c r="Z649" s="3"/>
       <c r="AA649" s="3"/>
       <c r="AB649" s="3"/>
+      <c r="AC649" s="3"/>
     </row>
     <row r="650">
       <c r="A650" s="3"/>
@@ -20942,6 +21728,7 @@
       <c r="Z650" s="3"/>
       <c r="AA650" s="3"/>
       <c r="AB650" s="3"/>
+      <c r="AC650" s="3"/>
     </row>
     <row r="651">
       <c r="A651" s="3"/>
@@ -20972,6 +21759,7 @@
       <c r="Z651" s="3"/>
       <c r="AA651" s="3"/>
       <c r="AB651" s="3"/>
+      <c r="AC651" s="3"/>
     </row>
     <row r="652">
       <c r="A652" s="3"/>
@@ -21002,6 +21790,7 @@
       <c r="Z652" s="3"/>
       <c r="AA652" s="3"/>
       <c r="AB652" s="3"/>
+      <c r="AC652" s="3"/>
     </row>
     <row r="653">
       <c r="A653" s="3"/>
@@ -21032,6 +21821,7 @@
       <c r="Z653" s="3"/>
       <c r="AA653" s="3"/>
       <c r="AB653" s="3"/>
+      <c r="AC653" s="3"/>
     </row>
     <row r="654">
       <c r="A654" s="3"/>
@@ -21062,6 +21852,7 @@
       <c r="Z654" s="3"/>
       <c r="AA654" s="3"/>
       <c r="AB654" s="3"/>
+      <c r="AC654" s="3"/>
     </row>
     <row r="655">
       <c r="A655" s="3"/>
@@ -21092,6 +21883,7 @@
       <c r="Z655" s="3"/>
       <c r="AA655" s="3"/>
       <c r="AB655" s="3"/>
+      <c r="AC655" s="3"/>
     </row>
     <row r="656">
       <c r="A656" s="3"/>
@@ -21122,6 +21914,7 @@
       <c r="Z656" s="3"/>
       <c r="AA656" s="3"/>
       <c r="AB656" s="3"/>
+      <c r="AC656" s="3"/>
     </row>
     <row r="657">
       <c r="A657" s="3"/>
@@ -21152,6 +21945,7 @@
       <c r="Z657" s="3"/>
       <c r="AA657" s="3"/>
       <c r="AB657" s="3"/>
+      <c r="AC657" s="3"/>
     </row>
     <row r="658">
       <c r="A658" s="3"/>
@@ -21182,6 +21976,7 @@
       <c r="Z658" s="3"/>
       <c r="AA658" s="3"/>
       <c r="AB658" s="3"/>
+      <c r="AC658" s="3"/>
     </row>
     <row r="659">
       <c r="A659" s="3"/>
@@ -21212,6 +22007,7 @@
       <c r="Z659" s="3"/>
       <c r="AA659" s="3"/>
       <c r="AB659" s="3"/>
+      <c r="AC659" s="3"/>
     </row>
     <row r="660">
       <c r="A660" s="3"/>
@@ -21242,6 +22038,7 @@
       <c r="Z660" s="3"/>
       <c r="AA660" s="3"/>
       <c r="AB660" s="3"/>
+      <c r="AC660" s="3"/>
     </row>
     <row r="661">
       <c r="A661" s="3"/>
@@ -21272,6 +22069,7 @@
       <c r="Z661" s="3"/>
       <c r="AA661" s="3"/>
       <c r="AB661" s="3"/>
+      <c r="AC661" s="3"/>
     </row>
     <row r="662">
       <c r="A662" s="3"/>
@@ -21302,6 +22100,7 @@
       <c r="Z662" s="3"/>
       <c r="AA662" s="3"/>
       <c r="AB662" s="3"/>
+      <c r="AC662" s="3"/>
     </row>
     <row r="663">
       <c r="A663" s="3"/>
@@ -21332,6 +22131,7 @@
       <c r="Z663" s="3"/>
       <c r="AA663" s="3"/>
       <c r="AB663" s="3"/>
+      <c r="AC663" s="3"/>
     </row>
     <row r="664">
       <c r="A664" s="3"/>
@@ -21362,6 +22162,7 @@
       <c r="Z664" s="3"/>
       <c r="AA664" s="3"/>
       <c r="AB664" s="3"/>
+      <c r="AC664" s="3"/>
     </row>
     <row r="665">
       <c r="A665" s="3"/>
@@ -21392,6 +22193,7 @@
       <c r="Z665" s="3"/>
       <c r="AA665" s="3"/>
       <c r="AB665" s="3"/>
+      <c r="AC665" s="3"/>
     </row>
     <row r="666">
       <c r="A666" s="3"/>
@@ -21422,6 +22224,7 @@
       <c r="Z666" s="3"/>
       <c r="AA666" s="3"/>
       <c r="AB666" s="3"/>
+      <c r="AC666" s="3"/>
     </row>
     <row r="667">
       <c r="A667" s="3"/>
@@ -21452,6 +22255,7 @@
       <c r="Z667" s="3"/>
       <c r="AA667" s="3"/>
       <c r="AB667" s="3"/>
+      <c r="AC667" s="3"/>
     </row>
     <row r="668">
       <c r="A668" s="3"/>
@@ -21482,6 +22286,7 @@
       <c r="Z668" s="3"/>
       <c r="AA668" s="3"/>
       <c r="AB668" s="3"/>
+      <c r="AC668" s="3"/>
     </row>
     <row r="669">
       <c r="A669" s="3"/>
@@ -21512,6 +22317,7 @@
       <c r="Z669" s="3"/>
       <c r="AA669" s="3"/>
       <c r="AB669" s="3"/>
+      <c r="AC669" s="3"/>
     </row>
     <row r="670">
       <c r="A670" s="3"/>
@@ -21542,6 +22348,7 @@
       <c r="Z670" s="3"/>
       <c r="AA670" s="3"/>
       <c r="AB670" s="3"/>
+      <c r="AC670" s="3"/>
     </row>
     <row r="671">
       <c r="A671" s="3"/>
@@ -21572,6 +22379,7 @@
       <c r="Z671" s="3"/>
       <c r="AA671" s="3"/>
       <c r="AB671" s="3"/>
+      <c r="AC671" s="3"/>
     </row>
     <row r="672">
       <c r="A672" s="3"/>
@@ -21602,6 +22410,7 @@
       <c r="Z672" s="3"/>
       <c r="AA672" s="3"/>
       <c r="AB672" s="3"/>
+      <c r="AC672" s="3"/>
     </row>
     <row r="673">
       <c r="A673" s="3"/>
@@ -21632,6 +22441,7 @@
       <c r="Z673" s="3"/>
       <c r="AA673" s="3"/>
       <c r="AB673" s="3"/>
+      <c r="AC673" s="3"/>
     </row>
     <row r="674">
       <c r="A674" s="3"/>
@@ -21662,6 +22472,7 @@
       <c r="Z674" s="3"/>
       <c r="AA674" s="3"/>
       <c r="AB674" s="3"/>
+      <c r="AC674" s="3"/>
     </row>
     <row r="675">
       <c r="A675" s="3"/>
@@ -21692,6 +22503,7 @@
       <c r="Z675" s="3"/>
       <c r="AA675" s="3"/>
       <c r="AB675" s="3"/>
+      <c r="AC675" s="3"/>
     </row>
     <row r="676">
       <c r="A676" s="3"/>
@@ -21722,6 +22534,7 @@
       <c r="Z676" s="3"/>
       <c r="AA676" s="3"/>
       <c r="AB676" s="3"/>
+      <c r="AC676" s="3"/>
     </row>
     <row r="677">
       <c r="A677" s="3"/>
@@ -21752,6 +22565,7 @@
       <c r="Z677" s="3"/>
       <c r="AA677" s="3"/>
       <c r="AB677" s="3"/>
+      <c r="AC677" s="3"/>
     </row>
     <row r="678">
       <c r="A678" s="3"/>
@@ -21782,6 +22596,7 @@
       <c r="Z678" s="3"/>
       <c r="AA678" s="3"/>
       <c r="AB678" s="3"/>
+      <c r="AC678" s="3"/>
     </row>
     <row r="679">
       <c r="A679" s="3"/>
@@ -21812,6 +22627,7 @@
       <c r="Z679" s="3"/>
       <c r="AA679" s="3"/>
       <c r="AB679" s="3"/>
+      <c r="AC679" s="3"/>
     </row>
     <row r="680">
       <c r="A680" s="3"/>
@@ -21842,6 +22658,7 @@
       <c r="Z680" s="3"/>
       <c r="AA680" s="3"/>
       <c r="AB680" s="3"/>
+      <c r="AC680" s="3"/>
     </row>
     <row r="681">
       <c r="A681" s="3"/>
@@ -21872,6 +22689,7 @@
       <c r="Z681" s="3"/>
       <c r="AA681" s="3"/>
       <c r="AB681" s="3"/>
+      <c r="AC681" s="3"/>
     </row>
     <row r="682">
       <c r="A682" s="3"/>
@@ -21902,6 +22720,7 @@
       <c r="Z682" s="3"/>
       <c r="AA682" s="3"/>
       <c r="AB682" s="3"/>
+      <c r="AC682" s="3"/>
     </row>
     <row r="683">
       <c r="A683" s="3"/>
@@ -21932,6 +22751,7 @@
       <c r="Z683" s="3"/>
       <c r="AA683" s="3"/>
       <c r="AB683" s="3"/>
+      <c r="AC683" s="3"/>
     </row>
     <row r="684">
       <c r="A684" s="3"/>
@@ -21962,6 +22782,7 @@
       <c r="Z684" s="3"/>
       <c r="AA684" s="3"/>
       <c r="AB684" s="3"/>
+      <c r="AC684" s="3"/>
     </row>
     <row r="685">
       <c r="A685" s="3"/>
@@ -21992,6 +22813,7 @@
       <c r="Z685" s="3"/>
       <c r="AA685" s="3"/>
       <c r="AB685" s="3"/>
+      <c r="AC685" s="3"/>
     </row>
     <row r="686">
       <c r="A686" s="3"/>
@@ -22022,6 +22844,7 @@
       <c r="Z686" s="3"/>
       <c r="AA686" s="3"/>
       <c r="AB686" s="3"/>
+      <c r="AC686" s="3"/>
     </row>
     <row r="687">
       <c r="A687" s="3"/>
@@ -22052,6 +22875,7 @@
       <c r="Z687" s="3"/>
       <c r="AA687" s="3"/>
       <c r="AB687" s="3"/>
+      <c r="AC687" s="3"/>
     </row>
     <row r="688">
       <c r="A688" s="3"/>
@@ -22082,6 +22906,7 @@
       <c r="Z688" s="3"/>
       <c r="AA688" s="3"/>
       <c r="AB688" s="3"/>
+      <c r="AC688" s="3"/>
     </row>
     <row r="689">
       <c r="A689" s="3"/>
@@ -22112,6 +22937,7 @@
       <c r="Z689" s="3"/>
       <c r="AA689" s="3"/>
       <c r="AB689" s="3"/>
+      <c r="AC689" s="3"/>
     </row>
     <row r="690">
       <c r="A690" s="3"/>
@@ -22142,6 +22968,7 @@
       <c r="Z690" s="3"/>
       <c r="AA690" s="3"/>
       <c r="AB690" s="3"/>
+      <c r="AC690" s="3"/>
     </row>
     <row r="691">
       <c r="A691" s="3"/>
@@ -22172,6 +22999,7 @@
       <c r="Z691" s="3"/>
       <c r="AA691" s="3"/>
       <c r="AB691" s="3"/>
+      <c r="AC691" s="3"/>
     </row>
     <row r="692">
       <c r="A692" s="3"/>
@@ -22202,6 +23030,7 @@
       <c r="Z692" s="3"/>
       <c r="AA692" s="3"/>
       <c r="AB692" s="3"/>
+      <c r="AC692" s="3"/>
     </row>
     <row r="693">
       <c r="A693" s="3"/>
@@ -22232,6 +23061,7 @@
       <c r="Z693" s="3"/>
       <c r="AA693" s="3"/>
       <c r="AB693" s="3"/>
+      <c r="AC693" s="3"/>
     </row>
     <row r="694">
       <c r="A694" s="3"/>
@@ -22262,6 +23092,7 @@
       <c r="Z694" s="3"/>
       <c r="AA694" s="3"/>
       <c r="AB694" s="3"/>
+      <c r="AC694" s="3"/>
     </row>
     <row r="695">
       <c r="A695" s="3"/>
@@ -22292,6 +23123,7 @@
       <c r="Z695" s="3"/>
       <c r="AA695" s="3"/>
       <c r="AB695" s="3"/>
+      <c r="AC695" s="3"/>
     </row>
     <row r="696">
       <c r="A696" s="3"/>
@@ -22322,6 +23154,7 @@
       <c r="Z696" s="3"/>
       <c r="AA696" s="3"/>
       <c r="AB696" s="3"/>
+      <c r="AC696" s="3"/>
     </row>
     <row r="697">
       <c r="A697" s="3"/>
@@ -22352,6 +23185,7 @@
       <c r="Z697" s="3"/>
       <c r="AA697" s="3"/>
       <c r="AB697" s="3"/>
+      <c r="AC697" s="3"/>
     </row>
     <row r="698">
       <c r="A698" s="3"/>
@@ -22382,6 +23216,7 @@
       <c r="Z698" s="3"/>
       <c r="AA698" s="3"/>
       <c r="AB698" s="3"/>
+      <c r="AC698" s="3"/>
     </row>
     <row r="699">
       <c r="A699" s="3"/>
@@ -22412,6 +23247,7 @@
       <c r="Z699" s="3"/>
       <c r="AA699" s="3"/>
       <c r="AB699" s="3"/>
+      <c r="AC699" s="3"/>
     </row>
     <row r="700">
       <c r="A700" s="3"/>
@@ -22442,6 +23278,7 @@
       <c r="Z700" s="3"/>
       <c r="AA700" s="3"/>
       <c r="AB700" s="3"/>
+      <c r="AC700" s="3"/>
     </row>
     <row r="701">
       <c r="A701" s="3"/>
@@ -22472,6 +23309,7 @@
       <c r="Z701" s="3"/>
       <c r="AA701" s="3"/>
       <c r="AB701" s="3"/>
+      <c r="AC701" s="3"/>
     </row>
     <row r="702">
       <c r="A702" s="3"/>
@@ -22502,6 +23340,7 @@
       <c r="Z702" s="3"/>
       <c r="AA702" s="3"/>
       <c r="AB702" s="3"/>
+      <c r="AC702" s="3"/>
     </row>
     <row r="703">
       <c r="A703" s="3"/>
@@ -22532,6 +23371,7 @@
       <c r="Z703" s="3"/>
       <c r="AA703" s="3"/>
       <c r="AB703" s="3"/>
+      <c r="AC703" s="3"/>
     </row>
     <row r="704">
       <c r="A704" s="3"/>
@@ -22562,6 +23402,7 @@
       <c r="Z704" s="3"/>
       <c r="AA704" s="3"/>
       <c r="AB704" s="3"/>
+      <c r="AC704" s="3"/>
     </row>
     <row r="705">
       <c r="A705" s="3"/>
@@ -22592,6 +23433,7 @@
       <c r="Z705" s="3"/>
       <c r="AA705" s="3"/>
       <c r="AB705" s="3"/>
+      <c r="AC705" s="3"/>
     </row>
     <row r="706">
       <c r="A706" s="3"/>
@@ -22622,6 +23464,7 @@
       <c r="Z706" s="3"/>
       <c r="AA706" s="3"/>
       <c r="AB706" s="3"/>
+      <c r="AC706" s="3"/>
     </row>
     <row r="707">
       <c r="A707" s="3"/>
@@ -22652,6 +23495,7 @@
       <c r="Z707" s="3"/>
       <c r="AA707" s="3"/>
       <c r="AB707" s="3"/>
+      <c r="AC707" s="3"/>
     </row>
     <row r="708">
       <c r="A708" s="3"/>
@@ -22682,6 +23526,7 @@
       <c r="Z708" s="3"/>
       <c r="AA708" s="3"/>
       <c r="AB708" s="3"/>
+      <c r="AC708" s="3"/>
     </row>
     <row r="709">
       <c r="A709" s="3"/>
@@ -22712,6 +23557,7 @@
       <c r="Z709" s="3"/>
       <c r="AA709" s="3"/>
       <c r="AB709" s="3"/>
+      <c r="AC709" s="3"/>
     </row>
     <row r="710">
       <c r="A710" s="3"/>
@@ -22742,6 +23588,7 @@
       <c r="Z710" s="3"/>
       <c r="AA710" s="3"/>
       <c r="AB710" s="3"/>
+      <c r="AC710" s="3"/>
     </row>
     <row r="711">
       <c r="A711" s="3"/>
@@ -22772,6 +23619,7 @@
       <c r="Z711" s="3"/>
       <c r="AA711" s="3"/>
       <c r="AB711" s="3"/>
+      <c r="AC711" s="3"/>
     </row>
     <row r="712">
       <c r="A712" s="3"/>
@@ -22802,6 +23650,7 @@
       <c r="Z712" s="3"/>
       <c r="AA712" s="3"/>
       <c r="AB712" s="3"/>
+      <c r="AC712" s="3"/>
     </row>
     <row r="713">
       <c r="A713" s="3"/>
@@ -22832,6 +23681,7 @@
       <c r="Z713" s="3"/>
       <c r="AA713" s="3"/>
       <c r="AB713" s="3"/>
+      <c r="AC713" s="3"/>
     </row>
     <row r="714">
       <c r="A714" s="3"/>
@@ -22862,6 +23712,7 @@
       <c r="Z714" s="3"/>
       <c r="AA714" s="3"/>
       <c r="AB714" s="3"/>
+      <c r="AC714" s="3"/>
     </row>
     <row r="715">
       <c r="A715" s="3"/>
@@ -22892,6 +23743,7 @@
       <c r="Z715" s="3"/>
       <c r="AA715" s="3"/>
       <c r="AB715" s="3"/>
+      <c r="AC715" s="3"/>
     </row>
     <row r="716">
       <c r="A716" s="3"/>
@@ -22922,6 +23774,7 @@
       <c r="Z716" s="3"/>
       <c r="AA716" s="3"/>
       <c r="AB716" s="3"/>
+      <c r="AC716" s="3"/>
     </row>
     <row r="717">
       <c r="A717" s="3"/>
@@ -22952,6 +23805,7 @@
       <c r="Z717" s="3"/>
       <c r="AA717" s="3"/>
       <c r="AB717" s="3"/>
+      <c r="AC717" s="3"/>
     </row>
     <row r="718">
       <c r="A718" s="3"/>
@@ -22982,6 +23836,7 @@
       <c r="Z718" s="3"/>
       <c r="AA718" s="3"/>
       <c r="AB718" s="3"/>
+      <c r="AC718" s="3"/>
     </row>
     <row r="719">
       <c r="A719" s="3"/>
@@ -23012,6 +23867,7 @@
       <c r="Z719" s="3"/>
       <c r="AA719" s="3"/>
       <c r="AB719" s="3"/>
+      <c r="AC719" s="3"/>
     </row>
     <row r="720">
       <c r="A720" s="3"/>
@@ -23042,6 +23898,7 @@
       <c r="Z720" s="3"/>
       <c r="AA720" s="3"/>
       <c r="AB720" s="3"/>
+      <c r="AC720" s="3"/>
     </row>
     <row r="721">
       <c r="A721" s="3"/>
@@ -23072,6 +23929,7 @@
       <c r="Z721" s="3"/>
       <c r="AA721" s="3"/>
       <c r="AB721" s="3"/>
+      <c r="AC721" s="3"/>
     </row>
     <row r="722">
       <c r="A722" s="3"/>
@@ -23102,6 +23960,7 @@
       <c r="Z722" s="3"/>
       <c r="AA722" s="3"/>
       <c r="AB722" s="3"/>
+      <c r="AC722" s="3"/>
     </row>
     <row r="723">
       <c r="A723" s="3"/>
@@ -23132,6 +23991,7 @@
       <c r="Z723" s="3"/>
       <c r="AA723" s="3"/>
       <c r="AB723" s="3"/>
+      <c r="AC723" s="3"/>
     </row>
     <row r="724">
       <c r="A724" s="3"/>
@@ -23162,6 +24022,7 @@
       <c r="Z724" s="3"/>
       <c r="AA724" s="3"/>
       <c r="AB724" s="3"/>
+      <c r="AC724" s="3"/>
     </row>
     <row r="725">
       <c r="A725" s="3"/>
@@ -23192,6 +24053,7 @@
       <c r="Z725" s="3"/>
       <c r="AA725" s="3"/>
       <c r="AB725" s="3"/>
+      <c r="AC725" s="3"/>
     </row>
     <row r="726">
       <c r="A726" s="3"/>
@@ -23222,6 +24084,7 @@
       <c r="Z726" s="3"/>
       <c r="AA726" s="3"/>
       <c r="AB726" s="3"/>
+      <c r="AC726" s="3"/>
     </row>
     <row r="727">
       <c r="A727" s="3"/>
@@ -23252,6 +24115,7 @@
       <c r="Z727" s="3"/>
       <c r="AA727" s="3"/>
       <c r="AB727" s="3"/>
+      <c r="AC727" s="3"/>
     </row>
     <row r="728">
       <c r="A728" s="3"/>
@@ -23282,6 +24146,7 @@
       <c r="Z728" s="3"/>
       <c r="AA728" s="3"/>
       <c r="AB728" s="3"/>
+      <c r="AC728" s="3"/>
     </row>
     <row r="729">
       <c r="A729" s="3"/>
@@ -23312,6 +24177,7 @@
       <c r="Z729" s="3"/>
       <c r="AA729" s="3"/>
       <c r="AB729" s="3"/>
+      <c r="AC729" s="3"/>
     </row>
     <row r="730">
       <c r="A730" s="3"/>
@@ -23342,6 +24208,7 @@
       <c r="Z730" s="3"/>
       <c r="AA730" s="3"/>
       <c r="AB730" s="3"/>
+      <c r="AC730" s="3"/>
     </row>
     <row r="731">
       <c r="A731" s="3"/>
@@ -23372,6 +24239,7 @@
       <c r="Z731" s="3"/>
       <c r="AA731" s="3"/>
       <c r="AB731" s="3"/>
+      <c r="AC731" s="3"/>
     </row>
     <row r="732">
       <c r="A732" s="3"/>
@@ -23402,6 +24270,7 @@
       <c r="Z732" s="3"/>
       <c r="AA732" s="3"/>
       <c r="AB732" s="3"/>
+      <c r="AC732" s="3"/>
     </row>
     <row r="733">
       <c r="A733" s="3"/>
@@ -23432,6 +24301,7 @@
       <c r="Z733" s="3"/>
       <c r="AA733" s="3"/>
       <c r="AB733" s="3"/>
+      <c r="AC733" s="3"/>
     </row>
     <row r="734">
       <c r="A734" s="3"/>
@@ -23462,6 +24332,7 @@
       <c r="Z734" s="3"/>
       <c r="AA734" s="3"/>
       <c r="AB734" s="3"/>
+      <c r="AC734" s="3"/>
     </row>
     <row r="735">
       <c r="A735" s="3"/>
@@ -23492,6 +24363,7 @@
       <c r="Z735" s="3"/>
       <c r="AA735" s="3"/>
       <c r="AB735" s="3"/>
+      <c r="AC735" s="3"/>
     </row>
     <row r="736">
       <c r="A736" s="3"/>
@@ -23522,6 +24394,7 @@
       <c r="Z736" s="3"/>
       <c r="AA736" s="3"/>
       <c r="AB736" s="3"/>
+      <c r="AC736" s="3"/>
     </row>
     <row r="737">
       <c r="A737" s="3"/>
@@ -23552,6 +24425,7 @@
       <c r="Z737" s="3"/>
       <c r="AA737" s="3"/>
       <c r="AB737" s="3"/>
+      <c r="AC737" s="3"/>
     </row>
     <row r="738">
       <c r="A738" s="3"/>
@@ -23582,6 +24456,7 @@
       <c r="Z738" s="3"/>
       <c r="AA738" s="3"/>
       <c r="AB738" s="3"/>
+      <c r="AC738" s="3"/>
     </row>
     <row r="739">
       <c r="A739" s="3"/>
@@ -23612,6 +24487,7 @@
       <c r="Z739" s="3"/>
       <c r="AA739" s="3"/>
       <c r="AB739" s="3"/>
+      <c r="AC739" s="3"/>
     </row>
     <row r="740">
       <c r="A740" s="3"/>
@@ -23642,6 +24518,7 @@
       <c r="Z740" s="3"/>
       <c r="AA740" s="3"/>
       <c r="AB740" s="3"/>
+      <c r="AC740" s="3"/>
     </row>
     <row r="741">
       <c r="A741" s="3"/>
@@ -23672,6 +24549,7 @@
       <c r="Z741" s="3"/>
       <c r="AA741" s="3"/>
       <c r="AB741" s="3"/>
+      <c r="AC741" s="3"/>
     </row>
     <row r="742">
       <c r="A742" s="3"/>
@@ -23702,6 +24580,7 @@
       <c r="Z742" s="3"/>
       <c r="AA742" s="3"/>
       <c r="AB742" s="3"/>
+      <c r="AC742" s="3"/>
     </row>
     <row r="743">
       <c r="A743" s="3"/>
@@ -23732,6 +24611,7 @@
       <c r="Z743" s="3"/>
       <c r="AA743" s="3"/>
       <c r="AB743" s="3"/>
+      <c r="AC743" s="3"/>
     </row>
     <row r="744">
       <c r="A744" s="3"/>
@@ -23762,6 +24642,7 @@
       <c r="Z744" s="3"/>
       <c r="AA744" s="3"/>
       <c r="AB744" s="3"/>
+      <c r="AC744" s="3"/>
     </row>
     <row r="745">
       <c r="A745" s="3"/>
@@ -23792,6 +24673,7 @@
       <c r="Z745" s="3"/>
       <c r="AA745" s="3"/>
       <c r="AB745" s="3"/>
+      <c r="AC745" s="3"/>
     </row>
     <row r="746">
       <c r="A746" s="3"/>
@@ -23822,6 +24704,7 @@
       <c r="Z746" s="3"/>
       <c r="AA746" s="3"/>
       <c r="AB746" s="3"/>
+      <c r="AC746" s="3"/>
     </row>
     <row r="747">
       <c r="A747" s="3"/>
@@ -23852,6 +24735,7 @@
       <c r="Z747" s="3"/>
       <c r="AA747" s="3"/>
       <c r="AB747" s="3"/>
+      <c r="AC747" s="3"/>
     </row>
     <row r="748">
       <c r="A748" s="3"/>
@@ -23882,6 +24766,7 @@
       <c r="Z748" s="3"/>
       <c r="AA748" s="3"/>
       <c r="AB748" s="3"/>
+      <c r="AC748" s="3"/>
     </row>
     <row r="749">
       <c r="A749" s="3"/>
@@ -23912,6 +24797,7 @@
       <c r="Z749" s="3"/>
       <c r="AA749" s="3"/>
       <c r="AB749" s="3"/>
+      <c r="AC749" s="3"/>
     </row>
     <row r="750">
       <c r="A750" s="3"/>
@@ -23942,6 +24828,7 @@
       <c r="Z750" s="3"/>
       <c r="AA750" s="3"/>
       <c r="AB750" s="3"/>
+      <c r="AC750" s="3"/>
     </row>
     <row r="751">
       <c r="A751" s="3"/>
@@ -23972,6 +24859,7 @@
       <c r="Z751" s="3"/>
       <c r="AA751" s="3"/>
       <c r="AB751" s="3"/>
+      <c r="AC751" s="3"/>
     </row>
     <row r="752">
       <c r="A752" s="3"/>
@@ -24002,6 +24890,7 @@
       <c r="Z752" s="3"/>
       <c r="AA752" s="3"/>
       <c r="AB752" s="3"/>
+      <c r="AC752" s="3"/>
     </row>
     <row r="753">
       <c r="A753" s="3"/>
@@ -24032,6 +24921,7 @@
       <c r="Z753" s="3"/>
       <c r="AA753" s="3"/>
       <c r="AB753" s="3"/>
+      <c r="AC753" s="3"/>
     </row>
     <row r="754">
       <c r="A754" s="3"/>
@@ -24062,6 +24952,7 @@
       <c r="Z754" s="3"/>
       <c r="AA754" s="3"/>
       <c r="AB754" s="3"/>
+      <c r="AC754" s="3"/>
     </row>
     <row r="755">
       <c r="A755" s="3"/>
@@ -24092,6 +24983,7 @@
       <c r="Z755" s="3"/>
       <c r="AA755" s="3"/>
       <c r="AB755" s="3"/>
+      <c r="AC755" s="3"/>
     </row>
     <row r="756">
       <c r="A756" s="3"/>
@@ -24122,6 +25014,7 @@
       <c r="Z756" s="3"/>
       <c r="AA756" s="3"/>
       <c r="AB756" s="3"/>
+      <c r="AC756" s="3"/>
     </row>
     <row r="757">
       <c r="A757" s="3"/>
@@ -24152,6 +25045,7 @@
       <c r="Z757" s="3"/>
       <c r="AA757" s="3"/>
       <c r="AB757" s="3"/>
+      <c r="AC757" s="3"/>
     </row>
     <row r="758">
       <c r="A758" s="3"/>
@@ -24182,6 +25076,7 @@
       <c r="Z758" s="3"/>
       <c r="AA758" s="3"/>
       <c r="AB758" s="3"/>
+      <c r="AC758" s="3"/>
     </row>
     <row r="759">
       <c r="A759" s="3"/>
@@ -24212,6 +25107,7 @@
       <c r="Z759" s="3"/>
       <c r="AA759" s="3"/>
       <c r="AB759" s="3"/>
+      <c r="AC759" s="3"/>
     </row>
     <row r="760">
       <c r="A760" s="3"/>
@@ -24242,6 +25138,7 @@
       <c r="Z760" s="3"/>
       <c r="AA760" s="3"/>
       <c r="AB760" s="3"/>
+      <c r="AC760" s="3"/>
     </row>
     <row r="761">
       <c r="A761" s="3"/>
@@ -24272,6 +25169,7 @@
       <c r="Z761" s="3"/>
       <c r="AA761" s="3"/>
       <c r="AB761" s="3"/>
+      <c r="AC761" s="3"/>
     </row>
     <row r="762">
       <c r="A762" s="3"/>
@@ -24302,6 +25200,7 @@
       <c r="Z762" s="3"/>
       <c r="AA762" s="3"/>
       <c r="AB762" s="3"/>
+      <c r="AC762" s="3"/>
     </row>
     <row r="763">
       <c r="A763" s="3"/>
@@ -24332,6 +25231,7 @@
       <c r="Z763" s="3"/>
       <c r="AA763" s="3"/>
       <c r="AB763" s="3"/>
+      <c r="AC763" s="3"/>
     </row>
     <row r="764">
       <c r="A764" s="3"/>
@@ -24362,6 +25262,7 @@
       <c r="Z764" s="3"/>
       <c r="AA764" s="3"/>
       <c r="AB764" s="3"/>
+      <c r="AC764" s="3"/>
     </row>
     <row r="765">
       <c r="A765" s="3"/>
@@ -24392,6 +25293,7 @@
       <c r="Z765" s="3"/>
       <c r="AA765" s="3"/>
       <c r="AB765" s="3"/>
+      <c r="AC765" s="3"/>
     </row>
     <row r="766">
       <c r="A766" s="3"/>
@@ -24422,6 +25324,7 @@
       <c r="Z766" s="3"/>
       <c r="AA766" s="3"/>
       <c r="AB766" s="3"/>
+      <c r="AC766" s="3"/>
     </row>
     <row r="767">
       <c r="A767" s="3"/>
@@ -24452,6 +25355,7 @@
       <c r="Z767" s="3"/>
       <c r="AA767" s="3"/>
       <c r="AB767" s="3"/>
+      <c r="AC767" s="3"/>
     </row>
     <row r="768">
       <c r="A768" s="3"/>
@@ -24482,6 +25386,7 @@
       <c r="Z768" s="3"/>
       <c r="AA768" s="3"/>
       <c r="AB768" s="3"/>
+      <c r="AC768" s="3"/>
     </row>
     <row r="769">
       <c r="A769" s="3"/>
@@ -24512,6 +25417,7 @@
       <c r="Z769" s="3"/>
       <c r="AA769" s="3"/>
       <c r="AB769" s="3"/>
+      <c r="AC769" s="3"/>
     </row>
     <row r="770">
       <c r="A770" s="3"/>
@@ -24542,6 +25448,7 @@
       <c r="Z770" s="3"/>
       <c r="AA770" s="3"/>
       <c r="AB770" s="3"/>
+      <c r="AC770" s="3"/>
     </row>
     <row r="771">
       <c r="A771" s="3"/>
@@ -24572,6 +25479,7 @@
       <c r="Z771" s="3"/>
       <c r="AA771" s="3"/>
       <c r="AB771" s="3"/>
+      <c r="AC771" s="3"/>
     </row>
     <row r="772">
       <c r="A772" s="3"/>
@@ -24602,6 +25510,7 @@
       <c r="Z772" s="3"/>
       <c r="AA772" s="3"/>
       <c r="AB772" s="3"/>
+      <c r="AC772" s="3"/>
     </row>
     <row r="773">
       <c r="A773" s="3"/>
@@ -24632,6 +25541,7 @@
       <c r="Z773" s="3"/>
       <c r="AA773" s="3"/>
       <c r="AB773" s="3"/>
+      <c r="AC773" s="3"/>
     </row>
     <row r="774">
       <c r="A774" s="3"/>
@@ -24662,6 +25572,7 @@
       <c r="Z774" s="3"/>
       <c r="AA774" s="3"/>
       <c r="AB774" s="3"/>
+      <c r="AC774" s="3"/>
     </row>
     <row r="775">
       <c r="A775" s="3"/>
@@ -24692,6 +25603,7 @@
       <c r="Z775" s="3"/>
       <c r="AA775" s="3"/>
       <c r="AB775" s="3"/>
+      <c r="AC775" s="3"/>
     </row>
     <row r="776">
       <c r="A776" s="3"/>
@@ -24722,6 +25634,7 @@
       <c r="Z776" s="3"/>
       <c r="AA776" s="3"/>
       <c r="AB776" s="3"/>
+      <c r="AC776" s="3"/>
     </row>
     <row r="777">
       <c r="A777" s="3"/>
@@ -24752,6 +25665,7 @@
       <c r="Z777" s="3"/>
       <c r="AA777" s="3"/>
       <c r="AB777" s="3"/>
+      <c r="AC777" s="3"/>
     </row>
     <row r="778">
       <c r="A778" s="3"/>
@@ -24782,6 +25696,7 @@
       <c r="Z778" s="3"/>
       <c r="AA778" s="3"/>
       <c r="AB778" s="3"/>
+      <c r="AC778" s="3"/>
     </row>
     <row r="779">
       <c r="A779" s="3"/>
@@ -24812,6 +25727,7 @@
       <c r="Z779" s="3"/>
       <c r="AA779" s="3"/>
       <c r="AB779" s="3"/>
+      <c r="AC779" s="3"/>
     </row>
     <row r="780">
       <c r="A780" s="3"/>
@@ -24842,6 +25758,7 @@
       <c r="Z780" s="3"/>
       <c r="AA780" s="3"/>
       <c r="AB780" s="3"/>
+      <c r="AC780" s="3"/>
     </row>
     <row r="781">
       <c r="A781" s="3"/>
@@ -24872,6 +25789,7 @@
       <c r="Z781" s="3"/>
       <c r="AA781" s="3"/>
       <c r="AB781" s="3"/>
+      <c r="AC781" s="3"/>
     </row>
     <row r="782">
       <c r="A782" s="3"/>
@@ -24902,6 +25820,7 @@
       <c r="Z782" s="3"/>
       <c r="AA782" s="3"/>
       <c r="AB782" s="3"/>
+      <c r="AC782" s="3"/>
     </row>
     <row r="783">
       <c r="A783" s="3"/>
@@ -24932,6 +25851,7 @@
       <c r="Z783" s="3"/>
       <c r="AA783" s="3"/>
       <c r="AB783" s="3"/>
+      <c r="AC783" s="3"/>
     </row>
     <row r="784">
       <c r="A784" s="3"/>
@@ -24962,6 +25882,7 @@
       <c r="Z784" s="3"/>
       <c r="AA784" s="3"/>
       <c r="AB784" s="3"/>
+      <c r="AC784" s="3"/>
     </row>
     <row r="785">
       <c r="A785" s="3"/>
@@ -24992,6 +25913,7 @@
       <c r="Z785" s="3"/>
       <c r="AA785" s="3"/>
       <c r="AB785" s="3"/>
+      <c r="AC785" s="3"/>
     </row>
     <row r="786">
       <c r="A786" s="3"/>
@@ -25022,6 +25944,7 @@
       <c r="Z786" s="3"/>
       <c r="AA786" s="3"/>
       <c r="AB786" s="3"/>
+      <c r="AC786" s="3"/>
     </row>
     <row r="787">
       <c r="A787" s="3"/>
@@ -25052,6 +25975,7 @@
       <c r="Z787" s="3"/>
       <c r="AA787" s="3"/>
       <c r="AB787" s="3"/>
+      <c r="AC787" s="3"/>
     </row>
     <row r="788">
       <c r="A788" s="3"/>
@@ -25082,6 +26006,7 @@
       <c r="Z788" s="3"/>
       <c r="AA788" s="3"/>
       <c r="AB788" s="3"/>
+      <c r="AC788" s="3"/>
     </row>
     <row r="789">
       <c r="A789" s="3"/>
@@ -25112,6 +26037,7 @@
       <c r="Z789" s="3"/>
       <c r="AA789" s="3"/>
       <c r="AB789" s="3"/>
+      <c r="AC789" s="3"/>
     </row>
     <row r="790">
       <c r="A790" s="3"/>
@@ -25142,6 +26068,7 @@
       <c r="Z790" s="3"/>
       <c r="AA790" s="3"/>
       <c r="AB790" s="3"/>
+      <c r="AC790" s="3"/>
     </row>
     <row r="791">
       <c r="A791" s="3"/>
@@ -25172,6 +26099,7 @@
       <c r="Z791" s="3"/>
       <c r="AA791" s="3"/>
       <c r="AB791" s="3"/>
+      <c r="AC791" s="3"/>
     </row>
     <row r="792">
       <c r="A792" s="3"/>
@@ -25202,6 +26130,7 @@
       <c r="Z792" s="3"/>
       <c r="AA792" s="3"/>
       <c r="AB792" s="3"/>
+      <c r="AC792" s="3"/>
     </row>
     <row r="793">
       <c r="A793" s="3"/>
@@ -25232,6 +26161,7 @@
       <c r="Z793" s="3"/>
       <c r="AA793" s="3"/>
       <c r="AB793" s="3"/>
+      <c r="AC793" s="3"/>
     </row>
     <row r="794">
       <c r="A794" s="3"/>
@@ -25262,6 +26192,7 @@
       <c r="Z794" s="3"/>
       <c r="AA794" s="3"/>
       <c r="AB794" s="3"/>
+      <c r="AC794" s="3"/>
     </row>
     <row r="795">
       <c r="A795" s="3"/>
@@ -25292,6 +26223,7 @@
       <c r="Z795" s="3"/>
       <c r="AA795" s="3"/>
       <c r="AB795" s="3"/>
+      <c r="AC795" s="3"/>
     </row>
     <row r="796">
       <c r="A796" s="3"/>
@@ -25322,6 +26254,7 @@
       <c r="Z796" s="3"/>
       <c r="AA796" s="3"/>
       <c r="AB796" s="3"/>
+      <c r="AC796" s="3"/>
     </row>
     <row r="797">
       <c r="A797" s="3"/>
@@ -25352,6 +26285,7 @@
       <c r="Z797" s="3"/>
       <c r="AA797" s="3"/>
       <c r="AB797" s="3"/>
+      <c r="AC797" s="3"/>
     </row>
     <row r="798">
       <c r="A798" s="3"/>
@@ -25382,6 +26316,7 @@
       <c r="Z798" s="3"/>
       <c r="AA798" s="3"/>
       <c r="AB798" s="3"/>
+      <c r="AC798" s="3"/>
     </row>
     <row r="799">
       <c r="A799" s="3"/>
@@ -25412,6 +26347,7 @@
       <c r="Z799" s="3"/>
       <c r="AA799" s="3"/>
       <c r="AB799" s="3"/>
+      <c r="AC799" s="3"/>
     </row>
     <row r="800">
       <c r="A800" s="3"/>
@@ -25442,6 +26378,7 @@
       <c r="Z800" s="3"/>
       <c r="AA800" s="3"/>
       <c r="AB800" s="3"/>
+      <c r="AC800" s="3"/>
     </row>
     <row r="801">
       <c r="A801" s="3"/>
@@ -25472,6 +26409,7 @@
       <c r="Z801" s="3"/>
       <c r="AA801" s="3"/>
       <c r="AB801" s="3"/>
+      <c r="AC801" s="3"/>
     </row>
     <row r="802">
       <c r="A802" s="3"/>
@@ -25502,6 +26440,7 @@
       <c r="Z802" s="3"/>
       <c r="AA802" s="3"/>
       <c r="AB802" s="3"/>
+      <c r="AC802" s="3"/>
     </row>
     <row r="803">
       <c r="A803" s="3"/>
@@ -25532,6 +26471,7 @@
       <c r="Z803" s="3"/>
       <c r="AA803" s="3"/>
       <c r="AB803" s="3"/>
+      <c r="AC803" s="3"/>
     </row>
     <row r="804">
       <c r="A804" s="3"/>
@@ -25562,6 +26502,7 @@
       <c r="Z804" s="3"/>
       <c r="AA804" s="3"/>
       <c r="AB804" s="3"/>
+      <c r="AC804" s="3"/>
     </row>
     <row r="805">
       <c r="A805" s="3"/>
@@ -25592,6 +26533,7 @@
       <c r="Z805" s="3"/>
       <c r="AA805" s="3"/>
       <c r="AB805" s="3"/>
+      <c r="AC805" s="3"/>
     </row>
     <row r="806">
       <c r="A806" s="3"/>
@@ -25622,6 +26564,7 @@
       <c r="Z806" s="3"/>
       <c r="AA806" s="3"/>
       <c r="AB806" s="3"/>
+      <c r="AC806" s="3"/>
     </row>
     <row r="807">
       <c r="A807" s="3"/>
@@ -25652,6 +26595,7 @@
       <c r="Z807" s="3"/>
       <c r="AA807" s="3"/>
       <c r="AB807" s="3"/>
+      <c r="AC807" s="3"/>
     </row>
     <row r="808">
       <c r="A808" s="3"/>
@@ -25682,6 +26626,7 @@
       <c r="Z808" s="3"/>
       <c r="AA808" s="3"/>
       <c r="AB808" s="3"/>
+      <c r="AC808" s="3"/>
     </row>
     <row r="809">
       <c r="A809" s="3"/>
@@ -25712,6 +26657,7 @@
       <c r="Z809" s="3"/>
       <c r="AA809" s="3"/>
       <c r="AB809" s="3"/>
+      <c r="AC809" s="3"/>
     </row>
     <row r="810">
       <c r="A810" s="3"/>
@@ -25742,6 +26688,7 @@
       <c r="Z810" s="3"/>
       <c r="AA810" s="3"/>
       <c r="AB810" s="3"/>
+      <c r="AC810" s="3"/>
     </row>
     <row r="811">
       <c r="A811" s="3"/>
@@ -25772,6 +26719,7 @@
       <c r="Z811" s="3"/>
       <c r="AA811" s="3"/>
       <c r="AB811" s="3"/>
+      <c r="AC811" s="3"/>
     </row>
     <row r="812">
       <c r="A812" s="3"/>
@@ -25802,6 +26750,7 @@
       <c r="Z812" s="3"/>
       <c r="AA812" s="3"/>
       <c r="AB812" s="3"/>
+      <c r="AC812" s="3"/>
     </row>
     <row r="813">
       <c r="A813" s="3"/>
@@ -25832,6 +26781,7 @@
       <c r="Z813" s="3"/>
       <c r="AA813" s="3"/>
       <c r="AB813" s="3"/>
+      <c r="AC813" s="3"/>
     </row>
     <row r="814">
       <c r="A814" s="3"/>
@@ -25862,6 +26812,7 @@
       <c r="Z814" s="3"/>
       <c r="AA814" s="3"/>
       <c r="AB814" s="3"/>
+      <c r="AC814" s="3"/>
     </row>
     <row r="815">
       <c r="A815" s="3"/>
@@ -25892,6 +26843,7 @@
       <c r="Z815" s="3"/>
       <c r="AA815" s="3"/>
       <c r="AB815" s="3"/>
+      <c r="AC815" s="3"/>
     </row>
     <row r="816">
       <c r="A816" s="3"/>
@@ -25922,6 +26874,7 @@
       <c r="Z816" s="3"/>
       <c r="AA816" s="3"/>
       <c r="AB816" s="3"/>
+      <c r="AC816" s="3"/>
     </row>
     <row r="817">
       <c r="A817" s="3"/>
@@ -25952,6 +26905,7 @@
       <c r="Z817" s="3"/>
       <c r="AA817" s="3"/>
       <c r="AB817" s="3"/>
+      <c r="AC817" s="3"/>
     </row>
     <row r="818">
       <c r="A818" s="3"/>
@@ -25982,6 +26936,7 @@
       <c r="Z818" s="3"/>
       <c r="AA818" s="3"/>
       <c r="AB818" s="3"/>
+      <c r="AC818" s="3"/>
     </row>
     <row r="819">
       <c r="A819" s="3"/>
@@ -26012,6 +26967,7 @@
       <c r="Z819" s="3"/>
       <c r="AA819" s="3"/>
       <c r="AB819" s="3"/>
+      <c r="AC819" s="3"/>
     </row>
     <row r="820">
       <c r="A820" s="3"/>
@@ -26042,6 +26998,7 @@
       <c r="Z820" s="3"/>
       <c r="AA820" s="3"/>
       <c r="AB820" s="3"/>
+      <c r="AC820" s="3"/>
     </row>
     <row r="821">
       <c r="A821" s="3"/>
@@ -26072,6 +27029,7 @@
       <c r="Z821" s="3"/>
       <c r="AA821" s="3"/>
       <c r="AB821" s="3"/>
+      <c r="AC821" s="3"/>
     </row>
     <row r="822">
       <c r="A822" s="3"/>
@@ -26102,6 +27060,7 @@
       <c r="Z822" s="3"/>
       <c r="AA822" s="3"/>
       <c r="AB822" s="3"/>
+      <c r="AC822" s="3"/>
     </row>
     <row r="823">
       <c r="A823" s="3"/>
@@ -26132,6 +27091,7 @@
       <c r="Z823" s="3"/>
       <c r="AA823" s="3"/>
       <c r="AB823" s="3"/>
+      <c r="AC823" s="3"/>
     </row>
     <row r="824">
       <c r="A824" s="3"/>
@@ -26162,6 +27122,7 @@
       <c r="Z824" s="3"/>
       <c r="AA824" s="3"/>
       <c r="AB824" s="3"/>
+      <c r="AC824" s="3"/>
     </row>
     <row r="825">
       <c r="A825" s="3"/>
@@ -26192,6 +27153,7 @@
       <c r="Z825" s="3"/>
       <c r="AA825" s="3"/>
       <c r="AB825" s="3"/>
+      <c r="AC825" s="3"/>
     </row>
     <row r="826">
       <c r="A826" s="3"/>
@@ -26222,6 +27184,7 @@
       <c r="Z826" s="3"/>
       <c r="AA826" s="3"/>
       <c r="AB826" s="3"/>
+      <c r="AC826" s="3"/>
     </row>
     <row r="827">
       <c r="A827" s="3"/>
@@ -26252,6 +27215,7 @@
       <c r="Z827" s="3"/>
       <c r="AA827" s="3"/>
       <c r="AB827" s="3"/>
+      <c r="AC827" s="3"/>
     </row>
     <row r="828">
       <c r="A828" s="3"/>
@@ -26282,6 +27246,7 @@
       <c r="Z828" s="3"/>
       <c r="AA828" s="3"/>
       <c r="AB828" s="3"/>
+      <c r="AC828" s="3"/>
     </row>
     <row r="829">
       <c r="A829" s="3"/>
@@ -26312,6 +27277,7 @@
       <c r="Z829" s="3"/>
       <c r="AA829" s="3"/>
       <c r="AB829" s="3"/>
+      <c r="AC829" s="3"/>
     </row>
     <row r="830">
       <c r="A830" s="3"/>
@@ -26342,6 +27308,7 @@
       <c r="Z830" s="3"/>
       <c r="AA830" s="3"/>
       <c r="AB830" s="3"/>
+      <c r="AC830" s="3"/>
     </row>
     <row r="831">
       <c r="A831" s="3"/>
@@ -26372,6 +27339,7 @@
       <c r="Z831" s="3"/>
       <c r="AA831" s="3"/>
       <c r="AB831" s="3"/>
+      <c r="AC831" s="3"/>
     </row>
     <row r="832">
       <c r="A832" s="3"/>
@@ -26402,6 +27370,7 @@
       <c r="Z832" s="3"/>
       <c r="AA832" s="3"/>
       <c r="AB832" s="3"/>
+      <c r="AC832" s="3"/>
     </row>
     <row r="833">
       <c r="A833" s="3"/>
@@ -26432,6 +27401,7 @@
       <c r="Z833" s="3"/>
       <c r="AA833" s="3"/>
       <c r="AB833" s="3"/>
+      <c r="AC833" s="3"/>
     </row>
     <row r="834">
       <c r="A834" s="3"/>
@@ -26462,6 +27432,7 @@
       <c r="Z834" s="3"/>
       <c r="AA834" s="3"/>
       <c r="AB834" s="3"/>
+      <c r="AC834" s="3"/>
     </row>
     <row r="835">
       <c r="A835" s="3"/>
@@ -26492,6 +27463,7 @@
       <c r="Z835" s="3"/>
       <c r="AA835" s="3"/>
       <c r="AB835" s="3"/>
+      <c r="AC835" s="3"/>
     </row>
     <row r="836">
       <c r="A836" s="3"/>
@@ -26522,6 +27494,7 @@
       <c r="Z836" s="3"/>
       <c r="AA836" s="3"/>
       <c r="AB836" s="3"/>
+      <c r="AC836" s="3"/>
     </row>
     <row r="837">
       <c r="A837" s="3"/>
@@ -26552,6 +27525,7 @@
       <c r="Z837" s="3"/>
       <c r="AA837" s="3"/>
       <c r="AB837" s="3"/>
+      <c r="AC837" s="3"/>
     </row>
     <row r="838">
       <c r="A838" s="3"/>
@@ -26582,6 +27556,7 @@
       <c r="Z838" s="3"/>
       <c r="AA838" s="3"/>
       <c r="AB838" s="3"/>
+      <c r="AC838" s="3"/>
     </row>
     <row r="839">
       <c r="A839" s="3"/>
@@ -26612,6 +27587,7 @@
       <c r="Z839" s="3"/>
       <c r="AA839" s="3"/>
       <c r="AB839" s="3"/>
+      <c r="AC839" s="3"/>
     </row>
     <row r="840">
       <c r="A840" s="3"/>
@@ -26642,6 +27618,7 @@
       <c r="Z840" s="3"/>
       <c r="AA840" s="3"/>
       <c r="AB840" s="3"/>
+      <c r="AC840" s="3"/>
     </row>
     <row r="841">
       <c r="A841" s="3"/>
@@ -26672,6 +27649,7 @@
       <c r="Z841" s="3"/>
       <c r="AA841" s="3"/>
       <c r="AB841" s="3"/>
+      <c r="AC841" s="3"/>
     </row>
     <row r="842">
       <c r="A842" s="3"/>
@@ -26702,6 +27680,7 @@
       <c r="Z842" s="3"/>
       <c r="AA842" s="3"/>
       <c r="AB842" s="3"/>
+      <c r="AC842" s="3"/>
     </row>
     <row r="843">
       <c r="A843" s="3"/>
@@ -26732,6 +27711,7 @@
       <c r="Z843" s="3"/>
       <c r="AA843" s="3"/>
       <c r="AB843" s="3"/>
+      <c r="AC843" s="3"/>
     </row>
     <row r="844">
       <c r="A844" s="3"/>
@@ -26762,6 +27742,7 @@
       <c r="Z844" s="3"/>
       <c r="AA844" s="3"/>
       <c r="AB844" s="3"/>
+      <c r="AC844" s="3"/>
     </row>
     <row r="845">
       <c r="A845" s="3"/>
@@ -26792,6 +27773,7 @@
       <c r="Z845" s="3"/>
       <c r="AA845" s="3"/>
       <c r="AB845" s="3"/>
+      <c r="AC845" s="3"/>
     </row>
     <row r="846">
       <c r="A846" s="3"/>
@@ -26822,6 +27804,7 @@
       <c r="Z846" s="3"/>
       <c r="AA846" s="3"/>
       <c r="AB846" s="3"/>
+      <c r="AC846" s="3"/>
     </row>
     <row r="847">
       <c r="A847" s="3"/>
@@ -26852,6 +27835,7 @@
       <c r="Z847" s="3"/>
       <c r="AA847" s="3"/>
       <c r="AB847" s="3"/>
+      <c r="AC847" s="3"/>
     </row>
     <row r="848">
       <c r="A848" s="3"/>
@@ -26882,6 +27866,7 @@
       <c r="Z848" s="3"/>
       <c r="AA848" s="3"/>
       <c r="AB848" s="3"/>
+      <c r="AC848" s="3"/>
     </row>
     <row r="849">
       <c r="A849" s="3"/>
@@ -26912,6 +27897,7 @@
       <c r="Z849" s="3"/>
       <c r="AA849" s="3"/>
       <c r="AB849" s="3"/>
+      <c r="AC849" s="3"/>
     </row>
     <row r="850">
       <c r="A850" s="3"/>
@@ -26942,6 +27928,7 @@
       <c r="Z850" s="3"/>
       <c r="AA850" s="3"/>
       <c r="AB850" s="3"/>
+      <c r="AC850" s="3"/>
     </row>
     <row r="851">
       <c r="A851" s="3"/>
@@ -26972,6 +27959,7 @@
       <c r="Z851" s="3"/>
       <c r="AA851" s="3"/>
       <c r="AB851" s="3"/>
+      <c r="AC851" s="3"/>
     </row>
     <row r="852">
       <c r="A852" s="3"/>
@@ -27002,6 +27990,7 @@
       <c r="Z852" s="3"/>
       <c r="AA852" s="3"/>
       <c r="AB852" s="3"/>
+      <c r="AC852" s="3"/>
     </row>
     <row r="853">
       <c r="A853" s="3"/>
@@ -27032,6 +28021,7 @@
       <c r="Z853" s="3"/>
       <c r="AA853" s="3"/>
       <c r="AB853" s="3"/>
+      <c r="AC853" s="3"/>
     </row>
     <row r="854">
       <c r="A854" s="3"/>
@@ -27062,6 +28052,7 @@
       <c r="Z854" s="3"/>
       <c r="AA854" s="3"/>
       <c r="AB854" s="3"/>
+      <c r="AC854" s="3"/>
     </row>
     <row r="855">
       <c r="A855" s="3"/>
@@ -27092,6 +28083,7 @@
       <c r="Z855" s="3"/>
       <c r="AA855" s="3"/>
       <c r="AB855" s="3"/>
+      <c r="AC855" s="3"/>
     </row>
     <row r="856">
       <c r="A856" s="3"/>
@@ -27122,6 +28114,7 @@
       <c r="Z856" s="3"/>
       <c r="AA856" s="3"/>
       <c r="AB856" s="3"/>
+      <c r="AC856" s="3"/>
     </row>
     <row r="857">
       <c r="A857" s="3"/>
@@ -27152,6 +28145,7 @@
       <c r="Z857" s="3"/>
       <c r="AA857" s="3"/>
       <c r="AB857" s="3"/>
+      <c r="AC857" s="3"/>
     </row>
     <row r="858">
       <c r="A858" s="3"/>
@@ -27182,6 +28176,7 @@
       <c r="Z858" s="3"/>
       <c r="AA858" s="3"/>
       <c r="AB858" s="3"/>
+      <c r="AC858" s="3"/>
     </row>
     <row r="859">
       <c r="A859" s="3"/>
@@ -27212,6 +28207,7 @@
       <c r="Z859" s="3"/>
       <c r="AA859" s="3"/>
       <c r="AB859" s="3"/>
+      <c r="AC859" s="3"/>
     </row>
     <row r="860">
       <c r="A860" s="3"/>
@@ -27242,6 +28238,7 @@
       <c r="Z860" s="3"/>
       <c r="AA860" s="3"/>
       <c r="AB860" s="3"/>
+      <c r="AC860" s="3"/>
     </row>
     <row r="861">
       <c r="A861" s="3"/>
@@ -27272,6 +28269,7 @@
       <c r="Z861" s="3"/>
       <c r="AA861" s="3"/>
       <c r="AB861" s="3"/>
+      <c r="AC861" s="3"/>
     </row>
     <row r="862">
       <c r="A862" s="3"/>
@@ -27302,6 +28300,7 @@
       <c r="Z862" s="3"/>
       <c r="AA862" s="3"/>
       <c r="AB862" s="3"/>
+      <c r="AC862" s="3"/>
     </row>
     <row r="863">
       <c r="A863" s="3"/>
@@ -27332,6 +28331,7 @@
       <c r="Z863" s="3"/>
       <c r="AA863" s="3"/>
       <c r="AB863" s="3"/>
+      <c r="AC863" s="3"/>
     </row>
     <row r="864">
       <c r="A864" s="3"/>
@@ -27362,6 +28362,7 @@
       <c r="Z864" s="3"/>
       <c r="AA864" s="3"/>
       <c r="AB864" s="3"/>
+      <c r="AC864" s="3"/>
     </row>
     <row r="865">
       <c r="A865" s="3"/>
@@ -27392,6 +28393,7 @@
       <c r="Z865" s="3"/>
       <c r="AA865" s="3"/>
       <c r="AB865" s="3"/>
+      <c r="AC865" s="3"/>
     </row>
     <row r="866">
       <c r="A866" s="3"/>
@@ -27422,6 +28424,7 @@
       <c r="Z866" s="3"/>
       <c r="AA866" s="3"/>
       <c r="AB866" s="3"/>
+      <c r="AC866" s="3"/>
     </row>
     <row r="867">
       <c r="A867" s="3"/>
@@ -27452,6 +28455,7 @@
       <c r="Z867" s="3"/>
       <c r="AA867" s="3"/>
       <c r="AB867" s="3"/>
+      <c r="AC867" s="3"/>
     </row>
     <row r="868">
       <c r="A868" s="3"/>
@@ -27482,6 +28486,7 @@
       <c r="Z868" s="3"/>
       <c r="AA868" s="3"/>
       <c r="AB868" s="3"/>
+      <c r="AC868" s="3"/>
     </row>
     <row r="869">
       <c r="A869" s="3"/>
@@ -27512,6 +28517,7 @@
       <c r="Z869" s="3"/>
       <c r="AA869" s="3"/>
       <c r="AB869" s="3"/>
+      <c r="AC869" s="3"/>
     </row>
     <row r="870">
       <c r="A870" s="3"/>
@@ -27542,6 +28548,7 @@
       <c r="Z870" s="3"/>
       <c r="AA870" s="3"/>
       <c r="AB870" s="3"/>
+      <c r="AC870" s="3"/>
     </row>
     <row r="871">
       <c r="A871" s="3"/>
@@ -27572,6 +28579,7 @@
       <c r="Z871" s="3"/>
       <c r="AA871" s="3"/>
       <c r="AB871" s="3"/>
+      <c r="AC871" s="3"/>
     </row>
     <row r="872">
       <c r="A872" s="3"/>
@@ -27602,6 +28610,7 @@
       <c r="Z872" s="3"/>
       <c r="AA872" s="3"/>
       <c r="AB872" s="3"/>
+      <c r="AC872" s="3"/>
     </row>
     <row r="873">
       <c r="A873" s="3"/>
@@ -27632,6 +28641,7 @@
       <c r="Z873" s="3"/>
       <c r="AA873" s="3"/>
       <c r="AB873" s="3"/>
+      <c r="AC873" s="3"/>
     </row>
     <row r="874">
       <c r="A874" s="3"/>
@@ -27662,6 +28672,7 @@
       <c r="Z874" s="3"/>
       <c r="AA874" s="3"/>
       <c r="AB874" s="3"/>
+      <c r="AC874" s="3"/>
     </row>
     <row r="875">
       <c r="A875" s="3"/>
@@ -27692,6 +28703,7 @@
       <c r="Z875" s="3"/>
       <c r="AA875" s="3"/>
       <c r="AB875" s="3"/>
+      <c r="AC875" s="3"/>
     </row>
     <row r="876">
       <c r="A876" s="3"/>
@@ -27722,6 +28734,7 @@
       <c r="Z876" s="3"/>
       <c r="AA876" s="3"/>
       <c r="AB876" s="3"/>
+      <c r="AC876" s="3"/>
     </row>
     <row r="877">
       <c r="A877" s="3"/>
@@ -27752,6 +28765,7 @@
       <c r="Z877" s="3"/>
       <c r="AA877" s="3"/>
       <c r="AB877" s="3"/>
+      <c r="AC877" s="3"/>
     </row>
     <row r="878">
       <c r="A878" s="3"/>
@@ -27782,6 +28796,7 @@
       <c r="Z878" s="3"/>
       <c r="AA878" s="3"/>
       <c r="AB878" s="3"/>
+      <c r="AC878" s="3"/>
     </row>
     <row r="879">
       <c r="A879" s="3"/>
@@ -27812,6 +28827,7 @@
       <c r="Z879" s="3"/>
       <c r="AA879" s="3"/>
       <c r="AB879" s="3"/>
+      <c r="AC879" s="3"/>
     </row>
     <row r="880">
       <c r="A880" s="3"/>
@@ -27842,6 +28858,7 @@
       <c r="Z880" s="3"/>
       <c r="AA880" s="3"/>
       <c r="AB880" s="3"/>
+      <c r="AC880" s="3"/>
     </row>
     <row r="881">
       <c r="A881" s="3"/>
@@ -27872,6 +28889,7 @@
       <c r="Z881" s="3"/>
       <c r="AA881" s="3"/>
       <c r="AB881" s="3"/>
+      <c r="AC881" s="3"/>
     </row>
     <row r="882">
       <c r="A882" s="3"/>
@@ -27902,6 +28920,7 @@
       <c r="Z882" s="3"/>
       <c r="AA882" s="3"/>
       <c r="AB882" s="3"/>
+      <c r="AC882" s="3"/>
     </row>
     <row r="883">
       <c r="A883" s="3"/>
@@ -27932,6 +28951,7 @@
       <c r="Z883" s="3"/>
       <c r="AA883" s="3"/>
       <c r="AB883" s="3"/>
+      <c r="AC883" s="3"/>
     </row>
     <row r="884">
       <c r="A884" s="3"/>
@@ -27962,6 +28982,7 @@
       <c r="Z884" s="3"/>
       <c r="AA884" s="3"/>
       <c r="AB884" s="3"/>
+      <c r="AC884" s="3"/>
     </row>
     <row r="885">
       <c r="A885" s="3"/>
@@ -27992,6 +29013,7 @@
       <c r="Z885" s="3"/>
       <c r="AA885" s="3"/>
       <c r="AB885" s="3"/>
+      <c r="AC885" s="3"/>
     </row>
     <row r="886">
       <c r="A886" s="3"/>
@@ -28022,6 +29044,7 @@
       <c r="Z886" s="3"/>
       <c r="AA886" s="3"/>
       <c r="AB886" s="3"/>
+      <c r="AC886" s="3"/>
     </row>
     <row r="887">
       <c r="A887" s="3"/>
@@ -28052,6 +29075,7 @@
       <c r="Z887" s="3"/>
       <c r="AA887" s="3"/>
       <c r="AB887" s="3"/>
+      <c r="AC887" s="3"/>
     </row>
     <row r="888">
       <c r="A888" s="3"/>
@@ -28082,6 +29106,7 @@
       <c r="Z888" s="3"/>
       <c r="AA888" s="3"/>
       <c r="AB888" s="3"/>
+      <c r="AC888" s="3"/>
     </row>
     <row r="889">
       <c r="A889" s="3"/>
@@ -28112,6 +29137,7 @@
       <c r="Z889" s="3"/>
       <c r="AA889" s="3"/>
       <c r="AB889" s="3"/>
+      <c r="AC889" s="3"/>
     </row>
     <row r="890">
       <c r="A890" s="3"/>
@@ -28142,6 +29168,7 @@
       <c r="Z890" s="3"/>
       <c r="AA890" s="3"/>
       <c r="AB890" s="3"/>
+      <c r="AC890" s="3"/>
     </row>
     <row r="891">
       <c r="A891" s="3"/>
@@ -28172,6 +29199,7 @@
       <c r="Z891" s="3"/>
       <c r="AA891" s="3"/>
       <c r="AB891" s="3"/>
+      <c r="AC891" s="3"/>
     </row>
     <row r="892">
       <c r="A892" s="3"/>
@@ -28202,6 +29230,7 @@
       <c r="Z892" s="3"/>
       <c r="AA892" s="3"/>
       <c r="AB892" s="3"/>
+      <c r="AC892" s="3"/>
     </row>
     <row r="893">
       <c r="A893" s="3"/>
@@ -28232,6 +29261,7 @@
       <c r="Z893" s="3"/>
       <c r="AA893" s="3"/>
       <c r="AB893" s="3"/>
+      <c r="AC893" s="3"/>
     </row>
     <row r="894">
       <c r="A894" s="3"/>
@@ -28262,6 +29292,7 @@
       <c r="Z894" s="3"/>
       <c r="AA894" s="3"/>
       <c r="AB894" s="3"/>
+      <c r="AC894" s="3"/>
     </row>
     <row r="895">
       <c r="A895" s="3"/>
@@ -28292,6 +29323,7 @@
       <c r="Z895" s="3"/>
       <c r="AA895" s="3"/>
       <c r="AB895" s="3"/>
+      <c r="AC895" s="3"/>
     </row>
     <row r="896">
       <c r="A896" s="3"/>
@@ -28322,6 +29354,7 @@
       <c r="Z896" s="3"/>
       <c r="AA896" s="3"/>
       <c r="AB896" s="3"/>
+      <c r="AC896" s="3"/>
     </row>
     <row r="897">
       <c r="A897" s="3"/>
@@ -28352,6 +29385,7 @@
       <c r="Z897" s="3"/>
       <c r="AA897" s="3"/>
       <c r="AB897" s="3"/>
+      <c r="AC897" s="3"/>
     </row>
     <row r="898">
       <c r="A898" s="3"/>
@@ -28382,6 +29416,7 @@
       <c r="Z898" s="3"/>
       <c r="AA898" s="3"/>
       <c r="AB898" s="3"/>
+      <c r="AC898" s="3"/>
     </row>
     <row r="899">
       <c r="A899" s="3"/>
@@ -28412,6 +29447,7 @@
       <c r="Z899" s="3"/>
       <c r="AA899" s="3"/>
       <c r="AB899" s="3"/>
+      <c r="AC899" s="3"/>
     </row>
     <row r="900">
       <c r="A900" s="3"/>
@@ -28442,6 +29478,7 @@
       <c r="Z900" s="3"/>
       <c r="AA900" s="3"/>
       <c r="AB900" s="3"/>
+      <c r="AC900" s="3"/>
     </row>
     <row r="901">
       <c r="A901" s="3"/>
@@ -28472,6 +29509,7 @@
       <c r="Z901" s="3"/>
       <c r="AA901" s="3"/>
       <c r="AB901" s="3"/>
+      <c r="AC901" s="3"/>
     </row>
     <row r="902">
       <c r="A902" s="3"/>
@@ -28502,6 +29540,7 @@
       <c r="Z902" s="3"/>
       <c r="AA902" s="3"/>
       <c r="AB902" s="3"/>
+      <c r="AC902" s="3"/>
     </row>
     <row r="903">
       <c r="A903" s="3"/>
@@ -28532,6 +29571,7 @@
       <c r="Z903" s="3"/>
       <c r="AA903" s="3"/>
       <c r="AB903" s="3"/>
+      <c r="AC903" s="3"/>
     </row>
     <row r="904">
       <c r="A904" s="3"/>
@@ -28562,6 +29602,7 @@
       <c r="Z904" s="3"/>
       <c r="AA904" s="3"/>
       <c r="AB904" s="3"/>
+      <c r="AC904" s="3"/>
     </row>
     <row r="905">
       <c r="A905" s="3"/>
@@ -28592,6 +29633,7 @@
       <c r="Z905" s="3"/>
       <c r="AA905" s="3"/>
       <c r="AB905" s="3"/>
+      <c r="AC905" s="3"/>
     </row>
     <row r="906">
       <c r="A906" s="3"/>
@@ -28622,6 +29664,7 @@
       <c r="Z906" s="3"/>
       <c r="AA906" s="3"/>
       <c r="AB906" s="3"/>
+      <c r="AC906" s="3"/>
     </row>
     <row r="907">
       <c r="A907" s="3"/>
@@ -28652,6 +29695,7 @@
       <c r="Z907" s="3"/>
       <c r="AA907" s="3"/>
       <c r="AB907" s="3"/>
+      <c r="AC907" s="3"/>
     </row>
     <row r="908">
       <c r="A908" s="3"/>
@@ -28682,6 +29726,7 @@
       <c r="Z908" s="3"/>
       <c r="AA908" s="3"/>
       <c r="AB908" s="3"/>
+      <c r="AC908" s="3"/>
     </row>
     <row r="909">
       <c r="A909" s="3"/>
@@ -28712,6 +29757,7 @@
       <c r="Z909" s="3"/>
       <c r="AA909" s="3"/>
       <c r="AB909" s="3"/>
+      <c r="AC909" s="3"/>
     </row>
     <row r="910">
       <c r="A910" s="3"/>
@@ -28742,6 +29788,7 @@
       <c r="Z910" s="3"/>
       <c r="AA910" s="3"/>
       <c r="AB910" s="3"/>
+      <c r="AC910" s="3"/>
     </row>
     <row r="911">
       <c r="A911" s="3"/>
@@ -28772,6 +29819,7 @@
       <c r="Z911" s="3"/>
       <c r="AA911" s="3"/>
       <c r="AB911" s="3"/>
+      <c r="AC911" s="3"/>
     </row>
     <row r="912">
       <c r="A912" s="3"/>
@@ -28802,6 +29850,7 @@
       <c r="Z912" s="3"/>
       <c r="AA912" s="3"/>
       <c r="AB912" s="3"/>
+      <c r="AC912" s="3"/>
     </row>
     <row r="913">
       <c r="A913" s="3"/>
@@ -28832,6 +29881,7 @@
       <c r="Z913" s="3"/>
       <c r="AA913" s="3"/>
       <c r="AB913" s="3"/>
+      <c r="AC913" s="3"/>
     </row>
     <row r="914">
       <c r="A914" s="3"/>
@@ -28862,6 +29912,7 @@
       <c r="Z914" s="3"/>
       <c r="AA914" s="3"/>
       <c r="AB914" s="3"/>
+      <c r="AC914" s="3"/>
     </row>
     <row r="915">
       <c r="A915" s="3"/>
@@ -28892,6 +29943,7 @@
       <c r="Z915" s="3"/>
       <c r="AA915" s="3"/>
       <c r="AB915" s="3"/>
+      <c r="AC915" s="3"/>
     </row>
     <row r="916">
       <c r="A916" s="3"/>
@@ -28922,6 +29974,7 @@
       <c r="Z916" s="3"/>
       <c r="AA916" s="3"/>
       <c r="AB916" s="3"/>
+      <c r="AC916" s="3"/>
     </row>
     <row r="917">
       <c r="A917" s="3"/>
@@ -28952,6 +30005,7 @@
       <c r="Z917" s="3"/>
       <c r="AA917" s="3"/>
       <c r="AB917" s="3"/>
+      <c r="AC917" s="3"/>
     </row>
     <row r="918">
       <c r="A918" s="3"/>
@@ -28982,6 +30036,7 @@
       <c r="Z918" s="3"/>
       <c r="AA918" s="3"/>
       <c r="AB918" s="3"/>
+      <c r="AC918" s="3"/>
     </row>
     <row r="919">
       <c r="A919" s="3"/>
@@ -29012,6 +30067,7 @@
       <c r="Z919" s="3"/>
       <c r="AA919" s="3"/>
       <c r="AB919" s="3"/>
+      <c r="AC919" s="3"/>
     </row>
     <row r="920">
       <c r="A920" s="3"/>
@@ -29042,6 +30098,7 @@
       <c r="Z920" s="3"/>
       <c r="AA920" s="3"/>
       <c r="AB920" s="3"/>
+      <c r="AC920" s="3"/>
     </row>
     <row r="921">
       <c r="A921" s="3"/>
@@ -29072,6 +30129,7 @@
       <c r="Z921" s="3"/>
       <c r="AA921" s="3"/>
       <c r="AB921" s="3"/>
+      <c r="AC921" s="3"/>
     </row>
     <row r="922">
       <c r="A922" s="3"/>
@@ -29102,6 +30160,7 @@
       <c r="Z922" s="3"/>
       <c r="AA922" s="3"/>
       <c r="AB922" s="3"/>
+      <c r="AC922" s="3"/>
     </row>
     <row r="923">
       <c r="A923" s="3"/>
@@ -29132,6 +30191,7 @@
       <c r="Z923" s="3"/>
       <c r="AA923" s="3"/>
       <c r="AB923" s="3"/>
+      <c r="AC923" s="3"/>
     </row>
     <row r="924">
       <c r="A924" s="3"/>
@@ -29162,6 +30222,7 @@
       <c r="Z924" s="3"/>
       <c r="AA924" s="3"/>
       <c r="AB924" s="3"/>
+      <c r="AC924" s="3"/>
     </row>
     <row r="925">
       <c r="A925" s="3"/>
@@ -29192,6 +30253,7 @@
       <c r="Z925" s="3"/>
       <c r="AA925" s="3"/>
       <c r="AB925" s="3"/>
+      <c r="AC925" s="3"/>
     </row>
     <row r="926">
       <c r="A926" s="3"/>
@@ -29222,6 +30284,7 @@
       <c r="Z926" s="3"/>
       <c r="AA926" s="3"/>
       <c r="AB926" s="3"/>
+      <c r="AC926" s="3"/>
     </row>
     <row r="927">
       <c r="A927" s="3"/>
@@ -29252,6 +30315,7 @@
       <c r="Z927" s="3"/>
       <c r="AA927" s="3"/>
       <c r="AB927" s="3"/>
+      <c r="AC927" s="3"/>
     </row>
     <row r="928">
       <c r="A928" s="3"/>
@@ -29282,6 +30346,7 @@
       <c r="Z928" s="3"/>
       <c r="AA928" s="3"/>
       <c r="AB928" s="3"/>
+      <c r="AC928" s="3"/>
     </row>
     <row r="929">
       <c r="A929" s="3"/>
@@ -29312,6 +30377,7 @@
       <c r="Z929" s="3"/>
       <c r="AA929" s="3"/>
       <c r="AB929" s="3"/>
+      <c r="AC929" s="3"/>
     </row>
     <row r="930">
       <c r="A930" s="3"/>
@@ -29342,6 +30408,7 @@
       <c r="Z930" s="3"/>
       <c r="AA930" s="3"/>
       <c r="AB930" s="3"/>
+      <c r="AC930" s="3"/>
     </row>
     <row r="931">
       <c r="A931" s="3"/>
@@ -29372,6 +30439,7 @@
       <c r="Z931" s="3"/>
       <c r="AA931" s="3"/>
       <c r="AB931" s="3"/>
+      <c r="AC931" s="3"/>
     </row>
     <row r="932">
       <c r="A932" s="3"/>
@@ -29402,6 +30470,7 @@
       <c r="Z932" s="3"/>
       <c r="AA932" s="3"/>
       <c r="AB932" s="3"/>
+      <c r="AC932" s="3"/>
     </row>
     <row r="933">
       <c r="A933" s="3"/>
@@ -29432,6 +30501,7 @@
       <c r="Z933" s="3"/>
       <c r="AA933" s="3"/>
       <c r="AB933" s="3"/>
+      <c r="AC933" s="3"/>
     </row>
     <row r="934">
       <c r="A934" s="3"/>
@@ -29462,6 +30532,7 @@
       <c r="Z934" s="3"/>
       <c r="AA934" s="3"/>
       <c r="AB934" s="3"/>
+      <c r="AC934" s="3"/>
     </row>
     <row r="935">
       <c r="A935" s="3"/>
@@ -29492,6 +30563,7 @@
       <c r="Z935" s="3"/>
       <c r="AA935" s="3"/>
       <c r="AB935" s="3"/>
+      <c r="AC935" s="3"/>
     </row>
     <row r="936">
       <c r="A936" s="3"/>
@@ -29522,6 +30594,7 @@
       <c r="Z936" s="3"/>
       <c r="AA936" s="3"/>
       <c r="AB936" s="3"/>
+      <c r="AC936" s="3"/>
     </row>
     <row r="937">
       <c r="A937" s="3"/>
@@ -29552,6 +30625,7 @@
       <c r="Z937" s="3"/>
       <c r="AA937" s="3"/>
       <c r="AB937" s="3"/>
+      <c r="AC937" s="3"/>
     </row>
     <row r="938">
       <c r="A938" s="3"/>
@@ -29582,6 +30656,7 @@
       <c r="Z938" s="3"/>
       <c r="AA938" s="3"/>
       <c r="AB938" s="3"/>
+      <c r="AC938" s="3"/>
     </row>
     <row r="939">
       <c r="A939" s="3"/>
@@ -29612,6 +30687,7 @@
       <c r="Z939" s="3"/>
       <c r="AA939" s="3"/>
       <c r="AB939" s="3"/>
+      <c r="AC939" s="3"/>
     </row>
     <row r="940">
       <c r="A940" s="3"/>
@@ -29642,6 +30718,7 @@
       <c r="Z940" s="3"/>
       <c r="AA940" s="3"/>
       <c r="AB940" s="3"/>
+      <c r="AC940" s="3"/>
     </row>
     <row r="941">
       <c r="A941" s="3"/>
@@ -29672,6 +30749,7 @@
       <c r="Z941" s="3"/>
       <c r="AA941" s="3"/>
       <c r="AB941" s="3"/>
+      <c r="AC941" s="3"/>
     </row>
     <row r="942">
       <c r="A942" s="3"/>
@@ -29702,6 +30780,7 @@
       <c r="Z942" s="3"/>
       <c r="AA942" s="3"/>
       <c r="AB942" s="3"/>
+      <c r="AC942" s="3"/>
     </row>
     <row r="943">
       <c r="A943" s="3"/>
@@ -29732,6 +30811,7 @@
       <c r="Z943" s="3"/>
       <c r="AA943" s="3"/>
       <c r="AB943" s="3"/>
+      <c r="AC943" s="3"/>
     </row>
     <row r="944">
       <c r="A944" s="3"/>
@@ -29762,6 +30842,7 @@
       <c r="Z944" s="3"/>
       <c r="AA944" s="3"/>
       <c r="AB944" s="3"/>
+      <c r="AC944" s="3"/>
     </row>
     <row r="945">
       <c r="A945" s="3"/>
@@ -29792,6 +30873,7 @@
       <c r="Z945" s="3"/>
       <c r="AA945" s="3"/>
       <c r="AB945" s="3"/>
+      <c r="AC945" s="3"/>
     </row>
     <row r="946">
       <c r="A946" s="3"/>
@@ -29822,6 +30904,7 @@
       <c r="Z946" s="3"/>
       <c r="AA946" s="3"/>
       <c r="AB946" s="3"/>
+      <c r="AC946" s="3"/>
     </row>
     <row r="947">
       <c r="A947" s="3"/>
@@ -29852,6 +30935,7 @@
       <c r="Z947" s="3"/>
       <c r="AA947" s="3"/>
       <c r="AB947" s="3"/>
+      <c r="AC947" s="3"/>
     </row>
     <row r="948">
       <c r="A948" s="3"/>
@@ -29882,6 +30966,7 @@
       <c r="Z948" s="3"/>
       <c r="AA948" s="3"/>
       <c r="AB948" s="3"/>
+      <c r="AC948" s="3"/>
     </row>
     <row r="949">
       <c r="A949" s="3"/>
@@ -29912,6 +30997,7 @@
       <c r="Z949" s="3"/>
       <c r="AA949" s="3"/>
       <c r="AB949" s="3"/>
+      <c r="AC949" s="3"/>
     </row>
     <row r="950">
       <c r="A950" s="3"/>
@@ -29942,6 +31028,7 @@
       <c r="Z950" s="3"/>
       <c r="AA950" s="3"/>
       <c r="AB950" s="3"/>
+      <c r="AC950" s="3"/>
     </row>
     <row r="951">
       <c r="A951" s="3"/>
@@ -29972,6 +31059,7 @@
       <c r="Z951" s="3"/>
       <c r="AA951" s="3"/>
       <c r="AB951" s="3"/>
+      <c r="AC951" s="3"/>
     </row>
     <row r="952">
       <c r="A952" s="3"/>
@@ -30002,6 +31090,7 @@
       <c r="Z952" s="3"/>
       <c r="AA952" s="3"/>
       <c r="AB952" s="3"/>
+      <c r="AC952" s="3"/>
     </row>
     <row r="953">
       <c r="A953" s="3"/>
@@ -30032,6 +31121,7 @@
       <c r="Z953" s="3"/>
       <c r="AA953" s="3"/>
       <c r="AB953" s="3"/>
+      <c r="AC953" s="3"/>
     </row>
     <row r="954">
       <c r="A954" s="3"/>
@@ -30062,6 +31152,7 @@
       <c r="Z954" s="3"/>
       <c r="AA954" s="3"/>
       <c r="AB954" s="3"/>
+      <c r="AC954" s="3"/>
     </row>
     <row r="955">
       <c r="A955" s="3"/>
@@ -30092,6 +31183,7 @@
       <c r="Z955" s="3"/>
       <c r="AA955" s="3"/>
       <c r="AB955" s="3"/>
+      <c r="AC955" s="3"/>
     </row>
     <row r="956">
       <c r="A956" s="3"/>
@@ -30122,6 +31214,7 @@
       <c r="Z956" s="3"/>
       <c r="AA956" s="3"/>
       <c r="AB956" s="3"/>
+      <c r="AC956" s="3"/>
     </row>
     <row r="957">
       <c r="A957" s="3"/>
@@ -30152,6 +31245,7 @@
       <c r="Z957" s="3"/>
       <c r="AA957" s="3"/>
       <c r="AB957" s="3"/>
+      <c r="AC957" s="3"/>
     </row>
     <row r="958">
       <c r="A958" s="3"/>
@@ -30182,6 +31276,7 @@
       <c r="Z958" s="3"/>
       <c r="AA958" s="3"/>
       <c r="AB958" s="3"/>
+      <c r="AC958" s="3"/>
     </row>
     <row r="959">
       <c r="A959" s="3"/>
@@ -30212,6 +31307,7 @@
       <c r="Z959" s="3"/>
       <c r="AA959" s="3"/>
       <c r="AB959" s="3"/>
+      <c r="AC959" s="3"/>
     </row>
     <row r="960">
       <c r="A960" s="3"/>
@@ -30242,6 +31338,7 @@
       <c r="Z960" s="3"/>
       <c r="AA960" s="3"/>
       <c r="AB960" s="3"/>
+      <c r="AC960" s="3"/>
     </row>
     <row r="961">
       <c r="A961" s="3"/>
@@ -30272,6 +31369,7 @@
       <c r="Z961" s="3"/>
       <c r="AA961" s="3"/>
       <c r="AB961" s="3"/>
+      <c r="AC961" s="3"/>
     </row>
     <row r="962">
       <c r="A962" s="3"/>
@@ -30302,6 +31400,7 @@
       <c r="Z962" s="3"/>
       <c r="AA962" s="3"/>
       <c r="AB962" s="3"/>
+      <c r="AC962" s="3"/>
     </row>
     <row r="963">
       <c r="A963" s="3"/>
@@ -30332,6 +31431,7 @@
       <c r="Z963" s="3"/>
       <c r="AA963" s="3"/>
       <c r="AB963" s="3"/>
+      <c r="AC963" s="3"/>
     </row>
     <row r="964">
       <c r="A964" s="3"/>
@@ -30362,6 +31462,7 @@
       <c r="Z964" s="3"/>
       <c r="AA964" s="3"/>
       <c r="AB964" s="3"/>
+      <c r="AC964" s="3"/>
     </row>
     <row r="965">
       <c r="A965" s="3"/>
@@ -30392,6 +31493,7 @@
       <c r="Z965" s="3"/>
       <c r="AA965" s="3"/>
       <c r="AB965" s="3"/>
+      <c r="AC965" s="3"/>
     </row>
     <row r="966">
       <c r="A966" s="3"/>
@@ -30422,6 +31524,7 @@
       <c r="Z966" s="3"/>
       <c r="AA966" s="3"/>
       <c r="AB966" s="3"/>
+      <c r="AC966" s="3"/>
     </row>
     <row r="967">
       <c r="A967" s="3"/>
@@ -30452,6 +31555,7 @@
       <c r="Z967" s="3"/>
       <c r="AA967" s="3"/>
       <c r="AB967" s="3"/>
+      <c r="AC967" s="3"/>
     </row>
     <row r="968">
       <c r="A968" s="3"/>
@@ -30482,6 +31586,7 @@
       <c r="Z968" s="3"/>
       <c r="AA968" s="3"/>
       <c r="AB968" s="3"/>
+      <c r="AC968" s="3"/>
     </row>
     <row r="969">
       <c r="A969" s="3"/>
@@ -30512,6 +31617,7 @@
       <c r="Z969" s="3"/>
       <c r="AA969" s="3"/>
       <c r="AB969" s="3"/>
+      <c r="AC969" s="3"/>
     </row>
     <row r="970">
       <c r="A970" s="3"/>
@@ -30542,6 +31648,7 @@
       <c r="Z970" s="3"/>
       <c r="AA970" s="3"/>
       <c r="AB970" s="3"/>
+      <c r="AC970" s="3"/>
     </row>
     <row r="971">
       <c r="A971" s="3"/>
@@ -30572,6 +31679,7 @@
       <c r="Z971" s="3"/>
       <c r="AA971" s="3"/>
       <c r="AB971" s="3"/>
+      <c r="AC971" s="3"/>
     </row>
     <row r="972">
       <c r="A972" s="3"/>
@@ -30602,6 +31710,7 @@
       <c r="Z972" s="3"/>
       <c r="AA972" s="3"/>
       <c r="AB972" s="3"/>
+      <c r="AC972" s="3"/>
     </row>
     <row r="973">
       <c r="A973" s="3"/>
@@ -30632,6 +31741,7 @@
       <c r="Z973" s="3"/>
       <c r="AA973" s="3"/>
       <c r="AB973" s="3"/>
+      <c r="AC973" s="3"/>
     </row>
     <row r="974">
       <c r="A974" s="3"/>
@@ -30662,6 +31772,7 @@
       <c r="Z974" s="3"/>
       <c r="AA974" s="3"/>
       <c r="AB974" s="3"/>
+      <c r="AC974" s="3"/>
     </row>
     <row r="975">
       <c r="A975" s="3"/>
@@ -30692,6 +31803,7 @@
       <c r="Z975" s="3"/>
       <c r="AA975" s="3"/>
       <c r="AB975" s="3"/>
+      <c r="AC975" s="3"/>
     </row>
     <row r="976">
       <c r="A976" s="3"/>
@@ -30722,6 +31834,7 @@
       <c r="Z976" s="3"/>
       <c r="AA976" s="3"/>
       <c r="AB976" s="3"/>
+      <c r="AC976" s="3"/>
     </row>
     <row r="977">
       <c r="A977" s="3"/>
@@ -30752,6 +31865,7 @@
       <c r="Z977" s="3"/>
       <c r="AA977" s="3"/>
       <c r="AB977" s="3"/>
+      <c r="AC977" s="3"/>
     </row>
     <row r="978">
       <c r="A978" s="3"/>
@@ -30782,6 +31896,7 @@
       <c r="Z978" s="3"/>
       <c r="AA978" s="3"/>
       <c r="AB978" s="3"/>
+      <c r="AC978" s="3"/>
     </row>
     <row r="979">
       <c r="A979" s="3"/>
@@ -30812,6 +31927,7 @@
       <c r="Z979" s="3"/>
       <c r="AA979" s="3"/>
       <c r="AB979" s="3"/>
+      <c r="AC979" s="3"/>
     </row>
     <row r="980">
       <c r="A980" s="3"/>
@@ -30842,6 +31958,7 @@
       <c r="Z980" s="3"/>
       <c r="AA980" s="3"/>
       <c r="AB980" s="3"/>
+      <c r="AC980" s="3"/>
     </row>
     <row r="981">
       <c r="A981" s="3"/>
@@ -30872,6 +31989,7 @@
       <c r="Z981" s="3"/>
       <c r="AA981" s="3"/>
       <c r="AB981" s="3"/>
+      <c r="AC981" s="3"/>
     </row>
     <row r="982">
       <c r="A982" s="3"/>
@@ -30902,6 +32020,7 @@
       <c r="Z982" s="3"/>
       <c r="AA982" s="3"/>
       <c r="AB982" s="3"/>
+      <c r="AC982" s="3"/>
     </row>
     <row r="983">
       <c r="A983" s="3"/>
@@ -30932,6 +32051,7 @@
       <c r="Z983" s="3"/>
       <c r="AA983" s="3"/>
       <c r="AB983" s="3"/>
+      <c r="AC983" s="3"/>
     </row>
     <row r="984">
       <c r="A984" s="3"/>
@@ -30962,6 +32082,7 @@
       <c r="Z984" s="3"/>
       <c r="AA984" s="3"/>
       <c r="AB984" s="3"/>
+      <c r="AC984" s="3"/>
     </row>
     <row r="985">
       <c r="A985" s="3"/>
@@ -30992,6 +32113,7 @@
       <c r="Z985" s="3"/>
       <c r="AA985" s="3"/>
       <c r="AB985" s="3"/>
+      <c r="AC985" s="3"/>
     </row>
     <row r="986">
       <c r="A986" s="3"/>
@@ -31022,6 +32144,7 @@
       <c r="Z986" s="3"/>
       <c r="AA986" s="3"/>
       <c r="AB986" s="3"/>
+      <c r="AC986" s="3"/>
     </row>
     <row r="987">
       <c r="A987" s="3"/>
@@ -31052,6 +32175,7 @@
       <c r="Z987" s="3"/>
       <c r="AA987" s="3"/>
       <c r="AB987" s="3"/>
+      <c r="AC987" s="3"/>
     </row>
     <row r="988">
       <c r="A988" s="3"/>
@@ -31082,6 +32206,7 @@
       <c r="Z988" s="3"/>
       <c r="AA988" s="3"/>
       <c r="AB988" s="3"/>
+      <c r="AC988" s="3"/>
     </row>
     <row r="989">
       <c r="A989" s="3"/>
@@ -31112,6 +32237,7 @@
       <c r="Z989" s="3"/>
       <c r="AA989" s="3"/>
       <c r="AB989" s="3"/>
+      <c r="AC989" s="3"/>
     </row>
     <row r="990">
       <c r="A990" s="3"/>
@@ -31142,6 +32268,7 @@
       <c r="Z990" s="3"/>
       <c r="AA990" s="3"/>
       <c r="AB990" s="3"/>
+      <c r="AC990" s="3"/>
     </row>
     <row r="991">
       <c r="A991" s="3"/>
@@ -31172,6 +32299,7 @@
       <c r="Z991" s="3"/>
       <c r="AA991" s="3"/>
       <c r="AB991" s="3"/>
+      <c r="AC991" s="3"/>
     </row>
     <row r="992">
       <c r="A992" s="3"/>
@@ -31202,6 +32330,7 @@
       <c r="Z992" s="3"/>
       <c r="AA992" s="3"/>
       <c r="AB992" s="3"/>
+      <c r="AC992" s="3"/>
     </row>
     <row r="993">
       <c r="A993" s="3"/>
@@ -31232,6 +32361,7 @@
       <c r="Z993" s="3"/>
       <c r="AA993" s="3"/>
       <c r="AB993" s="3"/>
+      <c r="AC993" s="3"/>
     </row>
     <row r="994">
       <c r="A994" s="3"/>
@@ -31262,6 +32392,7 @@
       <c r="Z994" s="3"/>
       <c r="AA994" s="3"/>
       <c r="AB994" s="3"/>
+      <c r="AC994" s="3"/>
     </row>
     <row r="995">
       <c r="A995" s="3"/>
@@ -31292,6 +32423,7 @@
       <c r="Z995" s="3"/>
       <c r="AA995" s="3"/>
       <c r="AB995" s="3"/>
+      <c r="AC995" s="3"/>
     </row>
     <row r="996">
       <c r="A996" s="3"/>
@@ -31322,6 +32454,7 @@
       <c r="Z996" s="3"/>
       <c r="AA996" s="3"/>
       <c r="AB996" s="3"/>
+      <c r="AC996" s="3"/>
     </row>
     <row r="997">
       <c r="A997" s="3"/>
@@ -31352,6 +32485,7 @@
       <c r="Z997" s="3"/>
       <c r="AA997" s="3"/>
       <c r="AB997" s="3"/>
+      <c r="AC997" s="3"/>
     </row>
     <row r="998">
       <c r="A998" s="3"/>
@@ -31382,6 +32516,7 @@
       <c r="Z998" s="3"/>
       <c r="AA998" s="3"/>
       <c r="AB998" s="3"/>
+      <c r="AC998" s="3"/>
     </row>
     <row r="999">
       <c r="A999" s="3"/>
@@ -31412,6 +32547,7 @@
       <c r="Z999" s="3"/>
       <c r="AA999" s="3"/>
       <c r="AB999" s="3"/>
+      <c r="AC999" s="3"/>
     </row>
     <row r="1000">
       <c r="A1000" s="3"/>
@@ -31442,6 +32578,7 @@
       <c r="Z1000" s="3"/>
       <c r="AA1000" s="3"/>
       <c r="AB1000" s="3"/>
+      <c r="AC1000" s="3"/>
     </row>
     <row r="1001">
       <c r="A1001" s="3"/>
@@ -31472,6 +32609,7 @@
       <c r="Z1001" s="3"/>
       <c r="AA1001" s="3"/>
       <c r="AB1001" s="3"/>
+      <c r="AC1001" s="3"/>
     </row>
     <row r="1002">
       <c r="A1002" s="3"/>
@@ -31502,6 +32640,7 @@
       <c r="Z1002" s="3"/>
       <c r="AA1002" s="3"/>
       <c r="AB1002" s="3"/>
+      <c r="AC1002" s="3"/>
     </row>
     <row r="1003">
       <c r="A1003" s="3"/>
@@ -31532,17 +32671,18 @@
       <c r="Z1003" s="3"/>
       <c r="AA1003" s="3"/>
       <c r="AB1003" s="3"/>
+      <c r="AC1003" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId4" ref="K3"/>
+    <hyperlink r:id="rId4" ref="L3"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
   <legacyDrawing r:id="rId6"/>
